--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Time</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Average of Time</t>
+  </si>
+  <si>
+    <t>Average Tables</t>
   </si>
 </sst>
 </file>
@@ -109,6 +112,918 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0644333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0786666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178833333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0644333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173633333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.499433333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2041321376"/>
+        <c:axId val="-2018870480"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2041321376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2018870480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2018870480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2041321376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1499,7 +2414,7 @@
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1721,6 +2636,9 @@
       <c r="E10">
         <v>100</v>
       </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1735,6 +2653,18 @@
       <c r="E11">
         <v>100</v>
       </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1749,6 +2679,20 @@
       <c r="E12">
         <v>100</v>
       </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(A2:A31)</f>
+        <v>6.4433333333333329E-2</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(D2:D31)</f>
+        <v>6.4433333333333329E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1763,6 +2707,20 @@
       <c r="E13">
         <v>100</v>
       </c>
+      <c r="H13">
+        <v>2000</v>
+      </c>
+      <c r="I13">
+        <f>AVERAGE(A32:A61)</f>
+        <v>7.8666666666666676E-2</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <f>AVERAGE(D32:D61)</f>
+        <v>7.7600000000000016E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1777,6 +2735,20 @@
       <c r="E14">
         <v>100</v>
       </c>
+      <c r="H14">
+        <v>4000</v>
+      </c>
+      <c r="I14">
+        <f>AVERAGE(A62:A91)</f>
+        <v>0.11370000000000005</v>
+      </c>
+      <c r="K14">
+        <v>400</v>
+      </c>
+      <c r="L14">
+        <f>AVERAGE(D62:D91)</f>
+        <v>0.17363333333333336</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1791,6 +2763,20 @@
       <c r="E15">
         <v>100</v>
       </c>
+      <c r="H15">
+        <v>8000</v>
+      </c>
+      <c r="I15">
+        <f>AVERAGE(A92:A121)</f>
+        <v>0.17883333333333334</v>
+      </c>
+      <c r="K15">
+        <v>800</v>
+      </c>
+      <c r="L15">
+        <f>AVERAGE(D92:D121)</f>
+        <v>0.4994333333333334</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -3278,5 +4264,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -168,6 +168,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Time vs Number of Students</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -180,12 +183,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$H$12:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12:$I$15</c:f>
+              <c:f>Sheet1!$I$12:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0644333333333333</c:v>
                 </c:pt>
@@ -198,43 +225,8 @@
                 <c:pt idx="3">
                   <c:v>0.178833333333333</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$L$12:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0644333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0776</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.173633333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.499433333333333</c:v>
+                <c:pt idx="4">
+                  <c:v>0.308633333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -250,16 +242,17 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2041321376"/>
-        <c:axId val="-2018870480"/>
+        <c:axId val="-2002678240"/>
+        <c:axId val="-2014259456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2041321376"/>
+        <c:axId val="-2002678240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -296,7 +289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2018870480"/>
+        <c:crossAx val="-2014259456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -304,7 +297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2018870480"/>
+        <c:axId val="-2014259456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041321376"/>
+        <c:crossAx val="-2002678240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -366,9 +359,66 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.275284558180227"/>
+          <c:y val="0.0416666666666667"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -382,7 +432,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -397,7 +447,207 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Time vs Number of Classes</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$12:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$12:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0644333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173633333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.499433333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2083637472"/>
+        <c:axId val="-2002062032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2083637472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2002062032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2002062032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083637472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -475,6 +725,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -991,24 +1281,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1018,6 +1824,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2411,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2791,6 +3627,20 @@
       <c r="E16">
         <v>100</v>
       </c>
+      <c r="H16">
+        <v>1600</v>
+      </c>
+      <c r="I16">
+        <f>AVERAGE(A122:A151)</f>
+        <v>0.30863333333333326</v>
+      </c>
+      <c r="K16">
+        <v>1600</v>
+      </c>
+      <c r="L16">
+        <f>AVERAGE(D122:D151)</f>
+        <v>1.9911999999999999</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4260,6 +5110,426 @@
       </c>
       <c r="E121">
         <v>800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>0.307</v>
+      </c>
+      <c r="B122">
+        <v>16000</v>
+      </c>
+      <c r="D122">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="E122">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>0.313</v>
+      </c>
+      <c r="B123">
+        <v>16000</v>
+      </c>
+      <c r="D123">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="E123">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="B124">
+        <v>16000</v>
+      </c>
+      <c r="D124">
+        <v>2.012</v>
+      </c>
+      <c r="E124">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>0.31</v>
+      </c>
+      <c r="B125">
+        <v>16000</v>
+      </c>
+      <c r="D125">
+        <v>2.012</v>
+      </c>
+      <c r="E125">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>0.309</v>
+      </c>
+      <c r="B126">
+        <v>16000</v>
+      </c>
+      <c r="D126">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="E126">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>0.314</v>
+      </c>
+      <c r="B127">
+        <v>16000</v>
+      </c>
+      <c r="D127">
+        <v>1.986</v>
+      </c>
+      <c r="E127">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="B128">
+        <v>16000</v>
+      </c>
+      <c r="D128">
+        <v>1.992</v>
+      </c>
+      <c r="E128">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>0.3</v>
+      </c>
+      <c r="B129">
+        <v>16000</v>
+      </c>
+      <c r="D129">
+        <v>1.982</v>
+      </c>
+      <c r="E129">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>0.311</v>
+      </c>
+      <c r="B130">
+        <v>16000</v>
+      </c>
+      <c r="D130">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="E130">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>0.31</v>
+      </c>
+      <c r="B131">
+        <v>16000</v>
+      </c>
+      <c r="D131">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="E131">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>0.312</v>
+      </c>
+      <c r="B132">
+        <v>16000</v>
+      </c>
+      <c r="D132">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="E132">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="B133">
+        <v>16000</v>
+      </c>
+      <c r="D133">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="E133">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="B134">
+        <v>16000</v>
+      </c>
+      <c r="D134">
+        <v>1.992</v>
+      </c>
+      <c r="E134">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>0.308</v>
+      </c>
+      <c r="B135">
+        <v>16000</v>
+      </c>
+      <c r="D135">
+        <v>1.994</v>
+      </c>
+      <c r="E135">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="B136">
+        <v>16000</v>
+      </c>
+      <c r="D136">
+        <v>1.976</v>
+      </c>
+      <c r="E136">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>0.308</v>
+      </c>
+      <c r="B137">
+        <v>16000</v>
+      </c>
+      <c r="D137">
+        <v>1.982</v>
+      </c>
+      <c r="E137">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>0.312</v>
+      </c>
+      <c r="B138">
+        <v>16000</v>
+      </c>
+      <c r="D138">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="E138">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>0.314</v>
+      </c>
+      <c r="B139">
+        <v>16000</v>
+      </c>
+      <c r="D139">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="E139">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>0.308</v>
+      </c>
+      <c r="B140">
+        <v>16000</v>
+      </c>
+      <c r="D140">
+        <v>1.998</v>
+      </c>
+      <c r="E140">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>0.309</v>
+      </c>
+      <c r="B141">
+        <v>16000</v>
+      </c>
+      <c r="D141">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="E141">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="B142">
+        <v>16000</v>
+      </c>
+      <c r="D142">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="E142">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>0.311</v>
+      </c>
+      <c r="B143">
+        <v>16000</v>
+      </c>
+      <c r="D143">
+        <v>1.992</v>
+      </c>
+      <c r="E143">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>0.31</v>
+      </c>
+      <c r="B144">
+        <v>16000</v>
+      </c>
+      <c r="D144">
+        <v>1.994</v>
+      </c>
+      <c r="E144">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>0.31</v>
+      </c>
+      <c r="B145">
+        <v>16000</v>
+      </c>
+      <c r="D145">
+        <v>1.986</v>
+      </c>
+      <c r="E145">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="B146">
+        <v>16000</v>
+      </c>
+      <c r="D146">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="E146">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>0.311</v>
+      </c>
+      <c r="B147">
+        <v>16000</v>
+      </c>
+      <c r="D147">
+        <v>1.976</v>
+      </c>
+      <c r="E147">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>0.313</v>
+      </c>
+      <c r="B148">
+        <v>16000</v>
+      </c>
+      <c r="D148">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="E148">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>0.312</v>
+      </c>
+      <c r="B149">
+        <v>16000</v>
+      </c>
+      <c r="D149">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="E149">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>0.312</v>
+      </c>
+      <c r="B150">
+        <v>16000</v>
+      </c>
+      <c r="D150">
+        <v>1.98</v>
+      </c>
+      <c r="E150">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>0.313</v>
+      </c>
+      <c r="B151">
+        <v>16000</v>
+      </c>
+      <c r="D151">
+        <v>1.99</v>
+      </c>
+      <c r="E151">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>

--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Optimality" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId2"/>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -58,6 +59,57 @@
   </si>
   <si>
     <t>Average Tables</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Max Value</t>
+  </si>
+  <si>
+    <t>1000 Students / 100 Classes</t>
+  </si>
+  <si>
+    <t>2000 Students / 200 Classes</t>
+  </si>
+  <si>
+    <t>4000 Students / 400 Classes</t>
+  </si>
+  <si>
+    <t>8000 Students / 800 Classes</t>
+  </si>
+  <si>
+    <t>16000 Students / 1600 Classes</t>
+  </si>
+  <si>
+    <t>Experiment 1</t>
+  </si>
+  <si>
+    <t>Experiment 2</t>
+  </si>
+  <si>
+    <t>Experiment 3</t>
+  </si>
+  <si>
+    <t>Experiment 4</t>
+  </si>
+  <si>
+    <t>Experiment 5</t>
+  </si>
+  <si>
+    <t>Experiment 6</t>
+  </si>
+  <si>
+    <t>Experiment 8</t>
+  </si>
+  <si>
+    <t>Experiment 9</t>
+  </si>
+  <si>
+    <t>Haverford Sized School</t>
+  </si>
+  <si>
+    <t>Twice Haverford</t>
   </si>
 </sst>
 </file>
@@ -685,6 +737,428 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Students</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$12:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000 Students / 100 Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000 Students / 200 Classes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000 Students / 400 Classes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000 Students / 800 Classes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000 Students / 1600 Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$12:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0644333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0786666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1137</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.178833333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.308633333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$N$12:$N$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000 Students / 100 Classes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000 Students / 200 Classes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000 Students / 400 Classes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8000 Students / 800 Classes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16000 Students / 1600 Classes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$12:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0644333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0776</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.173633333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.499433333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1997183728"/>
+        <c:axId val="-2003348544"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1997183728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2003348544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2003348544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1997183728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -726,6 +1200,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1797,6 +2311,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1854,6 +2884,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3247,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L151"/>
+  <dimension ref="A1:Y341"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="P194" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3261,7 +4321,7 @@
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3286,8 +4346,17 @@
       <c r="L1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -3312,8 +4381,14 @@
       <c r="L2" s="1">
         <v>6.4433333333333329E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X2">
+        <v>3448</v>
+      </c>
+      <c r="Y2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -3338,8 +4413,14 @@
       <c r="L3" s="1">
         <v>7.8666666666666676E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X3">
+        <v>3484</v>
+      </c>
+      <c r="Y3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.3E-2</v>
       </c>
@@ -3364,8 +4445,14 @@
       <c r="L4" s="1">
         <v>0.11370000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X4">
+        <v>3454</v>
+      </c>
+      <c r="Y4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.2E-2</v>
       </c>
@@ -3390,8 +4477,14 @@
       <c r="L5" s="1">
         <v>0.17883333333333334</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X5">
+        <v>3449</v>
+      </c>
+      <c r="Y5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -3416,8 +4509,14 @@
       <c r="L6" s="1">
         <v>0.10890833333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X6">
+        <v>3473</v>
+      </c>
+      <c r="Y6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.3E-2</v>
       </c>
@@ -3430,8 +4529,14 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X7">
+        <v>3457</v>
+      </c>
+      <c r="Y7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -3444,8 +4549,14 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X8">
+        <v>3445</v>
+      </c>
+      <c r="Y8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.3E-2</v>
       </c>
@@ -3458,8 +4569,14 @@
       <c r="E9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X9">
+        <v>3462</v>
+      </c>
+      <c r="Y9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -3475,8 +4592,14 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="X10">
+        <v>3462</v>
+      </c>
+      <c r="Y10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -3493,16 +4616,22 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>3493</v>
+      </c>
+      <c r="Y11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.3E-2</v>
       </c>
@@ -3529,8 +4658,17 @@
         <f>AVERAGE(D2:D31)</f>
         <v>6.4433333333333329E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12">
+        <v>3448</v>
+      </c>
+      <c r="Y12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -3557,8 +4695,17 @@
         <f>AVERAGE(D32:D61)</f>
         <v>7.7600000000000016E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <v>3452</v>
+      </c>
+      <c r="Y13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.3E-2</v>
       </c>
@@ -3585,8 +4732,17 @@
         <f>AVERAGE(D62:D91)</f>
         <v>0.17363333333333336</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+      <c r="X14">
+        <v>3496</v>
+      </c>
+      <c r="Y14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -3613,8 +4769,17 @@
         <f>AVERAGE(D92:D121)</f>
         <v>0.4994333333333334</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15">
+        <v>3482</v>
+      </c>
+      <c r="Y15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.06</v>
       </c>
@@ -3641,8 +4806,17 @@
         <f>AVERAGE(D122:D151)</f>
         <v>1.9911999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="N16" t="s">
+        <v>15</v>
+      </c>
+      <c r="X16">
+        <v>3465</v>
+      </c>
+      <c r="Y16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.3E-2</v>
       </c>
@@ -3655,8 +4829,14 @@
       <c r="E17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X17">
+        <v>3476</v>
+      </c>
+      <c r="Y17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6.2E-2</v>
       </c>
@@ -3669,8 +4849,14 @@
       <c r="E18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X18">
+        <v>3453</v>
+      </c>
+      <c r="Y18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.3E-2</v>
       </c>
@@ -3683,8 +4869,14 @@
       <c r="E19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X19">
+        <v>3458</v>
+      </c>
+      <c r="Y19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -3697,8 +4889,14 @@
       <c r="E20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X20">
+        <v>3491</v>
+      </c>
+      <c r="Y20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -3711,8 +4909,14 @@
       <c r="E21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X21">
+        <v>3448</v>
+      </c>
+      <c r="Y21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -3725,8 +4929,14 @@
       <c r="E22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X22">
+        <v>3455</v>
+      </c>
+      <c r="Y22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.2E-2</v>
       </c>
@@ -3739,8 +4949,14 @@
       <c r="E23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X23">
+        <v>3451</v>
+      </c>
+      <c r="Y23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.3E-2</v>
       </c>
@@ -3753,8 +4969,14 @@
       <c r="E24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>3442</v>
+      </c>
+      <c r="Y24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -3767,8 +4989,14 @@
       <c r="E25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X25">
+        <v>3460</v>
+      </c>
+      <c r="Y25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -3781,8 +5009,14 @@
       <c r="E26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X26">
+        <v>3462</v>
+      </c>
+      <c r="Y26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -3795,8 +5029,14 @@
       <c r="E27">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X27">
+        <v>3458</v>
+      </c>
+      <c r="Y27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -3809,8 +5049,14 @@
       <c r="E28">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X28">
+        <v>3471</v>
+      </c>
+      <c r="Y28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -3823,8 +5069,14 @@
       <c r="E29">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X29">
+        <v>3455</v>
+      </c>
+      <c r="Y29">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -3837,8 +5089,14 @@
       <c r="E30">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X30">
+        <v>3444</v>
+      </c>
+      <c r="Y30">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -3851,8 +5109,14 @@
       <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X31">
+        <v>3459</v>
+      </c>
+      <c r="Y31">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -3865,8 +5129,11 @@
       <c r="E32">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -3879,8 +5146,14 @@
       <c r="E33">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X33">
+        <v>6647</v>
+      </c>
+      <c r="Y33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -3893,8 +5166,14 @@
       <c r="E34">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X34">
+        <v>6620</v>
+      </c>
+      <c r="Y34">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -3907,8 +5186,14 @@
       <c r="E35">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X35">
+        <v>6611</v>
+      </c>
+      <c r="Y35">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -3921,8 +5206,14 @@
       <c r="E36">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X36">
+        <v>6657</v>
+      </c>
+      <c r="Y36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -3935,8 +5226,14 @@
       <c r="E37">
         <v>200</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X37">
+        <v>6524</v>
+      </c>
+      <c r="Y37">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -3949,8 +5246,14 @@
       <c r="E38">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X38">
+        <v>6588</v>
+      </c>
+      <c r="Y38">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -3963,8 +5266,14 @@
       <c r="E39">
         <v>200</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X39">
+        <v>6609</v>
+      </c>
+      <c r="Y39">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -3977,8 +5286,14 @@
       <c r="E40">
         <v>200</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X40">
+        <v>6629</v>
+      </c>
+      <c r="Y40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.08</v>
       </c>
@@ -3991,8 +5306,14 @@
       <c r="E41">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X41">
+        <v>6623</v>
+      </c>
+      <c r="Y41">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -4005,8 +5326,14 @@
       <c r="E42">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X42">
+        <v>6663</v>
+      </c>
+      <c r="Y42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -4019,8 +5346,14 @@
       <c r="E43">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X43">
+        <v>6646</v>
+      </c>
+      <c r="Y43">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -4033,8 +5366,14 @@
       <c r="E44">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X44">
+        <v>6662</v>
+      </c>
+      <c r="Y44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4047,8 +5386,14 @@
       <c r="E45">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X45">
+        <v>6649</v>
+      </c>
+      <c r="Y45">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4061,8 +5406,14 @@
       <c r="E46">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X46">
+        <v>6580</v>
+      </c>
+      <c r="Y46">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7.8E-2</v>
       </c>
@@ -4075,8 +5426,14 @@
       <c r="E47">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X47">
+        <v>6622</v>
+      </c>
+      <c r="Y47">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.8E-2</v>
       </c>
@@ -4089,8 +5446,14 @@
       <c r="E48">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X48">
+        <v>6621</v>
+      </c>
+      <c r="Y48">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4103,8 +5466,14 @@
       <c r="E49">
         <v>200</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X49">
+        <v>6593</v>
+      </c>
+      <c r="Y49">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -4117,8 +5486,14 @@
       <c r="E50">
         <v>200</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X50">
+        <v>6601</v>
+      </c>
+      <c r="Y50">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -4131,8 +5506,14 @@
       <c r="E51">
         <v>200</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X51">
+        <v>6605</v>
+      </c>
+      <c r="Y51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4145,8 +5526,14 @@
       <c r="E52">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X52">
+        <v>6630</v>
+      </c>
+      <c r="Y52">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4159,8 +5546,14 @@
       <c r="E53">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X53">
+        <v>6662</v>
+      </c>
+      <c r="Y53">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7.8E-2</v>
       </c>
@@ -4173,8 +5566,14 @@
       <c r="E54">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X54">
+        <v>6636</v>
+      </c>
+      <c r="Y54">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -4187,8 +5586,14 @@
       <c r="E55">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X55">
+        <v>6673</v>
+      </c>
+      <c r="Y55">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -4201,8 +5606,14 @@
       <c r="E56">
         <v>200</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X56">
+        <v>6594</v>
+      </c>
+      <c r="Y56">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4215,8 +5626,14 @@
       <c r="E57">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X57">
+        <v>6620</v>
+      </c>
+      <c r="Y57">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.08</v>
       </c>
@@ -4229,8 +5646,14 @@
       <c r="E58">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X58">
+        <v>6676</v>
+      </c>
+      <c r="Y58">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -4243,8 +5666,14 @@
       <c r="E59">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X59">
+        <v>6713</v>
+      </c>
+      <c r="Y59">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -4257,8 +5686,14 @@
       <c r="E60">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X60">
+        <v>6676</v>
+      </c>
+      <c r="Y60">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -4271,8 +5706,14 @@
       <c r="E61">
         <v>200</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X61">
+        <v>6669</v>
+      </c>
+      <c r="Y61">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.11</v>
       </c>
@@ -4285,8 +5726,14 @@
       <c r="E62">
         <v>400</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X62">
+        <v>6618</v>
+      </c>
+      <c r="Y62">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.11799999999999999</v>
       </c>
@@ -4299,8 +5746,11 @@
       <c r="E63">
         <v>400</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.11</v>
       </c>
@@ -4313,8 +5763,14 @@
       <c r="E64">
         <v>400</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X64">
+        <v>12909</v>
+      </c>
+      <c r="Y64">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.11600000000000001</v>
       </c>
@@ -4327,8 +5783,14 @@
       <c r="E65">
         <v>400</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X65">
+        <v>12887</v>
+      </c>
+      <c r="Y65">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.109</v>
       </c>
@@ -4341,8 +5803,14 @@
       <c r="E66">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X66">
+        <v>12893</v>
+      </c>
+      <c r="Y66">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.11700000000000001</v>
       </c>
@@ -4355,8 +5823,14 @@
       <c r="E67">
         <v>400</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X67">
+        <v>12745</v>
+      </c>
+      <c r="Y67">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.111</v>
       </c>
@@ -4369,8 +5843,14 @@
       <c r="E68">
         <v>400</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X68">
+        <v>12698</v>
+      </c>
+      <c r="Y68">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.113</v>
       </c>
@@ -4383,8 +5863,14 @@
       <c r="E69">
         <v>400</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X69">
+        <v>12885</v>
+      </c>
+      <c r="Y69">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.11700000000000001</v>
       </c>
@@ -4397,8 +5883,14 @@
       <c r="E70">
         <v>400</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X70">
+        <v>12843</v>
+      </c>
+      <c r="Y70">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.11899999999999999</v>
       </c>
@@ -4411,8 +5903,14 @@
       <c r="E71">
         <v>400</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X71">
+        <v>12823</v>
+      </c>
+      <c r="Y71">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.113</v>
       </c>
@@ -4425,8 +5923,14 @@
       <c r="E72">
         <v>400</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X72">
+        <v>12892</v>
+      </c>
+      <c r="Y72">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.108</v>
       </c>
@@ -4439,8 +5943,14 @@
       <c r="E73">
         <v>400</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X73">
+        <v>12865</v>
+      </c>
+      <c r="Y73">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.112</v>
       </c>
@@ -4453,8 +5963,14 @@
       <c r="E74">
         <v>400</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X74">
+        <v>12800</v>
+      </c>
+      <c r="Y74">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.11600000000000001</v>
       </c>
@@ -4467,8 +5983,14 @@
       <c r="E75">
         <v>400</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X75">
+        <v>12820</v>
+      </c>
+      <c r="Y75">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.109</v>
       </c>
@@ -4481,8 +6003,14 @@
       <c r="E76">
         <v>400</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X76">
+        <v>12546</v>
+      </c>
+      <c r="Y76">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.115</v>
       </c>
@@ -4495,8 +6023,14 @@
       <c r="E77">
         <v>400</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X77">
+        <v>12830</v>
+      </c>
+      <c r="Y77">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.12</v>
       </c>
@@ -4509,8 +6043,14 @@
       <c r="E78">
         <v>400</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X78">
+        <v>12820</v>
+      </c>
+      <c r="Y78">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.115</v>
       </c>
@@ -4523,8 +6063,14 @@
       <c r="E79">
         <v>400</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X79">
+        <v>12854</v>
+      </c>
+      <c r="Y79">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.11600000000000001</v>
       </c>
@@ -4537,8 +6083,14 @@
       <c r="E80">
         <v>400</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X80">
+        <v>12774</v>
+      </c>
+      <c r="Y80">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.108</v>
       </c>
@@ -4551,8 +6103,14 @@
       <c r="E81">
         <v>400</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X81">
+        <v>12855</v>
+      </c>
+      <c r="Y81">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.113</v>
       </c>
@@ -4565,8 +6123,14 @@
       <c r="E82">
         <v>400</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X82">
+        <v>12822</v>
+      </c>
+      <c r="Y82">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.115</v>
       </c>
@@ -4579,8 +6143,14 @@
       <c r="E83">
         <v>400</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X83">
+        <v>12708</v>
+      </c>
+      <c r="Y83">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.11</v>
       </c>
@@ -4593,8 +6163,14 @@
       <c r="E84">
         <v>400</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X84">
+        <v>12631</v>
+      </c>
+      <c r="Y84">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.11600000000000001</v>
       </c>
@@ -4607,8 +6183,14 @@
       <c r="E85">
         <v>400</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X85">
+        <v>12725</v>
+      </c>
+      <c r="Y85">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.115</v>
       </c>
@@ -4621,8 +6203,14 @@
       <c r="E86">
         <v>400</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X86">
+        <v>12926</v>
+      </c>
+      <c r="Y86">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.113</v>
       </c>
@@ -4635,8 +6223,14 @@
       <c r="E87">
         <v>400</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X87">
+        <v>12842</v>
+      </c>
+      <c r="Y87">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.11700000000000001</v>
       </c>
@@ -4649,8 +6243,14 @@
       <c r="E88">
         <v>400</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X88">
+        <v>12770</v>
+      </c>
+      <c r="Y88">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.114</v>
       </c>
@@ -4663,8 +6263,14 @@
       <c r="E89">
         <v>400</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X89">
+        <v>12829</v>
+      </c>
+      <c r="Y89">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.115</v>
       </c>
@@ -4677,8 +6283,14 @@
       <c r="E90">
         <v>400</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X90">
+        <v>12741</v>
+      </c>
+      <c r="Y90">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.111</v>
       </c>
@@ -4691,8 +6303,14 @@
       <c r="E91">
         <v>400</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X91">
+        <v>12865</v>
+      </c>
+      <c r="Y91">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.183</v>
       </c>
@@ -4705,8 +6323,14 @@
       <c r="E92">
         <v>800</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X92">
+        <v>12239</v>
+      </c>
+      <c r="Y92">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.186</v>
       </c>
@@ -4719,8 +6343,14 @@
       <c r="E93">
         <v>800</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X93">
+        <v>12850</v>
+      </c>
+      <c r="Y93">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.17399999999999999</v>
       </c>
@@ -4733,8 +6363,11 @@
       <c r="E94">
         <v>800</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.17299999999999999</v>
       </c>
@@ -4747,8 +6380,14 @@
       <c r="E95">
         <v>800</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X95">
+        <v>3692</v>
+      </c>
+      <c r="Y95">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.183</v>
       </c>
@@ -4761,8 +6400,14 @@
       <c r="E96">
         <v>800</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X96">
+        <v>3661</v>
+      </c>
+      <c r="Y96">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.17899999999999999</v>
       </c>
@@ -4775,8 +6420,14 @@
       <c r="E97">
         <v>800</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X97">
+        <v>3654</v>
+      </c>
+      <c r="Y97">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.17899999999999999</v>
       </c>
@@ -4789,8 +6440,14 @@
       <c r="E98">
         <v>800</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X98">
+        <v>3672</v>
+      </c>
+      <c r="Y98">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.18</v>
       </c>
@@ -4803,8 +6460,14 @@
       <c r="E99">
         <v>800</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X99">
+        <v>3650</v>
+      </c>
+      <c r="Y99">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.182</v>
       </c>
@@ -4817,8 +6480,14 @@
       <c r="E100">
         <v>800</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X100">
+        <v>3625</v>
+      </c>
+      <c r="Y100">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.18</v>
       </c>
@@ -4831,8 +6500,14 @@
       <c r="E101">
         <v>800</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X101">
+        <v>3678</v>
+      </c>
+      <c r="Y101">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.17499999999999999</v>
       </c>
@@ -4845,8 +6520,14 @@
       <c r="E102">
         <v>800</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X102">
+        <v>3678</v>
+      </c>
+      <c r="Y102">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.18099999999999999</v>
       </c>
@@ -4859,8 +6540,14 @@
       <c r="E103">
         <v>800</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X103">
+        <v>3662</v>
+      </c>
+      <c r="Y103">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.18099999999999999</v>
       </c>
@@ -4873,8 +6560,14 @@
       <c r="E104">
         <v>800</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X104">
+        <v>3667</v>
+      </c>
+      <c r="Y104">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.17799999999999999</v>
       </c>
@@ -4887,8 +6580,14 @@
       <c r="E105">
         <v>800</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X105">
+        <v>3654</v>
+      </c>
+      <c r="Y105">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.184</v>
       </c>
@@ -4901,8 +6600,14 @@
       <c r="E106">
         <v>800</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X106">
+        <v>3670</v>
+      </c>
+      <c r="Y106">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.18</v>
       </c>
@@ -4915,8 +6620,14 @@
       <c r="E107">
         <v>800</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X107">
+        <v>3614</v>
+      </c>
+      <c r="Y107">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.18099999999999999</v>
       </c>
@@ -4929,8 +6640,14 @@
       <c r="E108">
         <v>800</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X108">
+        <v>3661</v>
+      </c>
+      <c r="Y108">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.17699999999999999</v>
       </c>
@@ -4943,8 +6660,14 @@
       <c r="E109">
         <v>800</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X109">
+        <v>3653</v>
+      </c>
+      <c r="Y109">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.17699999999999999</v>
       </c>
@@ -4957,8 +6680,14 @@
       <c r="E110">
         <v>800</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X110">
+        <v>3661</v>
+      </c>
+      <c r="Y110">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.17299999999999999</v>
       </c>
@@ -4971,8 +6700,14 @@
       <c r="E111">
         <v>800</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X111">
+        <v>3660</v>
+      </c>
+      <c r="Y111">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.17799999999999999</v>
       </c>
@@ -4985,8 +6720,14 @@
       <c r="E112">
         <v>800</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X112">
+        <v>3674</v>
+      </c>
+      <c r="Y112">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.18</v>
       </c>
@@ -4999,8 +6740,14 @@
       <c r="E113">
         <v>800</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X113">
+        <v>3661</v>
+      </c>
+      <c r="Y113">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.182</v>
       </c>
@@ -5013,8 +6760,14 @@
       <c r="E114">
         <v>800</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X114">
+        <v>3664</v>
+      </c>
+      <c r="Y114">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.17399999999999999</v>
       </c>
@@ -5027,8 +6780,14 @@
       <c r="E115">
         <v>800</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X115">
+        <v>3677</v>
+      </c>
+      <c r="Y115">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.17699999999999999</v>
       </c>
@@ -5041,8 +6800,14 @@
       <c r="E116">
         <v>800</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X116">
+        <v>3677</v>
+      </c>
+      <c r="Y116">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.18099999999999999</v>
       </c>
@@ -5055,8 +6820,14 @@
       <c r="E117">
         <v>800</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X117">
+        <v>3674</v>
+      </c>
+      <c r="Y117">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.17699999999999999</v>
       </c>
@@ -5069,8 +6840,14 @@
       <c r="E118">
         <v>800</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X118">
+        <v>3649</v>
+      </c>
+      <c r="Y118">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.17599999999999999</v>
       </c>
@@ -5083,8 +6860,14 @@
       <c r="E119">
         <v>800</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X119">
+        <v>3654</v>
+      </c>
+      <c r="Y119">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.17799999999999999</v>
       </c>
@@ -5097,8 +6880,14 @@
       <c r="E120">
         <v>800</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X120">
+        <v>3674</v>
+      </c>
+      <c r="Y120">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.17599999999999999</v>
       </c>
@@ -5111,8 +6900,14 @@
       <c r="E121">
         <v>800</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X121">
+        <v>3664</v>
+      </c>
+      <c r="Y121">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.307</v>
       </c>
@@ -5125,8 +6920,14 @@
       <c r="E122">
         <v>1600</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X122">
+        <v>3668</v>
+      </c>
+      <c r="Y122">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.313</v>
       </c>
@@ -5139,8 +6940,14 @@
       <c r="E123">
         <v>1600</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X123">
+        <v>3668</v>
+      </c>
+      <c r="Y123">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.28799999999999998</v>
       </c>
@@ -5153,8 +6960,14 @@
       <c r="E124">
         <v>1600</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X124">
+        <v>3650</v>
+      </c>
+      <c r="Y124">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.31</v>
       </c>
@@ -5167,8 +6980,11 @@
       <c r="E125">
         <v>1600</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.309</v>
       </c>
@@ -5181,8 +6997,14 @@
       <c r="E126">
         <v>1600</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X126">
+        <v>3902</v>
+      </c>
+      <c r="Y126">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.314</v>
       </c>
@@ -5195,8 +7017,14 @@
       <c r="E127">
         <v>1600</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X127">
+        <v>3898</v>
+      </c>
+      <c r="Y127">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.30099999999999999</v>
       </c>
@@ -5209,8 +7037,14 @@
       <c r="E128">
         <v>1600</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X128">
+        <v>3932</v>
+      </c>
+      <c r="Y128">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.3</v>
       </c>
@@ -5223,8 +7057,14 @@
       <c r="E129">
         <v>1600</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X129">
+        <v>3938</v>
+      </c>
+      <c r="Y129">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.311</v>
       </c>
@@ -5237,8 +7077,14 @@
       <c r="E130">
         <v>1600</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X130">
+        <v>3926</v>
+      </c>
+      <c r="Y130">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.31</v>
       </c>
@@ -5251,8 +7097,14 @@
       <c r="E131">
         <v>1600</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X131">
+        <v>3920</v>
+      </c>
+      <c r="Y131">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.312</v>
       </c>
@@ -5265,8 +7117,14 @@
       <c r="E132">
         <v>1600</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X132">
+        <v>3930</v>
+      </c>
+      <c r="Y132">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32200000000000001</v>
       </c>
@@ -5279,8 +7137,14 @@
       <c r="E133">
         <v>1600</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X133">
+        <v>3912</v>
+      </c>
+      <c r="Y133">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.30499999999999999</v>
       </c>
@@ -5293,8 +7157,14 @@
       <c r="E134">
         <v>1600</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X134">
+        <v>3908</v>
+      </c>
+      <c r="Y134">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.308</v>
       </c>
@@ -5307,8 +7177,14 @@
       <c r="E135">
         <v>1600</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X135">
+        <v>3918</v>
+      </c>
+      <c r="Y135">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.29899999999999999</v>
       </c>
@@ -5321,8 +7197,14 @@
       <c r="E136">
         <v>1600</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X136">
+        <v>3922</v>
+      </c>
+      <c r="Y136">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.308</v>
       </c>
@@ -5335,8 +7217,14 @@
       <c r="E137">
         <v>1600</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X137">
+        <v>3916</v>
+      </c>
+      <c r="Y137">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.312</v>
       </c>
@@ -5349,8 +7237,14 @@
       <c r="E138">
         <v>1600</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X138">
+        <v>3922</v>
+      </c>
+      <c r="Y138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.314</v>
       </c>
@@ -5363,8 +7257,14 @@
       <c r="E139">
         <v>1600</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X139">
+        <v>3894</v>
+      </c>
+      <c r="Y139">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.308</v>
       </c>
@@ -5377,8 +7277,14 @@
       <c r="E140">
         <v>1600</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X140">
+        <v>3928</v>
+      </c>
+      <c r="Y140">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.309</v>
       </c>
@@ -5391,8 +7297,14 @@
       <c r="E141">
         <v>1600</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X141">
+        <v>3914</v>
+      </c>
+      <c r="Y141">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.30199999999999999</v>
       </c>
@@ -5405,8 +7317,14 @@
       <c r="E142">
         <v>1600</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X142">
+        <v>3924</v>
+      </c>
+      <c r="Y142">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.311</v>
       </c>
@@ -5419,8 +7337,14 @@
       <c r="E143">
         <v>1600</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X143">
+        <v>3912</v>
+      </c>
+      <c r="Y143">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.31</v>
       </c>
@@ -5433,8 +7357,14 @@
       <c r="E144">
         <v>1600</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X144">
+        <v>3946</v>
+      </c>
+      <c r="Y144">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.31</v>
       </c>
@@ -5447,8 +7377,14 @@
       <c r="E145">
         <v>1600</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X145">
+        <v>3922</v>
+      </c>
+      <c r="Y145">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.30499999999999999</v>
       </c>
@@ -5461,8 +7397,14 @@
       <c r="E146">
         <v>1600</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X146">
+        <v>3918</v>
+      </c>
+      <c r="Y146">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.311</v>
       </c>
@@ -5475,8 +7417,14 @@
       <c r="E147">
         <v>1600</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X147">
+        <v>3904</v>
+      </c>
+      <c r="Y147">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.313</v>
       </c>
@@ -5489,8 +7437,14 @@
       <c r="E148">
         <v>1600</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X148">
+        <v>3910</v>
+      </c>
+      <c r="Y148">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.312</v>
       </c>
@@ -5503,8 +7457,14 @@
       <c r="E149">
         <v>1600</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X149">
+        <v>3922</v>
+      </c>
+      <c r="Y149">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.312</v>
       </c>
@@ -5517,8 +7477,14 @@
       <c r="E150">
         <v>1600</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="X150">
+        <v>3896</v>
+      </c>
+      <c r="Y150">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.313</v>
       </c>
@@ -5530,10 +7496,1532 @@
       </c>
       <c r="E151">
         <v>1600</v>
+      </c>
+      <c r="X151">
+        <v>3904</v>
+      </c>
+      <c r="Y151">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X152">
+        <v>3926</v>
+      </c>
+      <c r="Y152">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X153">
+        <v>3900</v>
+      </c>
+      <c r="Y153">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X154">
+        <v>3918</v>
+      </c>
+      <c r="Y154">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X155">
+        <v>3932</v>
+      </c>
+      <c r="Y155">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X157">
+        <v>4000</v>
+      </c>
+      <c r="Y157">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X158">
+        <v>4000</v>
+      </c>
+      <c r="Y158">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X159">
+        <v>4000</v>
+      </c>
+      <c r="Y159">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X160">
+        <v>4000</v>
+      </c>
+      <c r="Y160">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="161" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X161">
+        <v>4000</v>
+      </c>
+      <c r="Y161">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="162" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X162">
+        <v>4000</v>
+      </c>
+      <c r="Y162">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="163" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X163">
+        <v>4000</v>
+      </c>
+      <c r="Y163">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="164" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X164">
+        <v>4000</v>
+      </c>
+      <c r="Y164">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="165" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X165">
+        <v>4000</v>
+      </c>
+      <c r="Y165">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="166" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X166">
+        <v>4000</v>
+      </c>
+      <c r="Y166">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="167" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X167">
+        <v>4000</v>
+      </c>
+      <c r="Y167">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="168" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X168">
+        <v>4000</v>
+      </c>
+      <c r="Y168">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="169" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X169">
+        <v>4000</v>
+      </c>
+      <c r="Y169">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="170" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X170">
+        <v>4000</v>
+      </c>
+      <c r="Y170">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="171" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X171">
+        <v>4000</v>
+      </c>
+      <c r="Y171">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="172" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X172">
+        <v>4000</v>
+      </c>
+      <c r="Y172">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="173" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X173">
+        <v>4000</v>
+      </c>
+      <c r="Y173">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="174" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X174">
+        <v>4000</v>
+      </c>
+      <c r="Y174">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="175" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X175">
+        <v>4000</v>
+      </c>
+      <c r="Y175">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="176" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X176">
+        <v>4000</v>
+      </c>
+      <c r="Y176">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="177" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X177">
+        <v>4000</v>
+      </c>
+      <c r="Y177">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="178" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X178">
+        <v>4000</v>
+      </c>
+      <c r="Y178">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="179" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X179">
+        <v>4000</v>
+      </c>
+      <c r="Y179">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="180" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X180">
+        <v>4000</v>
+      </c>
+      <c r="Y180">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="181" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X181">
+        <v>4000</v>
+      </c>
+      <c r="Y181">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="182" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X182">
+        <v>4000</v>
+      </c>
+      <c r="Y182">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="183" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X183">
+        <v>4000</v>
+      </c>
+      <c r="Y183">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="184" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X184">
+        <v>4000</v>
+      </c>
+      <c r="Y184">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="185" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X185">
+        <v>4000</v>
+      </c>
+      <c r="Y185">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="186" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X186">
+        <v>4000</v>
+      </c>
+      <c r="Y186">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="187" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X188">
+        <v>24472</v>
+      </c>
+      <c r="Y188">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="189" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X189">
+        <v>25073</v>
+      </c>
+      <c r="Y189">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="190" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X190">
+        <v>24823</v>
+      </c>
+      <c r="Y190">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="191" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X191">
+        <v>25178</v>
+      </c>
+      <c r="Y191">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="192" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X192">
+        <v>25039</v>
+      </c>
+      <c r="Y192">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="193" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X193">
+        <v>24806</v>
+      </c>
+      <c r="Y193">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="194" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X194">
+        <v>24991</v>
+      </c>
+      <c r="Y194">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="195" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X195">
+        <v>23301</v>
+      </c>
+      <c r="Y195">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="196" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X196">
+        <v>24178</v>
+      </c>
+      <c r="Y196">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="197" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X197">
+        <v>24149</v>
+      </c>
+      <c r="Y197">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="198" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X198">
+        <v>24157</v>
+      </c>
+      <c r="Y198">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="199" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X199">
+        <v>25230</v>
+      </c>
+      <c r="Y199">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="200" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X200">
+        <v>23203</v>
+      </c>
+      <c r="Y200">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="201" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X201">
+        <v>24503</v>
+      </c>
+      <c r="Y201">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="202" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X202">
+        <v>25024</v>
+      </c>
+      <c r="Y202">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="203" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X203">
+        <v>25096</v>
+      </c>
+      <c r="Y203">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="204" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X204">
+        <v>24748</v>
+      </c>
+      <c r="Y204">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="205" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X205">
+        <v>23128</v>
+      </c>
+      <c r="Y205">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="206" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X206">
+        <v>24755</v>
+      </c>
+      <c r="Y206">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="207" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X207">
+        <v>25061</v>
+      </c>
+      <c r="Y207">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="208" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X208">
+        <v>25219</v>
+      </c>
+      <c r="Y208">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="209" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X209">
+        <v>23667</v>
+      </c>
+      <c r="Y209">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="210" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X210">
+        <v>24879</v>
+      </c>
+      <c r="Y210">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="211" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X211">
+        <v>21347</v>
+      </c>
+      <c r="Y211">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="212" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X212">
+        <v>24646</v>
+      </c>
+      <c r="Y212">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="213" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X213">
+        <v>25185</v>
+      </c>
+      <c r="Y213">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="214" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X214">
+        <v>24766</v>
+      </c>
+      <c r="Y214">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="215" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X215">
+        <v>24200</v>
+      </c>
+      <c r="Y215">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="216" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X216">
+        <v>24807</v>
+      </c>
+      <c r="Y216">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="217" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X217">
+        <v>24368</v>
+      </c>
+      <c r="Y217">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="218" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X219">
+        <v>43990</v>
+      </c>
+      <c r="Y219">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="220" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X220">
+        <v>42809</v>
+      </c>
+      <c r="Y220">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="221" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X221">
+        <v>47567</v>
+      </c>
+      <c r="Y221">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="222" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X222">
+        <v>47660</v>
+      </c>
+      <c r="Y222">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="223" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X223">
+        <v>31336</v>
+      </c>
+      <c r="Y223">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="224" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X224">
+        <v>49180</v>
+      </c>
+      <c r="Y224">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="225" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X225">
+        <v>45717</v>
+      </c>
+      <c r="Y225">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="226" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X226">
+        <v>47454</v>
+      </c>
+      <c r="Y226">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="227" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X227">
+        <v>45464</v>
+      </c>
+      <c r="Y227">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="228" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X228">
+        <v>48140</v>
+      </c>
+      <c r="Y228">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="229" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X229">
+        <v>47382</v>
+      </c>
+      <c r="Y229">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="230" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X230">
+        <v>39526</v>
+      </c>
+      <c r="Y230">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="231" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X231">
+        <v>41183</v>
+      </c>
+      <c r="Y231">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="232" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X232">
+        <v>47586</v>
+      </c>
+      <c r="Y232">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="233" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X233">
+        <v>43176</v>
+      </c>
+      <c r="Y233">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="234" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X234">
+        <v>42289</v>
+      </c>
+      <c r="Y234">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="235" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X235">
+        <v>43109</v>
+      </c>
+      <c r="Y235">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="236" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X236">
+        <v>44127</v>
+      </c>
+      <c r="Y236">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="237" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X237">
+        <v>42554</v>
+      </c>
+      <c r="Y237">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="238" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X238">
+        <v>37331</v>
+      </c>
+      <c r="Y238">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="239" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X239">
+        <v>46864</v>
+      </c>
+      <c r="Y239">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="240" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X240">
+        <v>45160</v>
+      </c>
+      <c r="Y240">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="241" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X241">
+        <v>47890</v>
+      </c>
+      <c r="Y241">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="242" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X242">
+        <v>30210</v>
+      </c>
+      <c r="Y242">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="243" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X243">
+        <v>44633</v>
+      </c>
+      <c r="Y243">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="244" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X244">
+        <v>41734</v>
+      </c>
+      <c r="Y244">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="245" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X245">
+        <v>47769</v>
+      </c>
+      <c r="Y245">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="246" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X246">
+        <v>45568</v>
+      </c>
+      <c r="Y246">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="247" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X247">
+        <v>48805</v>
+      </c>
+      <c r="Y247">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="248" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X248">
+        <v>43640</v>
+      </c>
+      <c r="Y248">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="249" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X250">
+        <v>4000</v>
+      </c>
+      <c r="Y250">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="251" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X251">
+        <v>4000</v>
+      </c>
+      <c r="Y251">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="252" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X252">
+        <v>4000</v>
+      </c>
+      <c r="Y252">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="253" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X253">
+        <v>4000</v>
+      </c>
+      <c r="Y253">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="254" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X254">
+        <v>4000</v>
+      </c>
+      <c r="Y254">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="255" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X255">
+        <v>4000</v>
+      </c>
+      <c r="Y255">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="256" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X256">
+        <v>4000</v>
+      </c>
+      <c r="Y256">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="257" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X257">
+        <v>4000</v>
+      </c>
+      <c r="Y257">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="258" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X258">
+        <v>4000</v>
+      </c>
+      <c r="Y258">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="259" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X259">
+        <v>4000</v>
+      </c>
+      <c r="Y259">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="260" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X260">
+        <v>4000</v>
+      </c>
+      <c r="Y260">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="261" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X261">
+        <v>4000</v>
+      </c>
+      <c r="Y261">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="262" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X262">
+        <v>4000</v>
+      </c>
+      <c r="Y262">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="263" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X263">
+        <v>4000</v>
+      </c>
+      <c r="Y263">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="264" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X264">
+        <v>4000</v>
+      </c>
+      <c r="Y264">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="265" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X265">
+        <v>4000</v>
+      </c>
+      <c r="Y265">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="266" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X266">
+        <v>4000</v>
+      </c>
+      <c r="Y266">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="267" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X267">
+        <v>4000</v>
+      </c>
+      <c r="Y267">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="268" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X268">
+        <v>4000</v>
+      </c>
+      <c r="Y268">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="269" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X269">
+        <v>4000</v>
+      </c>
+      <c r="Y269">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="270" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X270">
+        <v>4000</v>
+      </c>
+      <c r="Y270">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="271" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X271">
+        <v>4000</v>
+      </c>
+      <c r="Y271">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="272" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X272">
+        <v>4000</v>
+      </c>
+      <c r="Y272">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="273" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X273">
+        <v>4000</v>
+      </c>
+      <c r="Y273">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="274" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X274">
+        <v>4000</v>
+      </c>
+      <c r="Y274">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="275" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X275">
+        <v>4000</v>
+      </c>
+      <c r="Y275">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="276" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X276">
+        <v>4000</v>
+      </c>
+      <c r="Y276">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="277" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X277">
+        <v>4000</v>
+      </c>
+      <c r="Y277">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="278" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X278">
+        <v>4000</v>
+      </c>
+      <c r="Y278">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="279" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X279">
+        <v>4000</v>
+      </c>
+      <c r="Y279">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="280" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X280" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X281">
+        <v>4400</v>
+      </c>
+      <c r="Y281">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="282" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X282">
+        <v>4400</v>
+      </c>
+      <c r="Y282">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="283" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X283">
+        <v>4400</v>
+      </c>
+      <c r="Y283">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="284" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X284">
+        <v>4400</v>
+      </c>
+      <c r="Y284">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="285" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X285">
+        <v>4400</v>
+      </c>
+      <c r="Y285">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="286" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X286">
+        <v>4400</v>
+      </c>
+      <c r="Y286">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="287" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X287">
+        <v>4400</v>
+      </c>
+      <c r="Y287">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="288" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X288">
+        <v>4400</v>
+      </c>
+      <c r="Y288">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="289" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X289">
+        <v>4400</v>
+      </c>
+      <c r="Y289">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="290" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X290">
+        <v>4400</v>
+      </c>
+      <c r="Y290">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="291" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X291">
+        <v>4400</v>
+      </c>
+      <c r="Y291">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="292" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X292">
+        <v>4400</v>
+      </c>
+      <c r="Y292">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="293" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X293">
+        <v>4400</v>
+      </c>
+      <c r="Y293">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="294" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X294">
+        <v>4400</v>
+      </c>
+      <c r="Y294">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="295" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X295">
+        <v>4400</v>
+      </c>
+      <c r="Y295">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="296" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X296">
+        <v>4400</v>
+      </c>
+      <c r="Y296">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="297" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X297">
+        <v>4400</v>
+      </c>
+      <c r="Y297">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="298" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X298">
+        <v>4400</v>
+      </c>
+      <c r="Y298">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="299" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X299">
+        <v>4400</v>
+      </c>
+      <c r="Y299">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="300" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X300">
+        <v>4400</v>
+      </c>
+      <c r="Y300">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="301" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X301">
+        <v>4400</v>
+      </c>
+      <c r="Y301">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="302" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X302">
+        <v>4400</v>
+      </c>
+      <c r="Y302">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="303" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X303">
+        <v>4400</v>
+      </c>
+      <c r="Y303">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="304" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X304">
+        <v>4400</v>
+      </c>
+      <c r="Y304">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="305" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X305">
+        <v>4400</v>
+      </c>
+      <c r="Y305">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="306" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X306">
+        <v>4400</v>
+      </c>
+      <c r="Y306">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="307" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X307">
+        <v>4400</v>
+      </c>
+      <c r="Y307">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="308" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X308">
+        <v>4400</v>
+      </c>
+      <c r="Y308">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="309" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X309">
+        <v>4400</v>
+      </c>
+      <c r="Y309">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="310" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X310">
+        <v>4400</v>
+      </c>
+      <c r="Y310">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="311" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X311" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X312">
+        <v>8800</v>
+      </c>
+      <c r="Y312">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="313" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X313">
+        <v>8800</v>
+      </c>
+      <c r="Y313">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="314" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X314">
+        <v>8800</v>
+      </c>
+      <c r="Y314">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="315" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X315">
+        <v>8800</v>
+      </c>
+      <c r="Y315">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="316" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X316">
+        <v>8800</v>
+      </c>
+      <c r="Y316">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="317" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X317">
+        <v>8800</v>
+      </c>
+      <c r="Y317">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="318" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X318">
+        <v>8800</v>
+      </c>
+      <c r="Y318">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="319" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X319">
+        <v>8800</v>
+      </c>
+      <c r="Y319">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="320" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X320">
+        <v>8800</v>
+      </c>
+      <c r="Y320">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="321" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X321">
+        <v>8800</v>
+      </c>
+      <c r="Y321">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="322" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X322">
+        <v>8800</v>
+      </c>
+      <c r="Y322">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="323" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X323">
+        <v>8800</v>
+      </c>
+      <c r="Y323">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="324" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X324">
+        <v>8800</v>
+      </c>
+      <c r="Y324">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="325" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X325">
+        <v>8800</v>
+      </c>
+      <c r="Y325">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="326" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X326">
+        <v>8800</v>
+      </c>
+      <c r="Y326">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="327" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X327">
+        <v>8800</v>
+      </c>
+      <c r="Y327">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="328" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X328">
+        <v>8800</v>
+      </c>
+      <c r="Y328">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="329" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X329">
+        <v>8800</v>
+      </c>
+      <c r="Y329">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="330" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X330">
+        <v>8800</v>
+      </c>
+      <c r="Y330">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="331" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X331">
+        <v>8800</v>
+      </c>
+      <c r="Y331">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="332" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X332">
+        <v>8800</v>
+      </c>
+      <c r="Y332">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="333" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X333">
+        <v>8800</v>
+      </c>
+      <c r="Y333">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="334" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X334">
+        <v>8800</v>
+      </c>
+      <c r="Y334">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="335" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X335">
+        <v>8800</v>
+      </c>
+      <c r="Y335">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="336" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X336">
+        <v>8800</v>
+      </c>
+      <c r="Y336">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="337" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X337">
+        <v>8800</v>
+      </c>
+      <c r="Y337">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="338" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X338">
+        <v>8800</v>
+      </c>
+      <c r="Y338">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="339" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X339">
+        <v>8800</v>
+      </c>
+      <c r="Y339">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="340" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X340">
+        <v>8800</v>
+      </c>
+      <c r="Y340">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="341" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="X341">
+        <v>8800</v>
+      </c>
+      <c r="Y341">
+        <v>8800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Time</t>
   </si>
@@ -4307,10 +4307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y341"/>
+  <dimension ref="A1:AB341"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="P194" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4321,7 +4321,7 @@
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4355,8 +4355,11 @@
       <c r="X1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -4387,8 +4390,14 @@
       <c r="Y2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA2">
+        <v>3719</v>
+      </c>
+      <c r="AB2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4419,8 +4428,14 @@
       <c r="Y3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA3">
+        <v>3732</v>
+      </c>
+      <c r="AB3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.3E-2</v>
       </c>
@@ -4451,8 +4466,14 @@
       <c r="Y4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA4">
+        <v>3720</v>
+      </c>
+      <c r="AB4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.2E-2</v>
       </c>
@@ -4483,8 +4504,14 @@
       <c r="Y5">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA5">
+        <v>3745</v>
+      </c>
+      <c r="AB5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4515,8 +4542,14 @@
       <c r="Y6">
         <v>4000</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA6">
+        <v>3739</v>
+      </c>
+      <c r="AB6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.3E-2</v>
       </c>
@@ -4535,8 +4568,14 @@
       <c r="Y7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA7">
+        <v>3720</v>
+      </c>
+      <c r="AB7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4555,8 +4594,14 @@
       <c r="Y8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8">
+        <v>3725</v>
+      </c>
+      <c r="AB8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.3E-2</v>
       </c>
@@ -4575,8 +4620,14 @@
       <c r="Y9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9">
+        <v>3732</v>
+      </c>
+      <c r="AB9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -4598,8 +4649,14 @@
       <c r="Y10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA10">
+        <v>3739</v>
+      </c>
+      <c r="AB10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4630,8 +4687,14 @@
       <c r="Y11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA11">
+        <v>3730</v>
+      </c>
+      <c r="AB11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.3E-2</v>
       </c>
@@ -4667,8 +4730,14 @@
       <c r="Y12">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA12">
+        <v>3738</v>
+      </c>
+      <c r="AB12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -4704,8 +4773,14 @@
       <c r="Y13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA13">
+        <v>3741</v>
+      </c>
+      <c r="AB13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.3E-2</v>
       </c>
@@ -4741,8 +4816,14 @@
       <c r="Y14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14">
+        <v>3733</v>
+      </c>
+      <c r="AB14">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4778,8 +4859,14 @@
       <c r="Y15">
         <v>4000</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA15">
+        <v>3745</v>
+      </c>
+      <c r="AB15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.06</v>
       </c>
@@ -4815,8 +4902,14 @@
       <c r="Y16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA16">
+        <v>3737</v>
+      </c>
+      <c r="AB16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.3E-2</v>
       </c>
@@ -4835,8 +4928,14 @@
       <c r="Y17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA17">
+        <v>3721</v>
+      </c>
+      <c r="AB17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6.2E-2</v>
       </c>
@@ -4855,8 +4954,14 @@
       <c r="Y18">
         <v>4000</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA18">
+        <v>3729</v>
+      </c>
+      <c r="AB18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.3E-2</v>
       </c>
@@ -4875,8 +4980,14 @@
       <c r="Y19">
         <v>4000</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA19">
+        <v>3732</v>
+      </c>
+      <c r="AB19">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -4895,8 +5006,14 @@
       <c r="Y20">
         <v>4000</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA20">
+        <v>3718</v>
+      </c>
+      <c r="AB20">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -4915,8 +5032,14 @@
       <c r="Y21">
         <v>4000</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA21">
+        <v>3731</v>
+      </c>
+      <c r="AB21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -4935,8 +5058,14 @@
       <c r="Y22">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA22">
+        <v>3740</v>
+      </c>
+      <c r="AB22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.2E-2</v>
       </c>
@@ -4955,8 +5084,14 @@
       <c r="Y23">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA23">
+        <v>3730</v>
+      </c>
+      <c r="AB23">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.3E-2</v>
       </c>
@@ -4975,8 +5110,14 @@
       <c r="Y24">
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA24">
+        <v>3718</v>
+      </c>
+      <c r="AB24">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -4995,8 +5136,14 @@
       <c r="Y25">
         <v>4000</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA25">
+        <v>3730</v>
+      </c>
+      <c r="AB25">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -5015,8 +5162,14 @@
       <c r="Y26">
         <v>4000</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA26">
+        <v>3719</v>
+      </c>
+      <c r="AB26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5035,8 +5188,14 @@
       <c r="Y27">
         <v>4000</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA27">
+        <v>3713</v>
+      </c>
+      <c r="AB27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -5055,8 +5214,14 @@
       <c r="Y28">
         <v>4000</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA28">
+        <v>3732</v>
+      </c>
+      <c r="AB28">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5075,8 +5240,14 @@
       <c r="Y29">
         <v>4000</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA29">
+        <v>3722</v>
+      </c>
+      <c r="AB29">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -5095,8 +5266,14 @@
       <c r="Y30">
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA30">
+        <v>3737</v>
+      </c>
+      <c r="AB30">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -5115,8 +5292,14 @@
       <c r="Y31">
         <v>4000</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA31">
+        <v>3729</v>
+      </c>
+      <c r="AB31">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -5132,8 +5315,11 @@
       <c r="X32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5152,8 +5338,14 @@
       <c r="Y33">
         <v>8000</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA33">
+        <v>7323</v>
+      </c>
+      <c r="AB33">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -5172,8 +5364,14 @@
       <c r="Y34">
         <v>8000</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA34">
+        <v>7312</v>
+      </c>
+      <c r="AB34">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5192,8 +5390,14 @@
       <c r="Y35">
         <v>8000</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA35">
+        <v>7314</v>
+      </c>
+      <c r="AB35">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5212,8 +5416,14 @@
       <c r="Y36">
         <v>8000</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA36">
+        <v>7305</v>
+      </c>
+      <c r="AB36">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5232,8 +5442,14 @@
       <c r="Y37">
         <v>8000</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA37">
+        <v>7295</v>
+      </c>
+      <c r="AB37">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5252,8 +5468,14 @@
       <c r="Y38">
         <v>8000</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA38">
+        <v>7324</v>
+      </c>
+      <c r="AB38">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5272,8 +5494,14 @@
       <c r="Y39">
         <v>8000</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA39">
+        <v>7302</v>
+      </c>
+      <c r="AB39">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -5292,8 +5520,14 @@
       <c r="Y40">
         <v>8000</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA40">
+        <v>7306</v>
+      </c>
+      <c r="AB40">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.08</v>
       </c>
@@ -5312,8 +5546,14 @@
       <c r="Y41">
         <v>8000</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA41">
+        <v>7326</v>
+      </c>
+      <c r="AB41">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5332,8 +5572,14 @@
       <c r="Y42">
         <v>8000</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA42">
+        <v>7261</v>
+      </c>
+      <c r="AB42">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5352,8 +5598,14 @@
       <c r="Y43">
         <v>8000</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA43">
+        <v>7320</v>
+      </c>
+      <c r="AB43">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5372,8 +5624,14 @@
       <c r="Y44">
         <v>8000</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA44">
+        <v>7306</v>
+      </c>
+      <c r="AB44">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5392,8 +5650,14 @@
       <c r="Y45">
         <v>8000</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA45">
+        <v>7321</v>
+      </c>
+      <c r="AB45">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5412,8 +5676,14 @@
       <c r="Y46">
         <v>8000</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA46">
+        <v>7316</v>
+      </c>
+      <c r="AB46">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7.8E-2</v>
       </c>
@@ -5432,8 +5702,14 @@
       <c r="Y47">
         <v>8000</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA47">
+        <v>7296</v>
+      </c>
+      <c r="AB47">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.8E-2</v>
       </c>
@@ -5452,8 +5728,14 @@
       <c r="Y48">
         <v>8000</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA48">
+        <v>7231</v>
+      </c>
+      <c r="AB48">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5472,8 +5754,14 @@
       <c r="Y49">
         <v>8000</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA49">
+        <v>7292</v>
+      </c>
+      <c r="AB49">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5492,8 +5780,14 @@
       <c r="Y50">
         <v>8000</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA50">
+        <v>7297</v>
+      </c>
+      <c r="AB50">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -5512,8 +5806,14 @@
       <c r="Y51">
         <v>8000</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA51">
+        <v>7323</v>
+      </c>
+      <c r="AB51">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5532,8 +5832,14 @@
       <c r="Y52">
         <v>8000</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA52">
+        <v>7328</v>
+      </c>
+      <c r="AB52">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5552,8 +5858,14 @@
       <c r="Y53">
         <v>8000</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA53">
+        <v>7299</v>
+      </c>
+      <c r="AB53">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7.8E-2</v>
       </c>
@@ -5572,8 +5884,14 @@
       <c r="Y54">
         <v>8000</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA54">
+        <v>7307</v>
+      </c>
+      <c r="AB54">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5592,8 +5910,14 @@
       <c r="Y55">
         <v>8000</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA55">
+        <v>7327</v>
+      </c>
+      <c r="AB55">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -5612,8 +5936,14 @@
       <c r="Y56">
         <v>8000</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA56">
+        <v>7326</v>
+      </c>
+      <c r="AB56">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5632,8 +5962,14 @@
       <c r="Y57">
         <v>8000</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA57">
+        <v>7329</v>
+      </c>
+      <c r="AB57">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.08</v>
       </c>
@@ -5652,8 +5988,14 @@
       <c r="Y58">
         <v>8000</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA58">
+        <v>7318</v>
+      </c>
+      <c r="AB58">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5672,8 +6014,14 @@
       <c r="Y59">
         <v>8000</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA59">
+        <v>7318</v>
+      </c>
+      <c r="AB59">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5692,8 +6040,14 @@
       <c r="Y60">
         <v>8000</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA60">
+        <v>7323</v>
+      </c>
+      <c r="AB60">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -5712,8 +6066,14 @@
       <c r="Y61">
         <v>8000</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA61">
+        <v>7317</v>
+      </c>
+      <c r="AB61">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.11</v>
       </c>
@@ -5732,8 +6092,14 @@
       <c r="Y62">
         <v>8000</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA62">
+        <v>7314</v>
+      </c>
+      <c r="AB62">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.11799999999999999</v>
       </c>
@@ -5749,8 +6115,11 @@
       <c r="X63" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.11</v>
       </c>
@@ -5769,8 +6138,14 @@
       <c r="Y64">
         <v>16000</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA64">
+        <v>13144</v>
+      </c>
+      <c r="AB64">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.11600000000000001</v>
       </c>
@@ -5789,8 +6164,14 @@
       <c r="Y65">
         <v>16000</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA65">
+        <v>14115</v>
+      </c>
+      <c r="AB65">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.109</v>
       </c>
@@ -5809,8 +6190,14 @@
       <c r="Y66">
         <v>16000</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA66">
+        <v>14369</v>
+      </c>
+      <c r="AB66">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.11700000000000001</v>
       </c>
@@ -5829,8 +6216,14 @@
       <c r="Y67">
         <v>16000</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA67">
+        <v>14406</v>
+      </c>
+      <c r="AB67">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.111</v>
       </c>
@@ -5849,8 +6242,14 @@
       <c r="Y68">
         <v>16000</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA68">
+        <v>14380</v>
+      </c>
+      <c r="AB68">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.113</v>
       </c>
@@ -5869,8 +6268,14 @@
       <c r="Y69">
         <v>16000</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA69">
+        <v>14412</v>
+      </c>
+      <c r="AB69">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.11700000000000001</v>
       </c>
@@ -5889,8 +6294,14 @@
       <c r="Y70">
         <v>16000</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA70">
+        <v>14387</v>
+      </c>
+      <c r="AB70">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.11899999999999999</v>
       </c>
@@ -5909,8 +6320,14 @@
       <c r="Y71">
         <v>16000</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA71">
+        <v>14389</v>
+      </c>
+      <c r="AB71">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.113</v>
       </c>
@@ -5929,8 +6346,14 @@
       <c r="Y72">
         <v>16000</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA72">
+        <v>14412</v>
+      </c>
+      <c r="AB72">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.108</v>
       </c>
@@ -5949,8 +6372,14 @@
       <c r="Y73">
         <v>16000</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA73">
+        <v>13959</v>
+      </c>
+      <c r="AB73">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.112</v>
       </c>
@@ -5969,8 +6398,14 @@
       <c r="Y74">
         <v>16000</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA74">
+        <v>13018</v>
+      </c>
+      <c r="AB74">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.11600000000000001</v>
       </c>
@@ -5989,8 +6424,14 @@
       <c r="Y75">
         <v>16000</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA75">
+        <v>14367</v>
+      </c>
+      <c r="AB75">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.109</v>
       </c>
@@ -6009,8 +6450,14 @@
       <c r="Y76">
         <v>16000</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA76">
+        <v>14367</v>
+      </c>
+      <c r="AB76">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.115</v>
       </c>
@@ -6029,8 +6476,14 @@
       <c r="Y77">
         <v>16000</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA77">
+        <v>14360</v>
+      </c>
+      <c r="AB77">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.12</v>
       </c>
@@ -6049,8 +6502,14 @@
       <c r="Y78">
         <v>16000</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA78">
+        <v>14450</v>
+      </c>
+      <c r="AB78">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.115</v>
       </c>
@@ -6069,8 +6528,14 @@
       <c r="Y79">
         <v>16000</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA79">
+        <v>14388</v>
+      </c>
+      <c r="AB79">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.11600000000000001</v>
       </c>
@@ -6089,8 +6554,14 @@
       <c r="Y80">
         <v>16000</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA80">
+        <v>14230</v>
+      </c>
+      <c r="AB80">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.108</v>
       </c>
@@ -6109,8 +6580,14 @@
       <c r="Y81">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA81">
+        <v>14351</v>
+      </c>
+      <c r="AB81">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.113</v>
       </c>
@@ -6129,8 +6606,14 @@
       <c r="Y82">
         <v>16000</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA82">
+        <v>14422</v>
+      </c>
+      <c r="AB82">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.115</v>
       </c>
@@ -6149,8 +6632,14 @@
       <c r="Y83">
         <v>16000</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA83">
+        <v>14372</v>
+      </c>
+      <c r="AB83">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.11</v>
       </c>
@@ -6169,8 +6658,14 @@
       <c r="Y84">
         <v>16000</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA84">
+        <v>14370</v>
+      </c>
+      <c r="AB84">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.11600000000000001</v>
       </c>
@@ -6189,8 +6684,14 @@
       <c r="Y85">
         <v>16000</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA85">
+        <v>14243</v>
+      </c>
+      <c r="AB85">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.115</v>
       </c>
@@ -6209,8 +6710,14 @@
       <c r="Y86">
         <v>16000</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA86">
+        <v>14402</v>
+      </c>
+      <c r="AB86">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.113</v>
       </c>
@@ -6229,8 +6736,14 @@
       <c r="Y87">
         <v>16000</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA87">
+        <v>14350</v>
+      </c>
+      <c r="AB87">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.11700000000000001</v>
       </c>
@@ -6249,8 +6762,14 @@
       <c r="Y88">
         <v>16000</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA88">
+        <v>14388</v>
+      </c>
+      <c r="AB88">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.114</v>
       </c>
@@ -6269,8 +6788,14 @@
       <c r="Y89">
         <v>16000</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA89">
+        <v>14402</v>
+      </c>
+      <c r="AB89">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.115</v>
       </c>
@@ -6289,8 +6814,14 @@
       <c r="Y90">
         <v>16000</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA90">
+        <v>14382</v>
+      </c>
+      <c r="AB90">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.111</v>
       </c>
@@ -6309,8 +6840,14 @@
       <c r="Y91">
         <v>16000</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA91">
+        <v>14315</v>
+      </c>
+      <c r="AB91">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.183</v>
       </c>
@@ -6329,8 +6866,14 @@
       <c r="Y92">
         <v>16000</v>
       </c>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA92">
+        <v>14387</v>
+      </c>
+      <c r="AB92">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.186</v>
       </c>
@@ -6349,8 +6892,14 @@
       <c r="Y93">
         <v>16000</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA93">
+        <v>14420</v>
+      </c>
+      <c r="AB93">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.17399999999999999</v>
       </c>
@@ -6366,8 +6915,11 @@
       <c r="X94" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.17299999999999999</v>
       </c>
@@ -6386,8 +6938,14 @@
       <c r="Y95">
         <v>4000</v>
       </c>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA95">
+        <v>3828</v>
+      </c>
+      <c r="AB95">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.183</v>
       </c>
@@ -6406,8 +6964,14 @@
       <c r="Y96">
         <v>4000</v>
       </c>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA96">
+        <v>3822</v>
+      </c>
+      <c r="AB96">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.17899999999999999</v>
       </c>
@@ -6426,8 +6990,14 @@
       <c r="Y97">
         <v>4000</v>
       </c>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA97">
+        <v>3845</v>
+      </c>
+      <c r="AB97">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.17899999999999999</v>
       </c>
@@ -6446,8 +7016,14 @@
       <c r="Y98">
         <v>4000</v>
       </c>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA98">
+        <v>3821</v>
+      </c>
+      <c r="AB98">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.18</v>
       </c>
@@ -6466,8 +7042,14 @@
       <c r="Y99">
         <v>4000</v>
       </c>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA99">
+        <v>3828</v>
+      </c>
+      <c r="AB99">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.182</v>
       </c>
@@ -6486,8 +7068,14 @@
       <c r="Y100">
         <v>4000</v>
       </c>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA100">
+        <v>3845</v>
+      </c>
+      <c r="AB100">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.18</v>
       </c>
@@ -6506,8 +7094,14 @@
       <c r="Y101">
         <v>4000</v>
       </c>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA101">
+        <v>3843</v>
+      </c>
+      <c r="AB101">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.17499999999999999</v>
       </c>
@@ -6526,8 +7120,14 @@
       <c r="Y102">
         <v>4000</v>
       </c>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA102">
+        <v>3822</v>
+      </c>
+      <c r="AB102">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.18099999999999999</v>
       </c>
@@ -6546,8 +7146,14 @@
       <c r="Y103">
         <v>4000</v>
       </c>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA103">
+        <v>3827</v>
+      </c>
+      <c r="AB103">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.18099999999999999</v>
       </c>
@@ -6566,8 +7172,14 @@
       <c r="Y104">
         <v>4000</v>
       </c>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA104">
+        <v>3835</v>
+      </c>
+      <c r="AB104">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.17799999999999999</v>
       </c>
@@ -6586,8 +7198,14 @@
       <c r="Y105">
         <v>4000</v>
       </c>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA105">
+        <v>3835</v>
+      </c>
+      <c r="AB105">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.184</v>
       </c>
@@ -6606,8 +7224,14 @@
       <c r="Y106">
         <v>4000</v>
       </c>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA106">
+        <v>3840</v>
+      </c>
+      <c r="AB106">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.18</v>
       </c>
@@ -6626,8 +7250,14 @@
       <c r="Y107">
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA107">
+        <v>3829</v>
+      </c>
+      <c r="AB107">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.18099999999999999</v>
       </c>
@@ -6646,8 +7276,14 @@
       <c r="Y108">
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA108">
+        <v>3823</v>
+      </c>
+      <c r="AB108">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.17699999999999999</v>
       </c>
@@ -6666,8 +7302,14 @@
       <c r="Y109">
         <v>4000</v>
       </c>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA109">
+        <v>3836</v>
+      </c>
+      <c r="AB109">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.17699999999999999</v>
       </c>
@@ -6686,8 +7328,14 @@
       <c r="Y110">
         <v>4000</v>
       </c>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA110">
+        <v>3817</v>
+      </c>
+      <c r="AB110">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.17299999999999999</v>
       </c>
@@ -6706,8 +7354,14 @@
       <c r="Y111">
         <v>4000</v>
       </c>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA111">
+        <v>3828</v>
+      </c>
+      <c r="AB111">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.17799999999999999</v>
       </c>
@@ -6726,8 +7380,14 @@
       <c r="Y112">
         <v>4000</v>
       </c>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA112">
+        <v>3836</v>
+      </c>
+      <c r="AB112">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.18</v>
       </c>
@@ -6746,8 +7406,14 @@
       <c r="Y113">
         <v>4000</v>
       </c>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA113">
+        <v>3839</v>
+      </c>
+      <c r="AB113">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.182</v>
       </c>
@@ -6766,8 +7432,14 @@
       <c r="Y114">
         <v>4000</v>
       </c>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA114">
+        <v>3831</v>
+      </c>
+      <c r="AB114">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.17399999999999999</v>
       </c>
@@ -6786,8 +7458,14 @@
       <c r="Y115">
         <v>4000</v>
       </c>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA115">
+        <v>3822</v>
+      </c>
+      <c r="AB115">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.17699999999999999</v>
       </c>
@@ -6806,8 +7484,14 @@
       <c r="Y116">
         <v>4000</v>
       </c>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA116">
+        <v>3835</v>
+      </c>
+      <c r="AB116">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.18099999999999999</v>
       </c>
@@ -6826,8 +7510,14 @@
       <c r="Y117">
         <v>4000</v>
       </c>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA117">
+        <v>3834</v>
+      </c>
+      <c r="AB117">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.17699999999999999</v>
       </c>
@@ -6846,8 +7536,14 @@
       <c r="Y118">
         <v>4000</v>
       </c>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA118">
+        <v>3823</v>
+      </c>
+      <c r="AB118">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.17599999999999999</v>
       </c>
@@ -6866,8 +7562,14 @@
       <c r="Y119">
         <v>4000</v>
       </c>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA119">
+        <v>3841</v>
+      </c>
+      <c r="AB119">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.17799999999999999</v>
       </c>
@@ -6886,8 +7588,14 @@
       <c r="Y120">
         <v>4000</v>
       </c>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA120">
+        <v>3831</v>
+      </c>
+      <c r="AB120">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.17599999999999999</v>
       </c>
@@ -6906,8 +7614,14 @@
       <c r="Y121">
         <v>4000</v>
       </c>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA121">
+        <v>3824</v>
+      </c>
+      <c r="AB121">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.307</v>
       </c>
@@ -6926,8 +7640,14 @@
       <c r="Y122">
         <v>4000</v>
       </c>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA122">
+        <v>3833</v>
+      </c>
+      <c r="AB122">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.313</v>
       </c>
@@ -6946,8 +7666,14 @@
       <c r="Y123">
         <v>4000</v>
       </c>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA123">
+        <v>3816</v>
+      </c>
+      <c r="AB123">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.28799999999999998</v>
       </c>
@@ -6966,8 +7692,14 @@
       <c r="Y124">
         <v>4000</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA124">
+        <v>3827</v>
+      </c>
+      <c r="AB124">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.31</v>
       </c>
@@ -6983,8 +7715,11 @@
       <c r="X125" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.309</v>
       </c>
@@ -7003,8 +7738,14 @@
       <c r="Y126">
         <v>4000</v>
       </c>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA126">
+        <v>3958</v>
+      </c>
+      <c r="AB126">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.314</v>
       </c>
@@ -7023,8 +7764,14 @@
       <c r="Y127">
         <v>4000</v>
       </c>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA127">
+        <v>3956</v>
+      </c>
+      <c r="AB127">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.30099999999999999</v>
       </c>
@@ -7043,8 +7790,14 @@
       <c r="Y128">
         <v>4000</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA128">
+        <v>3960</v>
+      </c>
+      <c r="AB128">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.3</v>
       </c>
@@ -7063,8 +7816,14 @@
       <c r="Y129">
         <v>4000</v>
       </c>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA129">
+        <v>3941</v>
+      </c>
+      <c r="AB129">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.311</v>
       </c>
@@ -7083,8 +7842,14 @@
       <c r="Y130">
         <v>4000</v>
       </c>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA130">
+        <v>3959</v>
+      </c>
+      <c r="AB130">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.31</v>
       </c>
@@ -7103,8 +7868,14 @@
       <c r="Y131">
         <v>4000</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA131">
+        <v>3953</v>
+      </c>
+      <c r="AB131">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.312</v>
       </c>
@@ -7123,8 +7894,14 @@
       <c r="Y132">
         <v>4000</v>
       </c>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA132">
+        <v>3957</v>
+      </c>
+      <c r="AB132">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32200000000000001</v>
       </c>
@@ -7143,8 +7920,14 @@
       <c r="Y133">
         <v>4000</v>
       </c>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA133">
+        <v>3967</v>
+      </c>
+      <c r="AB133">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.30499999999999999</v>
       </c>
@@ -7163,8 +7946,14 @@
       <c r="Y134">
         <v>4000</v>
       </c>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA134">
+        <v>3951</v>
+      </c>
+      <c r="AB134">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.308</v>
       </c>
@@ -7183,8 +7972,14 @@
       <c r="Y135">
         <v>4000</v>
       </c>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA135">
+        <v>3959</v>
+      </c>
+      <c r="AB135">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.29899999999999999</v>
       </c>
@@ -7203,8 +7998,14 @@
       <c r="Y136">
         <v>4000</v>
       </c>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA136">
+        <v>3960</v>
+      </c>
+      <c r="AB136">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.308</v>
       </c>
@@ -7223,8 +8024,14 @@
       <c r="Y137">
         <v>4000</v>
       </c>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA137">
+        <v>3962</v>
+      </c>
+      <c r="AB137">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.312</v>
       </c>
@@ -7243,8 +8050,14 @@
       <c r="Y138">
         <v>4000</v>
       </c>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA138">
+        <v>3968</v>
+      </c>
+      <c r="AB138">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.314</v>
       </c>
@@ -7263,8 +8076,14 @@
       <c r="Y139">
         <v>4000</v>
       </c>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA139">
+        <v>3948</v>
+      </c>
+      <c r="AB139">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.308</v>
       </c>
@@ -7283,8 +8102,14 @@
       <c r="Y140">
         <v>4000</v>
       </c>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA140">
+        <v>3954</v>
+      </c>
+      <c r="AB140">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.309</v>
       </c>
@@ -7303,8 +8128,14 @@
       <c r="Y141">
         <v>4000</v>
       </c>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA141">
+        <v>3952</v>
+      </c>
+      <c r="AB141">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.30199999999999999</v>
       </c>
@@ -7323,8 +8154,14 @@
       <c r="Y142">
         <v>4000</v>
       </c>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA142">
+        <v>3953</v>
+      </c>
+      <c r="AB142">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.311</v>
       </c>
@@ -7343,8 +8180,14 @@
       <c r="Y143">
         <v>4000</v>
       </c>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA143">
+        <v>3965</v>
+      </c>
+      <c r="AB143">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.31</v>
       </c>
@@ -7363,8 +8206,14 @@
       <c r="Y144">
         <v>4000</v>
       </c>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA144">
+        <v>3947</v>
+      </c>
+      <c r="AB144">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.31</v>
       </c>
@@ -7383,8 +8232,14 @@
       <c r="Y145">
         <v>4000</v>
       </c>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA145">
+        <v>3961</v>
+      </c>
+      <c r="AB145">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.30499999999999999</v>
       </c>
@@ -7403,8 +8258,14 @@
       <c r="Y146">
         <v>4000</v>
       </c>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA146">
+        <v>3953</v>
+      </c>
+      <c r="AB146">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.311</v>
       </c>
@@ -7423,8 +8284,14 @@
       <c r="Y147">
         <v>4000</v>
       </c>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA147">
+        <v>3959</v>
+      </c>
+      <c r="AB147">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.313</v>
       </c>
@@ -7443,8 +8310,14 @@
       <c r="Y148">
         <v>4000</v>
       </c>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA148">
+        <v>3956</v>
+      </c>
+      <c r="AB148">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.312</v>
       </c>
@@ -7463,8 +8336,14 @@
       <c r="Y149">
         <v>4000</v>
       </c>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA149">
+        <v>3958</v>
+      </c>
+      <c r="AB149">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.312</v>
       </c>
@@ -7483,8 +8362,14 @@
       <c r="Y150">
         <v>4000</v>
       </c>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA150">
+        <v>3961</v>
+      </c>
+      <c r="AB150">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.313</v>
       </c>
@@ -7503,1506 +8388,2634 @@
       <c r="Y151">
         <v>4000</v>
       </c>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA151">
+        <v>3956</v>
+      </c>
+      <c r="AB151">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X152">
         <v>3926</v>
       </c>
       <c r="Y152">
         <v>4000</v>
       </c>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA152">
+        <v>3962</v>
+      </c>
+      <c r="AB152">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X153">
         <v>3900</v>
       </c>
       <c r="Y153">
         <v>4000</v>
       </c>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA153">
+        <v>3945</v>
+      </c>
+      <c r="AB153">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X154">
         <v>3918</v>
       </c>
       <c r="Y154">
         <v>4000</v>
       </c>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA154">
+        <v>3962</v>
+      </c>
+      <c r="AB154">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X155">
         <v>3932</v>
       </c>
       <c r="Y155">
         <v>4000</v>
       </c>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA155">
+        <v>3958</v>
+      </c>
+      <c r="AB155">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X156" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA156" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X157">
         <v>4000</v>
       </c>
       <c r="Y157">
         <v>4000</v>
       </c>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA157">
+        <v>4000</v>
+      </c>
+      <c r="AB157">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X158">
         <v>4000</v>
       </c>
       <c r="Y158">
         <v>4000</v>
       </c>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA158">
+        <v>4000</v>
+      </c>
+      <c r="AB158">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X159">
         <v>4000</v>
       </c>
       <c r="Y159">
         <v>4000</v>
       </c>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA159">
+        <v>4000</v>
+      </c>
+      <c r="AB159">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="X160">
         <v>4000</v>
       </c>
       <c r="Y160">
         <v>4000</v>
       </c>
-    </row>
-    <row r="161" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA160">
+        <v>4000</v>
+      </c>
+      <c r="AB160">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="161" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X161">
         <v>4000</v>
       </c>
       <c r="Y161">
         <v>4000</v>
       </c>
-    </row>
-    <row r="162" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA161">
+        <v>4000</v>
+      </c>
+      <c r="AB161">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="162" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X162">
         <v>4000</v>
       </c>
       <c r="Y162">
         <v>4000</v>
       </c>
-    </row>
-    <row r="163" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA162">
+        <v>4000</v>
+      </c>
+      <c r="AB162">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="163" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X163">
         <v>4000</v>
       </c>
       <c r="Y163">
         <v>4000</v>
       </c>
-    </row>
-    <row r="164" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA163">
+        <v>4000</v>
+      </c>
+      <c r="AB163">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="164" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X164">
         <v>4000</v>
       </c>
       <c r="Y164">
         <v>4000</v>
       </c>
-    </row>
-    <row r="165" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA164">
+        <v>4000</v>
+      </c>
+      <c r="AB164">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="165" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X165">
         <v>4000</v>
       </c>
       <c r="Y165">
         <v>4000</v>
       </c>
-    </row>
-    <row r="166" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA165">
+        <v>4000</v>
+      </c>
+      <c r="AB165">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="166" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X166">
         <v>4000</v>
       </c>
       <c r="Y166">
         <v>4000</v>
       </c>
-    </row>
-    <row r="167" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA166">
+        <v>4000</v>
+      </c>
+      <c r="AB166">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="167" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X167">
         <v>4000</v>
       </c>
       <c r="Y167">
         <v>4000</v>
       </c>
-    </row>
-    <row r="168" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA167">
+        <v>4000</v>
+      </c>
+      <c r="AB167">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="168" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X168">
         <v>4000</v>
       </c>
       <c r="Y168">
         <v>4000</v>
       </c>
-    </row>
-    <row r="169" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA168">
+        <v>4000</v>
+      </c>
+      <c r="AB168">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="169" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X169">
         <v>4000</v>
       </c>
       <c r="Y169">
         <v>4000</v>
       </c>
-    </row>
-    <row r="170" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA169">
+        <v>4000</v>
+      </c>
+      <c r="AB169">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="170" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X170">
         <v>4000</v>
       </c>
       <c r="Y170">
         <v>4000</v>
       </c>
-    </row>
-    <row r="171" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA170">
+        <v>4000</v>
+      </c>
+      <c r="AB170">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="171" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X171">
         <v>4000</v>
       </c>
       <c r="Y171">
         <v>4000</v>
       </c>
-    </row>
-    <row r="172" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA171">
+        <v>4000</v>
+      </c>
+      <c r="AB171">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="172" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X172">
         <v>4000</v>
       </c>
       <c r="Y172">
         <v>4000</v>
       </c>
-    </row>
-    <row r="173" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA172">
+        <v>4000</v>
+      </c>
+      <c r="AB172">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="173" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X173">
         <v>4000</v>
       </c>
       <c r="Y173">
         <v>4000</v>
       </c>
-    </row>
-    <row r="174" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA173">
+        <v>4000</v>
+      </c>
+      <c r="AB173">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="174" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X174">
         <v>4000</v>
       </c>
       <c r="Y174">
         <v>4000</v>
       </c>
-    </row>
-    <row r="175" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA174">
+        <v>4000</v>
+      </c>
+      <c r="AB174">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="175" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X175">
         <v>4000</v>
       </c>
       <c r="Y175">
         <v>4000</v>
       </c>
-    </row>
-    <row r="176" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA175">
+        <v>4000</v>
+      </c>
+      <c r="AB175">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="176" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X176">
         <v>4000</v>
       </c>
       <c r="Y176">
         <v>4000</v>
       </c>
-    </row>
-    <row r="177" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA176">
+        <v>4000</v>
+      </c>
+      <c r="AB176">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="177" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X177">
         <v>4000</v>
       </c>
       <c r="Y177">
         <v>4000</v>
       </c>
-    </row>
-    <row r="178" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA177">
+        <v>4000</v>
+      </c>
+      <c r="AB177">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="178" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X178">
         <v>4000</v>
       </c>
       <c r="Y178">
         <v>4000</v>
       </c>
-    </row>
-    <row r="179" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA178">
+        <v>4000</v>
+      </c>
+      <c r="AB178">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="179" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X179">
         <v>4000</v>
       </c>
       <c r="Y179">
         <v>4000</v>
       </c>
-    </row>
-    <row r="180" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA179">
+        <v>4000</v>
+      </c>
+      <c r="AB179">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="180" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X180">
         <v>4000</v>
       </c>
       <c r="Y180">
         <v>4000</v>
       </c>
-    </row>
-    <row r="181" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA180">
+        <v>4000</v>
+      </c>
+      <c r="AB180">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="181" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X181">
         <v>4000</v>
       </c>
       <c r="Y181">
         <v>4000</v>
       </c>
-    </row>
-    <row r="182" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA181">
+        <v>4000</v>
+      </c>
+      <c r="AB181">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="182" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X182">
         <v>4000</v>
       </c>
       <c r="Y182">
         <v>4000</v>
       </c>
-    </row>
-    <row r="183" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA182">
+        <v>4000</v>
+      </c>
+      <c r="AB182">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="183" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X183">
         <v>4000</v>
       </c>
       <c r="Y183">
         <v>4000</v>
       </c>
-    </row>
-    <row r="184" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA183">
+        <v>4000</v>
+      </c>
+      <c r="AB183">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="184" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X184">
         <v>4000</v>
       </c>
       <c r="Y184">
         <v>4000</v>
       </c>
-    </row>
-    <row r="185" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA184">
+        <v>4000</v>
+      </c>
+      <c r="AB184">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="185" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X185">
         <v>4000</v>
       </c>
       <c r="Y185">
         <v>4000</v>
       </c>
-    </row>
-    <row r="186" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA185">
+        <v>4000</v>
+      </c>
+      <c r="AB185">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="186" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X186">
         <v>4000</v>
       </c>
       <c r="Y186">
         <v>4000</v>
       </c>
-    </row>
-    <row r="187" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA186">
+        <v>4000</v>
+      </c>
+      <c r="AB186">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="187" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X187" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="188" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA187" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X188">
         <v>24472</v>
       </c>
       <c r="Y188">
         <v>32000</v>
       </c>
-    </row>
-    <row r="189" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA188">
+        <v>28000</v>
+      </c>
+      <c r="AB188">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="189" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X189">
         <v>25073</v>
       </c>
       <c r="Y189">
         <v>32000</v>
       </c>
-    </row>
-    <row r="190" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA189">
+        <v>26432</v>
+      </c>
+      <c r="AB189">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="190" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X190">
         <v>24823</v>
       </c>
       <c r="Y190">
         <v>32000</v>
       </c>
-    </row>
-    <row r="191" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA190">
+        <v>28435</v>
+      </c>
+      <c r="AB190">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="191" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X191">
         <v>25178</v>
       </c>
       <c r="Y191">
         <v>32000</v>
       </c>
-    </row>
-    <row r="192" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA191">
+        <v>27893</v>
+      </c>
+      <c r="AB191">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="192" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X192">
         <v>25039</v>
       </c>
       <c r="Y192">
         <v>32000</v>
       </c>
-    </row>
-    <row r="193" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA192">
+        <v>28427</v>
+      </c>
+      <c r="AB192">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="193" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X193">
         <v>24806</v>
       </c>
       <c r="Y193">
         <v>32000</v>
       </c>
-    </row>
-    <row r="194" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA193">
+        <v>28429</v>
+      </c>
+      <c r="AB193">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="194" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X194">
         <v>24991</v>
       </c>
       <c r="Y194">
         <v>32000</v>
       </c>
-    </row>
-    <row r="195" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA194">
+        <v>27248</v>
+      </c>
+      <c r="AB194">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="195" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X195">
         <v>23301</v>
       </c>
       <c r="Y195">
         <v>32000</v>
       </c>
-    </row>
-    <row r="196" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA195">
+        <v>26797</v>
+      </c>
+      <c r="AB195">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="196" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X196">
         <v>24178</v>
       </c>
       <c r="Y196">
         <v>32000</v>
       </c>
-    </row>
-    <row r="197" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA196">
+        <v>28515</v>
+      </c>
+      <c r="AB196">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="197" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X197">
         <v>24149</v>
       </c>
       <c r="Y197">
         <v>32000</v>
       </c>
-    </row>
-    <row r="198" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA197">
+        <v>24621</v>
+      </c>
+      <c r="AB197">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="198" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X198">
         <v>24157</v>
       </c>
       <c r="Y198">
         <v>32000</v>
       </c>
-    </row>
-    <row r="199" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA198">
+        <v>28458</v>
+      </c>
+      <c r="AB198">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="199" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X199">
         <v>25230</v>
       </c>
       <c r="Y199">
         <v>32000</v>
       </c>
-    </row>
-    <row r="200" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA199">
+        <v>26502</v>
+      </c>
+      <c r="AB199">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="200" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X200">
         <v>23203</v>
       </c>
       <c r="Y200">
         <v>32000</v>
       </c>
-    </row>
-    <row r="201" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA200">
+        <v>28516</v>
+      </c>
+      <c r="AB200">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="201" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X201">
         <v>24503</v>
       </c>
       <c r="Y201">
         <v>32000</v>
       </c>
-    </row>
-    <row r="202" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA201">
+        <v>26429</v>
+      </c>
+      <c r="AB201">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="202" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X202">
         <v>25024</v>
       </c>
       <c r="Y202">
         <v>32000</v>
       </c>
-    </row>
-    <row r="203" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA202">
+        <v>28434</v>
+      </c>
+      <c r="AB202">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="203" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X203">
         <v>25096</v>
       </c>
       <c r="Y203">
         <v>32000</v>
       </c>
-    </row>
-    <row r="204" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA203">
+        <v>28461</v>
+      </c>
+      <c r="AB203">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="204" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X204">
         <v>24748</v>
       </c>
       <c r="Y204">
         <v>32000</v>
       </c>
-    </row>
-    <row r="205" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA204">
+        <v>27451</v>
+      </c>
+      <c r="AB204">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="205" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X205">
         <v>23128</v>
       </c>
       <c r="Y205">
         <v>32000</v>
       </c>
-    </row>
-    <row r="206" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA205">
+        <v>28188</v>
+      </c>
+      <c r="AB205">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="206" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X206">
         <v>24755</v>
       </c>
       <c r="Y206">
         <v>32000</v>
       </c>
-    </row>
-    <row r="207" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA206">
+        <v>24553</v>
+      </c>
+      <c r="AB206">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="207" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X207">
         <v>25061</v>
       </c>
       <c r="Y207">
         <v>32000</v>
       </c>
-    </row>
-    <row r="208" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA207">
+        <v>28102</v>
+      </c>
+      <c r="AB207">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="208" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X208">
         <v>25219</v>
       </c>
       <c r="Y208">
         <v>32000</v>
       </c>
-    </row>
-    <row r="209" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA208">
+        <v>27640</v>
+      </c>
+      <c r="AB208">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="209" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X209">
         <v>23667</v>
       </c>
       <c r="Y209">
         <v>32000</v>
       </c>
-    </row>
-    <row r="210" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA209">
+        <v>24954</v>
+      </c>
+      <c r="AB209">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="210" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X210">
         <v>24879</v>
       </c>
       <c r="Y210">
         <v>32000</v>
       </c>
-    </row>
-    <row r="211" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA210">
+        <v>27155</v>
+      </c>
+      <c r="AB210">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="211" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X211">
         <v>21347</v>
       </c>
       <c r="Y211">
         <v>32000</v>
       </c>
-    </row>
-    <row r="212" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA211">
+        <v>28488</v>
+      </c>
+      <c r="AB211">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="212" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X212">
         <v>24646</v>
       </c>
       <c r="Y212">
         <v>32000</v>
       </c>
-    </row>
-    <row r="213" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA212">
+        <v>27909</v>
+      </c>
+      <c r="AB212">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="213" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X213">
         <v>25185</v>
       </c>
       <c r="Y213">
         <v>32000</v>
       </c>
-    </row>
-    <row r="214" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA213">
+        <v>28224</v>
+      </c>
+      <c r="AB213">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="214" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X214">
         <v>24766</v>
       </c>
       <c r="Y214">
         <v>32000</v>
       </c>
-    </row>
-    <row r="215" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA214">
+        <v>22964</v>
+      </c>
+      <c r="AB214">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="215" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X215">
         <v>24200</v>
       </c>
       <c r="Y215">
         <v>32000</v>
       </c>
-    </row>
-    <row r="216" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA215">
+        <v>28013</v>
+      </c>
+      <c r="AB215">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="216" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X216">
         <v>24807</v>
       </c>
       <c r="Y216">
         <v>32000</v>
       </c>
-    </row>
-    <row r="217" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA216">
+        <v>26629</v>
+      </c>
+      <c r="AB216">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="217" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X217">
         <v>24368</v>
       </c>
       <c r="Y217">
         <v>32000</v>
       </c>
-    </row>
-    <row r="218" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA217">
+        <v>28471</v>
+      </c>
+      <c r="AB217">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="218" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X218" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="219" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA218" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X219">
         <v>43990</v>
       </c>
       <c r="Y219">
         <v>64000</v>
       </c>
-    </row>
-    <row r="220" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA219">
+        <v>40485</v>
+      </c>
+      <c r="AB219">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="220" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X220">
         <v>42809</v>
       </c>
       <c r="Y220">
         <v>64000</v>
       </c>
-    </row>
-    <row r="221" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA220">
+        <v>40667</v>
+      </c>
+      <c r="AB220">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="221" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X221">
         <v>47567</v>
       </c>
       <c r="Y221">
         <v>64000</v>
       </c>
-    </row>
-    <row r="222" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA221">
+        <v>45545</v>
+      </c>
+      <c r="AB221">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="222" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X222">
         <v>47660</v>
       </c>
       <c r="Y222">
         <v>64000</v>
       </c>
-    </row>
-    <row r="223" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA222">
+        <v>51644</v>
+      </c>
+      <c r="AB222">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="223" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X223">
         <v>31336</v>
       </c>
       <c r="Y223">
         <v>64000</v>
       </c>
-    </row>
-    <row r="224" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA223">
+        <v>51206</v>
+      </c>
+      <c r="AB223">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="224" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X224">
         <v>49180</v>
       </c>
       <c r="Y224">
         <v>64000</v>
       </c>
-    </row>
-    <row r="225" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA224">
+        <v>40105</v>
+      </c>
+      <c r="AB224">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="225" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X225">
         <v>45717</v>
       </c>
       <c r="Y225">
         <v>64000</v>
       </c>
-    </row>
-    <row r="226" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA225">
+        <v>55974</v>
+      </c>
+      <c r="AB225">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="226" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X226">
         <v>47454</v>
       </c>
       <c r="Y226">
         <v>64000</v>
       </c>
-    </row>
-    <row r="227" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA226">
+        <v>40826</v>
+      </c>
+      <c r="AB226">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="227" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X227">
         <v>45464</v>
       </c>
       <c r="Y227">
         <v>64000</v>
       </c>
-    </row>
-    <row r="228" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA227">
+        <v>47996</v>
+      </c>
+      <c r="AB227">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="228" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X228">
         <v>48140</v>
       </c>
       <c r="Y228">
         <v>64000</v>
       </c>
-    </row>
-    <row r="229" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA228">
+        <v>53381</v>
+      </c>
+      <c r="AB228">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="229" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X229">
         <v>47382</v>
       </c>
       <c r="Y229">
         <v>64000</v>
       </c>
-    </row>
-    <row r="230" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA229">
+        <v>47982</v>
+      </c>
+      <c r="AB229">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="230" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X230">
         <v>39526</v>
       </c>
       <c r="Y230">
         <v>64000</v>
       </c>
-    </row>
-    <row r="231" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA230">
+        <v>52520</v>
+      </c>
+      <c r="AB230">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="231" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X231">
         <v>41183</v>
       </c>
       <c r="Y231">
         <v>64000</v>
       </c>
-    </row>
-    <row r="232" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA231">
+        <v>45479</v>
+      </c>
+      <c r="AB231">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="232" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X232">
         <v>47586</v>
       </c>
       <c r="Y232">
         <v>64000</v>
       </c>
-    </row>
-    <row r="233" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA232">
+        <v>54971</v>
+      </c>
+      <c r="AB232">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="233" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X233">
         <v>43176</v>
       </c>
       <c r="Y233">
         <v>64000</v>
       </c>
-    </row>
-    <row r="234" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA233">
+        <v>49625</v>
+      </c>
+      <c r="AB233">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="234" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X234">
         <v>42289</v>
       </c>
       <c r="Y234">
         <v>64000</v>
       </c>
-    </row>
-    <row r="235" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA234">
+        <v>54254</v>
+      </c>
+      <c r="AB234">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="235" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X235">
         <v>43109</v>
       </c>
       <c r="Y235">
         <v>64000</v>
       </c>
-    </row>
-    <row r="236" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA235">
+        <v>56490</v>
+      </c>
+      <c r="AB235">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="236" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X236">
         <v>44127</v>
       </c>
       <c r="Y236">
         <v>64000</v>
       </c>
-    </row>
-    <row r="237" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA236">
+        <v>51432</v>
+      </c>
+      <c r="AB236">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="237" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X237">
         <v>42554</v>
       </c>
       <c r="Y237">
         <v>64000</v>
       </c>
-    </row>
-    <row r="238" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA237">
+        <v>51635</v>
+      </c>
+      <c r="AB237">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="238" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X238">
         <v>37331</v>
       </c>
       <c r="Y238">
         <v>64000</v>
       </c>
-    </row>
-    <row r="239" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA238">
+        <v>54028</v>
+      </c>
+      <c r="AB238">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="239" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X239">
         <v>46864</v>
       </c>
       <c r="Y239">
         <v>64000</v>
       </c>
-    </row>
-    <row r="240" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA239">
+        <v>48447</v>
+      </c>
+      <c r="AB239">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="240" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X240">
         <v>45160</v>
       </c>
       <c r="Y240">
         <v>64000</v>
       </c>
-    </row>
-    <row r="241" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA240">
+        <v>49720</v>
+      </c>
+      <c r="AB240">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="241" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X241">
         <v>47890</v>
       </c>
       <c r="Y241">
         <v>64000</v>
       </c>
-    </row>
-    <row r="242" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA241">
+        <v>53256</v>
+      </c>
+      <c r="AB241">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="242" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X242">
         <v>30210</v>
       </c>
       <c r="Y242">
         <v>64000</v>
       </c>
-    </row>
-    <row r="243" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA242">
+        <v>50590</v>
+      </c>
+      <c r="AB242">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="243" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X243">
         <v>44633</v>
       </c>
       <c r="Y243">
         <v>64000</v>
       </c>
-    </row>
-    <row r="244" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA243">
+        <v>54464</v>
+      </c>
+      <c r="AB243">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="244" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X244">
         <v>41734</v>
       </c>
       <c r="Y244">
         <v>64000</v>
       </c>
-    </row>
-    <row r="245" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA244">
+        <v>36595</v>
+      </c>
+      <c r="AB244">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="245" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X245">
         <v>47769</v>
       </c>
       <c r="Y245">
         <v>64000</v>
       </c>
-    </row>
-    <row r="246" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA245">
+        <v>51737</v>
+      </c>
+      <c r="AB245">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="246" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X246">
         <v>45568</v>
       </c>
       <c r="Y246">
         <v>64000</v>
       </c>
-    </row>
-    <row r="247" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA246">
+        <v>50790</v>
+      </c>
+      <c r="AB246">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="247" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X247">
         <v>48805</v>
       </c>
       <c r="Y247">
         <v>64000</v>
       </c>
-    </row>
-    <row r="248" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA247">
+        <v>51228</v>
+      </c>
+      <c r="AB247">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="248" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X248">
         <v>43640</v>
       </c>
       <c r="Y248">
         <v>64000</v>
       </c>
-    </row>
-    <row r="249" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA248">
+        <v>42871</v>
+      </c>
+      <c r="AB248">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="249" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X249" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="250" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA249" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="250" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X250">
         <v>4000</v>
       </c>
       <c r="Y250">
         <v>4000</v>
       </c>
-    </row>
-    <row r="251" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA250">
+        <v>4000</v>
+      </c>
+      <c r="AB250">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="251" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X251">
         <v>4000</v>
       </c>
       <c r="Y251">
         <v>4000</v>
       </c>
-    </row>
-    <row r="252" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA251">
+        <v>4000</v>
+      </c>
+      <c r="AB251">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="252" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X252">
         <v>4000</v>
       </c>
       <c r="Y252">
         <v>4000</v>
       </c>
-    </row>
-    <row r="253" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA252">
+        <v>4000</v>
+      </c>
+      <c r="AB252">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="253" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X253">
         <v>4000</v>
       </c>
       <c r="Y253">
         <v>4000</v>
       </c>
-    </row>
-    <row r="254" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA253">
+        <v>4000</v>
+      </c>
+      <c r="AB253">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="254" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X254">
         <v>4000</v>
       </c>
       <c r="Y254">
         <v>4000</v>
       </c>
-    </row>
-    <row r="255" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA254">
+        <v>4000</v>
+      </c>
+      <c r="AB254">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="255" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X255">
         <v>4000</v>
       </c>
       <c r="Y255">
         <v>4000</v>
       </c>
-    </row>
-    <row r="256" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA255">
+        <v>4000</v>
+      </c>
+      <c r="AB255">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="256" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X256">
         <v>4000</v>
       </c>
       <c r="Y256">
         <v>4000</v>
       </c>
-    </row>
-    <row r="257" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA256">
+        <v>4000</v>
+      </c>
+      <c r="AB256">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="257" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X257">
         <v>4000</v>
       </c>
       <c r="Y257">
         <v>4000</v>
       </c>
-    </row>
-    <row r="258" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA257">
+        <v>4000</v>
+      </c>
+      <c r="AB257">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="258" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X258">
         <v>4000</v>
       </c>
       <c r="Y258">
         <v>4000</v>
       </c>
-    </row>
-    <row r="259" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA258">
+        <v>4000</v>
+      </c>
+      <c r="AB258">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="259" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X259">
         <v>4000</v>
       </c>
       <c r="Y259">
         <v>4000</v>
       </c>
-    </row>
-    <row r="260" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA259">
+        <v>4000</v>
+      </c>
+      <c r="AB259">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="260" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X260">
         <v>4000</v>
       </c>
       <c r="Y260">
         <v>4000</v>
       </c>
-    </row>
-    <row r="261" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA260">
+        <v>4000</v>
+      </c>
+      <c r="AB260">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="261" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X261">
         <v>4000</v>
       </c>
       <c r="Y261">
         <v>4000</v>
       </c>
-    </row>
-    <row r="262" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA261">
+        <v>4000</v>
+      </c>
+      <c r="AB261">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="262" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X262">
         <v>4000</v>
       </c>
       <c r="Y262">
         <v>4000</v>
       </c>
-    </row>
-    <row r="263" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA262">
+        <v>4000</v>
+      </c>
+      <c r="AB262">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="263" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X263">
         <v>4000</v>
       </c>
       <c r="Y263">
         <v>4000</v>
       </c>
-    </row>
-    <row r="264" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA263">
+        <v>4000</v>
+      </c>
+      <c r="AB263">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="264" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X264">
         <v>4000</v>
       </c>
       <c r="Y264">
         <v>4000</v>
       </c>
-    </row>
-    <row r="265" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA264">
+        <v>4000</v>
+      </c>
+      <c r="AB264">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="265" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X265">
         <v>4000</v>
       </c>
       <c r="Y265">
         <v>4000</v>
       </c>
-    </row>
-    <row r="266" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA265">
+        <v>4000</v>
+      </c>
+      <c r="AB265">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="266" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X266">
         <v>4000</v>
       </c>
       <c r="Y266">
         <v>4000</v>
       </c>
-    </row>
-    <row r="267" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA266">
+        <v>4000</v>
+      </c>
+      <c r="AB266">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="267" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X267">
         <v>4000</v>
       </c>
       <c r="Y267">
         <v>4000</v>
       </c>
-    </row>
-    <row r="268" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA267">
+        <v>4000</v>
+      </c>
+      <c r="AB267">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="268" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X268">
         <v>4000</v>
       </c>
       <c r="Y268">
         <v>4000</v>
       </c>
-    </row>
-    <row r="269" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA268">
+        <v>4000</v>
+      </c>
+      <c r="AB268">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="269" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X269">
         <v>4000</v>
       </c>
       <c r="Y269">
         <v>4000</v>
       </c>
-    </row>
-    <row r="270" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA269">
+        <v>4000</v>
+      </c>
+      <c r="AB269">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="270" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X270">
         <v>4000</v>
       </c>
       <c r="Y270">
         <v>4000</v>
       </c>
-    </row>
-    <row r="271" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA270">
+        <v>4000</v>
+      </c>
+      <c r="AB270">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="271" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X271">
         <v>4000</v>
       </c>
       <c r="Y271">
         <v>4000</v>
       </c>
-    </row>
-    <row r="272" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA271">
+        <v>4000</v>
+      </c>
+      <c r="AB271">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="272" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X272">
         <v>4000</v>
       </c>
       <c r="Y272">
         <v>4000</v>
       </c>
-    </row>
-    <row r="273" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA272">
+        <v>4000</v>
+      </c>
+      <c r="AB272">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="273" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X273">
         <v>4000</v>
       </c>
       <c r="Y273">
         <v>4000</v>
       </c>
-    </row>
-    <row r="274" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA273">
+        <v>4000</v>
+      </c>
+      <c r="AB273">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="274" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X274">
         <v>4000</v>
       </c>
       <c r="Y274">
         <v>4000</v>
       </c>
-    </row>
-    <row r="275" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA274">
+        <v>4000</v>
+      </c>
+      <c r="AB274">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="275" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X275">
         <v>4000</v>
       </c>
       <c r="Y275">
         <v>4000</v>
       </c>
-    </row>
-    <row r="276" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA275">
+        <v>4000</v>
+      </c>
+      <c r="AB275">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="276" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X276">
         <v>4000</v>
       </c>
       <c r="Y276">
         <v>4000</v>
       </c>
-    </row>
-    <row r="277" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA276">
+        <v>4000</v>
+      </c>
+      <c r="AB276">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="277" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X277">
         <v>4000</v>
       </c>
       <c r="Y277">
         <v>4000</v>
       </c>
-    </row>
-    <row r="278" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA277">
+        <v>4000</v>
+      </c>
+      <c r="AB277">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="278" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X278">
         <v>4000</v>
       </c>
       <c r="Y278">
         <v>4000</v>
       </c>
-    </row>
-    <row r="279" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA278">
+        <v>4000</v>
+      </c>
+      <c r="AB278">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="279" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X279">
         <v>4000</v>
       </c>
       <c r="Y279">
         <v>4000</v>
       </c>
-    </row>
-    <row r="280" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA279">
+        <v>4000</v>
+      </c>
+      <c r="AB279">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="280" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X280" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="281" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA280" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X281">
         <v>4400</v>
       </c>
       <c r="Y281">
         <v>4400</v>
       </c>
-    </row>
-    <row r="282" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA281">
+        <v>4400</v>
+      </c>
+      <c r="AB281">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="282" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X282">
         <v>4400</v>
       </c>
       <c r="Y282">
         <v>4400</v>
       </c>
-    </row>
-    <row r="283" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA282">
+        <v>4400</v>
+      </c>
+      <c r="AB282">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="283" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X283">
         <v>4400</v>
       </c>
       <c r="Y283">
         <v>4400</v>
       </c>
-    </row>
-    <row r="284" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA283">
+        <v>4400</v>
+      </c>
+      <c r="AB283">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="284" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X284">
         <v>4400</v>
       </c>
       <c r="Y284">
         <v>4400</v>
       </c>
-    </row>
-    <row r="285" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA284">
+        <v>4400</v>
+      </c>
+      <c r="AB284">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="285" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X285">
         <v>4400</v>
       </c>
       <c r="Y285">
         <v>4400</v>
       </c>
-    </row>
-    <row r="286" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA285">
+        <v>4400</v>
+      </c>
+      <c r="AB285">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="286" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X286">
         <v>4400</v>
       </c>
       <c r="Y286">
         <v>4400</v>
       </c>
-    </row>
-    <row r="287" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA286">
+        <v>4400</v>
+      </c>
+      <c r="AB286">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="287" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X287">
         <v>4400</v>
       </c>
       <c r="Y287">
         <v>4400</v>
       </c>
-    </row>
-    <row r="288" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA287">
+        <v>4400</v>
+      </c>
+      <c r="AB287">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="288" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X288">
         <v>4400</v>
       </c>
       <c r="Y288">
         <v>4400</v>
       </c>
-    </row>
-    <row r="289" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA288">
+        <v>4400</v>
+      </c>
+      <c r="AB288">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="289" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X289">
         <v>4400</v>
       </c>
       <c r="Y289">
         <v>4400</v>
       </c>
-    </row>
-    <row r="290" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA289">
+        <v>4400</v>
+      </c>
+      <c r="AB289">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="290" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X290">
         <v>4400</v>
       </c>
       <c r="Y290">
         <v>4400</v>
       </c>
-    </row>
-    <row r="291" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA290">
+        <v>4400</v>
+      </c>
+      <c r="AB290">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="291" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X291">
         <v>4400</v>
       </c>
       <c r="Y291">
         <v>4400</v>
       </c>
-    </row>
-    <row r="292" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA291">
+        <v>4400</v>
+      </c>
+      <c r="AB291">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="292" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X292">
         <v>4400</v>
       </c>
       <c r="Y292">
         <v>4400</v>
       </c>
-    </row>
-    <row r="293" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA292">
+        <v>4400</v>
+      </c>
+      <c r="AB292">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="293" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X293">
         <v>4400</v>
       </c>
       <c r="Y293">
         <v>4400</v>
       </c>
-    </row>
-    <row r="294" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA293">
+        <v>4400</v>
+      </c>
+      <c r="AB293">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="294" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X294">
         <v>4400</v>
       </c>
       <c r="Y294">
         <v>4400</v>
       </c>
-    </row>
-    <row r="295" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA294">
+        <v>4400</v>
+      </c>
+      <c r="AB294">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="295" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X295">
         <v>4400</v>
       </c>
       <c r="Y295">
         <v>4400</v>
       </c>
-    </row>
-    <row r="296" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA295">
+        <v>4400</v>
+      </c>
+      <c r="AB295">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="296" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X296">
         <v>4400</v>
       </c>
       <c r="Y296">
         <v>4400</v>
       </c>
-    </row>
-    <row r="297" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA296">
+        <v>4400</v>
+      </c>
+      <c r="AB296">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="297" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X297">
         <v>4400</v>
       </c>
       <c r="Y297">
         <v>4400</v>
       </c>
-    </row>
-    <row r="298" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA297">
+        <v>4400</v>
+      </c>
+      <c r="AB297">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="298" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X298">
         <v>4400</v>
       </c>
       <c r="Y298">
         <v>4400</v>
       </c>
-    </row>
-    <row r="299" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA298">
+        <v>4400</v>
+      </c>
+      <c r="AB298">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="299" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X299">
         <v>4400</v>
       </c>
       <c r="Y299">
         <v>4400</v>
       </c>
-    </row>
-    <row r="300" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA299">
+        <v>4400</v>
+      </c>
+      <c r="AB299">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="300" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X300">
         <v>4400</v>
       </c>
       <c r="Y300">
         <v>4400</v>
       </c>
-    </row>
-    <row r="301" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA300">
+        <v>4400</v>
+      </c>
+      <c r="AB300">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="301" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X301">
         <v>4400</v>
       </c>
       <c r="Y301">
         <v>4400</v>
       </c>
-    </row>
-    <row r="302" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA301">
+        <v>4400</v>
+      </c>
+      <c r="AB301">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="302" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X302">
         <v>4400</v>
       </c>
       <c r="Y302">
         <v>4400</v>
       </c>
-    </row>
-    <row r="303" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA302">
+        <v>4400</v>
+      </c>
+      <c r="AB302">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="303" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X303">
         <v>4400</v>
       </c>
       <c r="Y303">
         <v>4400</v>
       </c>
-    </row>
-    <row r="304" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA303">
+        <v>4400</v>
+      </c>
+      <c r="AB303">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="304" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X304">
         <v>4400</v>
       </c>
       <c r="Y304">
         <v>4400</v>
       </c>
-    </row>
-    <row r="305" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA304">
+        <v>4400</v>
+      </c>
+      <c r="AB304">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="305" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X305">
         <v>4400</v>
       </c>
       <c r="Y305">
         <v>4400</v>
       </c>
-    </row>
-    <row r="306" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA305">
+        <v>4400</v>
+      </c>
+      <c r="AB305">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="306" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X306">
         <v>4400</v>
       </c>
       <c r="Y306">
         <v>4400</v>
       </c>
-    </row>
-    <row r="307" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA306">
+        <v>4400</v>
+      </c>
+      <c r="AB306">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="307" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X307">
         <v>4400</v>
       </c>
       <c r="Y307">
         <v>4400</v>
       </c>
-    </row>
-    <row r="308" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA307">
+        <v>4400</v>
+      </c>
+      <c r="AB307">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="308" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X308">
         <v>4400</v>
       </c>
       <c r="Y308">
         <v>4400</v>
       </c>
-    </row>
-    <row r="309" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA308">
+        <v>4400</v>
+      </c>
+      <c r="AB308">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="309" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X309">
         <v>4400</v>
       </c>
       <c r="Y309">
         <v>4400</v>
       </c>
-    </row>
-    <row r="310" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA309">
+        <v>4400</v>
+      </c>
+      <c r="AB309">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="310" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X310">
         <v>4400</v>
       </c>
       <c r="Y310">
         <v>4400</v>
       </c>
-    </row>
-    <row r="311" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA310">
+        <v>4400</v>
+      </c>
+      <c r="AB310">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="311" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X311" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="312" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA311" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="312" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X312">
         <v>8800</v>
       </c>
       <c r="Y312">
         <v>8800</v>
       </c>
-    </row>
-    <row r="313" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA312">
+        <v>8800</v>
+      </c>
+      <c r="AB312">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="313" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X313">
         <v>8800</v>
       </c>
       <c r="Y313">
         <v>8800</v>
       </c>
-    </row>
-    <row r="314" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA313">
+        <v>8800</v>
+      </c>
+      <c r="AB313">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="314" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X314">
         <v>8800</v>
       </c>
       <c r="Y314">
         <v>8800</v>
       </c>
-    </row>
-    <row r="315" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA314">
+        <v>8800</v>
+      </c>
+      <c r="AB314">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="315" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X315">
         <v>8800</v>
       </c>
       <c r="Y315">
         <v>8800</v>
       </c>
-    </row>
-    <row r="316" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA315">
+        <v>8800</v>
+      </c>
+      <c r="AB315">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="316" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X316">
         <v>8800</v>
       </c>
       <c r="Y316">
         <v>8800</v>
       </c>
-    </row>
-    <row r="317" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA316">
+        <v>8800</v>
+      </c>
+      <c r="AB316">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="317" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X317">
         <v>8800</v>
       </c>
       <c r="Y317">
         <v>8800</v>
       </c>
-    </row>
-    <row r="318" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA317">
+        <v>8800</v>
+      </c>
+      <c r="AB317">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="318" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X318">
         <v>8800</v>
       </c>
       <c r="Y318">
         <v>8800</v>
       </c>
-    </row>
-    <row r="319" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA318">
+        <v>8800</v>
+      </c>
+      <c r="AB318">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="319" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X319">
         <v>8800</v>
       </c>
       <c r="Y319">
         <v>8800</v>
       </c>
-    </row>
-    <row r="320" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA319">
+        <v>8800</v>
+      </c>
+      <c r="AB319">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="320" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X320">
         <v>8800</v>
       </c>
       <c r="Y320">
         <v>8800</v>
       </c>
-    </row>
-    <row r="321" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA320">
+        <v>8800</v>
+      </c>
+      <c r="AB320">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="321" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X321">
         <v>8800</v>
       </c>
       <c r="Y321">
         <v>8800</v>
       </c>
-    </row>
-    <row r="322" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA321">
+        <v>8800</v>
+      </c>
+      <c r="AB321">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="322" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X322">
         <v>8800</v>
       </c>
       <c r="Y322">
         <v>8800</v>
       </c>
-    </row>
-    <row r="323" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA322">
+        <v>8800</v>
+      </c>
+      <c r="AB322">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="323" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X323">
         <v>8800</v>
       </c>
       <c r="Y323">
         <v>8800</v>
       </c>
-    </row>
-    <row r="324" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA323">
+        <v>8800</v>
+      </c>
+      <c r="AB323">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="324" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X324">
         <v>8800</v>
       </c>
       <c r="Y324">
         <v>8800</v>
       </c>
-    </row>
-    <row r="325" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA324">
+        <v>8800</v>
+      </c>
+      <c r="AB324">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="325" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X325">
         <v>8800</v>
       </c>
       <c r="Y325">
         <v>8800</v>
       </c>
-    </row>
-    <row r="326" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA325">
+        <v>8800</v>
+      </c>
+      <c r="AB325">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="326" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X326">
         <v>8800</v>
       </c>
       <c r="Y326">
         <v>8800</v>
       </c>
-    </row>
-    <row r="327" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA326">
+        <v>8800</v>
+      </c>
+      <c r="AB326">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="327" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X327">
         <v>8800</v>
       </c>
       <c r="Y327">
         <v>8800</v>
       </c>
-    </row>
-    <row r="328" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA327">
+        <v>8800</v>
+      </c>
+      <c r="AB327">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="328" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X328">
         <v>8800</v>
       </c>
       <c r="Y328">
         <v>8800</v>
       </c>
-    </row>
-    <row r="329" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA328">
+        <v>8800</v>
+      </c>
+      <c r="AB328">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="329" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X329">
         <v>8800</v>
       </c>
       <c r="Y329">
         <v>8800</v>
       </c>
-    </row>
-    <row r="330" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA329">
+        <v>8800</v>
+      </c>
+      <c r="AB329">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="330" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X330">
         <v>8800</v>
       </c>
       <c r="Y330">
         <v>8800</v>
       </c>
-    </row>
-    <row r="331" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA330">
+        <v>8800</v>
+      </c>
+      <c r="AB330">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="331" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X331">
         <v>8800</v>
       </c>
       <c r="Y331">
         <v>8800</v>
       </c>
-    </row>
-    <row r="332" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA331">
+        <v>8800</v>
+      </c>
+      <c r="AB331">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="332" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X332">
         <v>8800</v>
       </c>
       <c r="Y332">
         <v>8800</v>
       </c>
-    </row>
-    <row r="333" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA332">
+        <v>8800</v>
+      </c>
+      <c r="AB332">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="333" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X333">
         <v>8800</v>
       </c>
       <c r="Y333">
         <v>8800</v>
       </c>
-    </row>
-    <row r="334" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA333">
+        <v>8800</v>
+      </c>
+      <c r="AB333">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="334" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X334">
         <v>8800</v>
       </c>
       <c r="Y334">
         <v>8800</v>
       </c>
-    </row>
-    <row r="335" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA334">
+        <v>8800</v>
+      </c>
+      <c r="AB334">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="335" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X335">
         <v>8800</v>
       </c>
       <c r="Y335">
         <v>8800</v>
       </c>
-    </row>
-    <row r="336" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA335">
+        <v>8800</v>
+      </c>
+      <c r="AB335">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="336" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X336">
         <v>8800</v>
       </c>
       <c r="Y336">
         <v>8800</v>
       </c>
-    </row>
-    <row r="337" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA336">
+        <v>8800</v>
+      </c>
+      <c r="AB336">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="337" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X337">
         <v>8800</v>
       </c>
       <c r="Y337">
         <v>8800</v>
       </c>
-    </row>
-    <row r="338" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA337">
+        <v>8800</v>
+      </c>
+      <c r="AB337">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="338" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X338">
         <v>8800</v>
       </c>
       <c r="Y338">
         <v>8800</v>
       </c>
-    </row>
-    <row r="339" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA338">
+        <v>8800</v>
+      </c>
+      <c r="AB338">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="339" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X339">
         <v>8800</v>
       </c>
       <c r="Y339">
         <v>8800</v>
       </c>
-    </row>
-    <row r="340" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA339">
+        <v>8800</v>
+      </c>
+      <c r="AB339">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="340" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X340">
         <v>8800</v>
       </c>
       <c r="Y340">
         <v>8800</v>
       </c>
-    </row>
-    <row r="341" spans="24:25" x14ac:dyDescent="0.2">
+      <c r="AA340">
+        <v>8800</v>
+      </c>
+      <c r="AB340">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="341" spans="24:28" x14ac:dyDescent="0.2">
       <c r="X341">
         <v>8800</v>
       </c>
       <c r="Y341">
+        <v>8800</v>
+      </c>
+      <c r="AA341">
+        <v>8800</v>
+      </c>
+      <c r="AB341">
         <v>8800</v>
       </c>
     </row>

--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Time</t>
   </si>
@@ -111,12 +111,34 @@
   <si>
     <t>Twice Haverford</t>
   </si>
+  <si>
+    <t>THESE R GUD:</t>
+  </si>
+  <si>
+    <t>THESE R BAD:</t>
+  </si>
+  <si>
+    <t>Time Scaling with Students</t>
+  </si>
+  <si>
+    <t>Time Scaling with Classes</t>
+  </si>
+  <si>
+    <t>FINAL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,19 +164,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -822,7 +847,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Students</c:v>
+                  <c:v>Time Scaling with Students</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -897,7 +922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Classes</c:v>
+                  <c:v>Time Scaling with Classes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2892,15 +2917,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4307,10 +4332,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB341"/>
+  <dimension ref="A1:AC372"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="V336" workbookViewId="0">
+      <selection activeCell="AD346" sqref="AD346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4319,9 +4344,12 @@
     <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4352,14 +4380,20 @@
       <c r="S1" t="s">
         <v>10</v>
       </c>
+      <c r="W1" t="s">
+        <v>27</v>
+      </c>
       <c r="X1" t="s">
         <v>16</v>
       </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
       <c r="AA1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -4396,8 +4430,12 @@
       <c r="AB2">
         <v>4000</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC2" s="4">
+        <f>AA2/AB2</f>
+        <v>0.92974999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4434,8 +4472,12 @@
       <c r="AB3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC66" si="0">AA3/AB3</f>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.3E-2</v>
       </c>
@@ -4472,8 +4514,12 @@
       <c r="AB4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.2E-2</v>
       </c>
@@ -4510,8 +4556,12 @@
       <c r="AB5">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93625000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4548,8 +4598,12 @@
       <c r="AB6">
         <v>4000</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93474999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.3E-2</v>
       </c>
@@ -4574,8 +4628,12 @@
       <c r="AB7">
         <v>4000</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4600,8 +4658,12 @@
       <c r="AB8">
         <v>4000</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93125000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.3E-2</v>
       </c>
@@ -4626,8 +4688,12 @@
       <c r="AB9">
         <v>4000</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -4655,8 +4721,12 @@
       <c r="AB10">
         <v>4000</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93474999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4673,13 +4743,13 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K11" t="s">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="X11">
         <v>3493</v>
@@ -4693,8 +4763,12 @@
       <c r="AB11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.3E-2</v>
       </c>
@@ -4736,8 +4810,12 @@
       <c r="AB12">
         <v>4000</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -4779,8 +4857,12 @@
       <c r="AB13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93525000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.3E-2</v>
       </c>
@@ -4822,8 +4904,12 @@
       <c r="AB14">
         <v>4000</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93325000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4865,8 +4951,12 @@
       <c r="AB15">
         <v>4000</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93625000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.06</v>
       </c>
@@ -4908,8 +4998,12 @@
       <c r="AB16">
         <v>4000</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93425000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.3E-2</v>
       </c>
@@ -4934,8 +5028,12 @@
       <c r="AB17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93025000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6.2E-2</v>
       </c>
@@ -4960,8 +5058,12 @@
       <c r="AB18">
         <v>4000</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93225000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6.3E-2</v>
       </c>
@@ -4986,8 +5088,12 @@
       <c r="AB19">
         <v>4000</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5012,8 +5118,12 @@
       <c r="AB20">
         <v>4000</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5038,8 +5148,12 @@
       <c r="AB21">
         <v>4000</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93274999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -5064,8 +5178,12 @@
       <c r="AB22">
         <v>4000</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.2E-2</v>
       </c>
@@ -5090,8 +5208,12 @@
       <c r="AB23">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="4">
+        <f>AA23/AB23</f>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.3E-2</v>
       </c>
@@ -5116,8 +5238,12 @@
       <c r="AB24">
         <v>4000</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6.0999999999999999E-2</v>
       </c>
@@ -5142,8 +5268,12 @@
       <c r="AB25">
         <v>4000</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -5168,8 +5298,12 @@
       <c r="AB26">
         <v>4000</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92974999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5194,8 +5328,12 @@
       <c r="AB27">
         <v>4000</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="4">
+        <f t="shared" si="0"/>
+        <v>0.92825000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -5220,8 +5358,12 @@
       <c r="AB28">
         <v>4000</v>
       </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -5246,8 +5388,12 @@
       <c r="AB29">
         <v>4000</v>
       </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93049999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.3E-2</v>
       </c>
@@ -5272,8 +5418,12 @@
       <c r="AB30">
         <v>4000</v>
       </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93425000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.3E-2</v>
       </c>
@@ -5298,8 +5448,12 @@
       <c r="AB31">
         <v>4000</v>
       </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="4">
+        <f t="shared" si="0"/>
+        <v>0.93225000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8.4000000000000005E-2</v>
       </c>
@@ -5319,7 +5473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5344,8 +5498,12 @@
       <c r="AB33">
         <v>8000</v>
       </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -5370,8 +5528,12 @@
       <c r="AB34">
         <v>8000</v>
       </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5396,8 +5558,12 @@
       <c r="AB35">
         <v>8000</v>
       </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91425000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5422,8 +5588,12 @@
       <c r="AB36">
         <v>8000</v>
       </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC36" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91312499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5448,8 +5618,12 @@
       <c r="AB37">
         <v>8000</v>
       </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC37" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91187499999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5474,8 +5648,12 @@
       <c r="AB38">
         <v>8000</v>
       </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC38" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5500,8 +5678,12 @@
       <c r="AB39">
         <v>8000</v>
       </c>
-    </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91274999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -5526,8 +5708,12 @@
       <c r="AB40">
         <v>8000</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91325000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.08</v>
       </c>
@@ -5552,8 +5738,12 @@
       <c r="AB41">
         <v>8000</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91574999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5578,8 +5768,12 @@
       <c r="AB42">
         <v>8000</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90762500000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5604,8 +5798,12 @@
       <c r="AB43">
         <v>8000</v>
       </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="4">
+        <f>AA43/AB43</f>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5630,8 +5828,12 @@
       <c r="AB44">
         <v>8000</v>
       </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91325000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5656,8 +5858,12 @@
       <c r="AB45">
         <v>8000</v>
       </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91512499999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5682,8 +5888,12 @@
       <c r="AB46">
         <v>8000</v>
       </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7.8E-2</v>
       </c>
@@ -5708,8 +5918,12 @@
       <c r="AB47">
         <v>8000</v>
       </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7.8E-2</v>
       </c>
@@ -5734,8 +5948,12 @@
       <c r="AB48">
         <v>8000</v>
       </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="4">
+        <f t="shared" si="0"/>
+        <v>0.90387499999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5760,8 +5978,12 @@
       <c r="AB49">
         <v>8000</v>
       </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91149999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -5786,8 +6008,12 @@
       <c r="AB50">
         <v>8000</v>
       </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91212499999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -5812,8 +6038,12 @@
       <c r="AB51">
         <v>8000</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5838,8 +6068,12 @@
       <c r="AB52">
         <v>8000</v>
       </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5864,8 +6098,12 @@
       <c r="AB53">
         <v>8000</v>
       </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91237500000000005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7.8E-2</v>
       </c>
@@ -5890,8 +6128,12 @@
       <c r="AB54">
         <v>8000</v>
       </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91337500000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -5916,8 +6158,12 @@
       <c r="AB55">
         <v>8000</v>
       </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91587499999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>8.1000000000000003E-2</v>
       </c>
@@ -5942,8 +6188,12 @@
       <c r="AB56">
         <v>8000</v>
       </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91574999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -5968,8 +6218,12 @@
       <c r="AB57">
         <v>8000</v>
       </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91612499999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.08</v>
       </c>
@@ -5994,8 +6248,12 @@
       <c r="AB58">
         <v>8000</v>
       </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91474999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>7.5999999999999998E-2</v>
       </c>
@@ -6020,8 +6278,12 @@
       <c r="AB59">
         <v>8000</v>
       </c>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91474999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>7.9000000000000001E-2</v>
       </c>
@@ -6046,8 +6308,12 @@
       <c r="AB60">
         <v>8000</v>
       </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8.2000000000000003E-2</v>
       </c>
@@ -6072,8 +6338,12 @@
       <c r="AB61">
         <v>8000</v>
       </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="4">
+        <f>AA61/AB61</f>
+        <v>0.91462500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.11</v>
       </c>
@@ -6098,8 +6368,12 @@
       <c r="AB62">
         <v>8000</v>
       </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91425000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.11799999999999999</v>
       </c>
@@ -6119,7 +6393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.11</v>
       </c>
@@ -6144,8 +6418,12 @@
       <c r="AB64">
         <v>16000</v>
       </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="4">
+        <f t="shared" si="0"/>
+        <v>0.82150000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.11600000000000001</v>
       </c>
@@ -6170,8 +6448,12 @@
       <c r="AB65">
         <v>16000</v>
       </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="4">
+        <f t="shared" si="0"/>
+        <v>0.88218750000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.109</v>
       </c>
@@ -6196,8 +6478,12 @@
       <c r="AB66">
         <v>16000</v>
       </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.89806249999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.11700000000000001</v>
       </c>
@@ -6222,8 +6508,12 @@
       <c r="AB67">
         <v>16000</v>
       </c>
-    </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="4">
+        <f t="shared" ref="AC67:AC83" si="1">AA67/AB67</f>
+        <v>0.90037500000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.111</v>
       </c>
@@ -6248,8 +6538,12 @@
       <c r="AB68">
         <v>16000</v>
       </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89875000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.113</v>
       </c>
@@ -6274,8 +6568,12 @@
       <c r="AB69">
         <v>16000</v>
       </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90075000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.11700000000000001</v>
       </c>
@@ -6300,8 +6598,12 @@
       <c r="AB70">
         <v>16000</v>
       </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89918750000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.11899999999999999</v>
       </c>
@@ -6326,8 +6628,12 @@
       <c r="AB71">
         <v>16000</v>
       </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89931249999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.113</v>
       </c>
@@ -6352,8 +6658,12 @@
       <c r="AB72">
         <v>16000</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90075000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.108</v>
       </c>
@@ -6378,8 +6688,12 @@
       <c r="AB73">
         <v>16000</v>
       </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87243749999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.112</v>
       </c>
@@ -6404,8 +6718,12 @@
       <c r="AB74">
         <v>16000</v>
       </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="4">
+        <f t="shared" si="1"/>
+        <v>0.81362500000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.11600000000000001</v>
       </c>
@@ -6430,8 +6748,12 @@
       <c r="AB75">
         <v>16000</v>
       </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89793750000000006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.109</v>
       </c>
@@ -6456,8 +6778,12 @@
       <c r="AB76">
         <v>16000</v>
       </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89793750000000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.115</v>
       </c>
@@ -6482,8 +6808,12 @@
       <c r="AB77">
         <v>16000</v>
       </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89749999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.12</v>
       </c>
@@ -6508,8 +6838,12 @@
       <c r="AB78">
         <v>16000</v>
       </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC78" s="4">
+        <f t="shared" si="1"/>
+        <v>0.90312499999999996</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.115</v>
       </c>
@@ -6534,8 +6868,12 @@
       <c r="AB79">
         <v>16000</v>
       </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC79" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89924999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.11600000000000001</v>
       </c>
@@ -6560,8 +6898,12 @@
       <c r="AB80">
         <v>16000</v>
       </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC80" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88937500000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.108</v>
       </c>
@@ -6586,8 +6928,12 @@
       <c r="AB81">
         <v>16000</v>
       </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89693750000000005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.113</v>
       </c>
@@ -6612,8 +6958,12 @@
       <c r="AB82">
         <v>16000</v>
       </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="4">
+        <f>AA82/AB82</f>
+        <v>0.90137500000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.115</v>
       </c>
@@ -6638,8 +6988,12 @@
       <c r="AB83">
         <v>16000</v>
       </c>
-    </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89824999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.11</v>
       </c>
@@ -6664,8 +7018,12 @@
       <c r="AB84">
         <v>16000</v>
       </c>
-    </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="4">
+        <f>AA84/AB84</f>
+        <v>0.89812499999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.11600000000000001</v>
       </c>
@@ -6690,8 +7048,12 @@
       <c r="AB85">
         <v>16000</v>
       </c>
-    </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="4">
+        <f t="shared" ref="AC85:AC97" si="2">AA85/AB85</f>
+        <v>0.89018750000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.115</v>
       </c>
@@ -6716,8 +7078,12 @@
       <c r="AB86">
         <v>16000</v>
       </c>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90012499999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.113</v>
       </c>
@@ -6742,8 +7108,12 @@
       <c r="AB87">
         <v>16000</v>
       </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89687499999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.11700000000000001</v>
       </c>
@@ -6768,8 +7138,12 @@
       <c r="AB88">
         <v>16000</v>
       </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89924999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.114</v>
       </c>
@@ -6794,8 +7168,12 @@
       <c r="AB89">
         <v>16000</v>
       </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90012499999999995</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.115</v>
       </c>
@@ -6820,8 +7198,12 @@
       <c r="AB90">
         <v>16000</v>
       </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89887499999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.111</v>
       </c>
@@ -6846,8 +7228,12 @@
       <c r="AB91">
         <v>16000</v>
       </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89468749999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.183</v>
       </c>
@@ -6872,8 +7258,12 @@
       <c r="AB92">
         <v>16000</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="4">
+        <f t="shared" si="2"/>
+        <v>0.89918750000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.186</v>
       </c>
@@ -6898,8 +7288,12 @@
       <c r="AB93">
         <v>16000</v>
       </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="4">
+        <f t="shared" si="2"/>
+        <v>0.90125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.17399999999999999</v>
       </c>
@@ -6919,7 +7313,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.17299999999999999</v>
       </c>
@@ -6944,8 +7338,12 @@
       <c r="AB95">
         <v>4000</v>
       </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="4">
+        <f t="shared" si="2"/>
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.183</v>
       </c>
@@ -6970,8 +7368,12 @@
       <c r="AB96">
         <v>4000</v>
       </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="4">
+        <f t="shared" si="2"/>
+        <v>0.95550000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.17899999999999999</v>
       </c>
@@ -6996,8 +7398,12 @@
       <c r="AB97">
         <v>4000</v>
       </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="4">
+        <f t="shared" si="2"/>
+        <v>0.96125000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.17899999999999999</v>
       </c>
@@ -7022,8 +7428,12 @@
       <c r="AB98">
         <v>4000</v>
       </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="4">
+        <f>AA98/AB98</f>
+        <v>0.95525000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.18</v>
       </c>
@@ -7048,8 +7458,12 @@
       <c r="AB99">
         <v>4000</v>
       </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="4">
+        <f t="shared" ref="AC99:AC113" si="3">AA99/AB99</f>
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.182</v>
       </c>
@@ -7074,8 +7488,12 @@
       <c r="AB100">
         <v>4000</v>
       </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96125000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.18</v>
       </c>
@@ -7100,8 +7518,12 @@
       <c r="AB101">
         <v>4000</v>
       </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96074999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0.17499999999999999</v>
       </c>
@@ -7126,8 +7548,12 @@
       <c r="AB102">
         <v>4000</v>
       </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC102" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95550000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>0.18099999999999999</v>
       </c>
@@ -7152,8 +7578,12 @@
       <c r="AB103">
         <v>4000</v>
       </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC103" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95674999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>0.18099999999999999</v>
       </c>
@@ -7178,8 +7608,12 @@
       <c r="AB104">
         <v>4000</v>
       </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC104" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95874999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0.17799999999999999</v>
       </c>
@@ -7204,8 +7638,12 @@
       <c r="AB105">
         <v>4000</v>
       </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC105" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95874999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>0.184</v>
       </c>
@@ -7230,8 +7668,12 @@
       <c r="AB106">
         <v>4000</v>
       </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC106" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>0.18</v>
       </c>
@@ -7256,8 +7698,12 @@
       <c r="AB107">
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC107" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95725000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0.18099999999999999</v>
       </c>
@@ -7282,8 +7728,12 @@
       <c r="AB108">
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC108" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95574999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0.17699999999999999</v>
       </c>
@@ -7308,8 +7758,12 @@
       <c r="AB109">
         <v>4000</v>
       </c>
-    </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC109" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>0.17699999999999999</v>
       </c>
@@ -7334,8 +7788,12 @@
       <c r="AB110">
         <v>4000</v>
       </c>
-    </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC110" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95425000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>0.17299999999999999</v>
       </c>
@@ -7360,8 +7818,12 @@
       <c r="AB111">
         <v>4000</v>
       </c>
-    </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC111" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0.17799999999999999</v>
       </c>
@@ -7386,8 +7848,12 @@
       <c r="AB112">
         <v>4000</v>
       </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC112" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>0.18</v>
       </c>
@@ -7412,8 +7878,12 @@
       <c r="AB113">
         <v>4000</v>
       </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC113" s="4">
+        <f t="shared" si="3"/>
+        <v>0.95974999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>0.182</v>
       </c>
@@ -7438,8 +7908,12 @@
       <c r="AB114">
         <v>4000</v>
       </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC114" s="4">
+        <f>AA114/AB114</f>
+        <v>0.95774999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0.17399999999999999</v>
       </c>
@@ -7464,8 +7938,12 @@
       <c r="AB115">
         <v>4000</v>
       </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC115" s="4">
+        <f t="shared" ref="AC115:AC178" si="4">AA115/AB115</f>
+        <v>0.95550000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0.17699999999999999</v>
       </c>
@@ -7490,8 +7968,12 @@
       <c r="AB116">
         <v>4000</v>
       </c>
-    </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC116" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95874999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>0.18099999999999999</v>
       </c>
@@ -7516,8 +7998,12 @@
       <c r="AB117">
         <v>4000</v>
       </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC117" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95850000000000002</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>0.17699999999999999</v>
       </c>
@@ -7542,8 +8028,12 @@
       <c r="AB118">
         <v>4000</v>
       </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC118" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95574999999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0.17599999999999999</v>
       </c>
@@ -7568,8 +8058,12 @@
       <c r="AB119">
         <v>4000</v>
       </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC119" s="4">
+        <f t="shared" si="4"/>
+        <v>0.96025000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>0.17799999999999999</v>
       </c>
@@ -7594,8 +8088,12 @@
       <c r="AB120">
         <v>4000</v>
       </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC120" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95774999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>0.17599999999999999</v>
       </c>
@@ -7620,8 +8118,12 @@
       <c r="AB121">
         <v>4000</v>
       </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC121" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95599999999999996</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0.307</v>
       </c>
@@ -7646,8 +8148,12 @@
       <c r="AB122">
         <v>4000</v>
       </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC122" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95825000000000005</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0.313</v>
       </c>
@@ -7672,8 +8178,12 @@
       <c r="AB123">
         <v>4000</v>
       </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC123" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>0.28799999999999998</v>
       </c>
@@ -7698,8 +8208,12 @@
       <c r="AB124">
         <v>4000</v>
       </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC124" s="4">
+        <f t="shared" si="4"/>
+        <v>0.95674999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>0.31</v>
       </c>
@@ -7719,7 +8233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0.309</v>
       </c>
@@ -7744,8 +8258,12 @@
       <c r="AB126">
         <v>4000</v>
       </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC126" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>0.314</v>
       </c>
@@ -7770,8 +8288,12 @@
       <c r="AB127">
         <v>4000</v>
       </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC127" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>0.30099999999999999</v>
       </c>
@@ -7796,8 +8318,12 @@
       <c r="AB128">
         <v>4000</v>
       </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC128" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>0.3</v>
       </c>
@@ -7822,8 +8348,12 @@
       <c r="AB129">
         <v>4000</v>
       </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC129" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98524999999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0.311</v>
       </c>
@@ -7848,8 +8378,12 @@
       <c r="AB130">
         <v>4000</v>
       </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC130" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98975000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>0.31</v>
       </c>
@@ -7874,8 +8408,12 @@
       <c r="AB131">
         <v>4000</v>
       </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC131" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98824999999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>0.312</v>
       </c>
@@ -7900,8 +8438,12 @@
       <c r="AB132">
         <v>4000</v>
       </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC132" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98924999999999996</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0.32200000000000001</v>
       </c>
@@ -7926,8 +8468,12 @@
       <c r="AB133">
         <v>4000</v>
       </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC133" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99175000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>0.30499999999999999</v>
       </c>
@@ -7952,8 +8498,12 @@
       <c r="AB134">
         <v>4000</v>
       </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC134" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98775000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>0.308</v>
       </c>
@@ -7978,8 +8528,12 @@
       <c r="AB135">
         <v>4000</v>
       </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC135" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98975000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>0.29899999999999999</v>
       </c>
@@ -8004,8 +8558,12 @@
       <c r="AB136">
         <v>4000</v>
       </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC136" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0.308</v>
       </c>
@@ -8030,8 +8588,12 @@
       <c r="AB137">
         <v>4000</v>
       </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC137" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>0.312</v>
       </c>
@@ -8056,8 +8618,12 @@
       <c r="AB138">
         <v>4000</v>
       </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC138" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>0.314</v>
       </c>
@@ -8082,8 +8648,12 @@
       <c r="AB139">
         <v>4000</v>
       </c>
-    </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC139" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>0.308</v>
       </c>
@@ -8108,8 +8678,12 @@
       <c r="AB140">
         <v>4000</v>
       </c>
-    </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC140" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98850000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0.309</v>
       </c>
@@ -8134,8 +8708,12 @@
       <c r="AB141">
         <v>4000</v>
       </c>
-    </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC141" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>0.30199999999999999</v>
       </c>
@@ -8160,8 +8738,12 @@
       <c r="AB142">
         <v>4000</v>
       </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC142" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98824999999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>0.311</v>
       </c>
@@ -8186,8 +8768,12 @@
       <c r="AB143">
         <v>4000</v>
       </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC143" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99124999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>0.31</v>
       </c>
@@ -8212,8 +8798,12 @@
       <c r="AB144">
         <v>4000</v>
       </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC144" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98675000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>0.31</v>
       </c>
@@ -8238,8 +8828,12 @@
       <c r="AB145">
         <v>4000</v>
       </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC145" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99024999999999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>0.30499999999999999</v>
       </c>
@@ -8264,8 +8858,12 @@
       <c r="AB146">
         <v>4000</v>
       </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC146" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98824999999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>0.311</v>
       </c>
@@ -8290,8 +8888,12 @@
       <c r="AB147">
         <v>4000</v>
       </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC147" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98975000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>0.313</v>
       </c>
@@ -8316,8 +8918,12 @@
       <c r="AB148">
         <v>4000</v>
       </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC148" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>0.312</v>
       </c>
@@ -8342,8 +8948,12 @@
       <c r="AB149">
         <v>4000</v>
       </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC149" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>0.312</v>
       </c>
@@ -8368,8 +8978,12 @@
       <c r="AB150">
         <v>4000</v>
       </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC150" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99024999999999996</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0.313</v>
       </c>
@@ -8394,8 +9008,12 @@
       <c r="AB151">
         <v>4000</v>
       </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC151" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X152">
         <v>3926</v>
       </c>
@@ -8408,8 +9026,12 @@
       <c r="AB152">
         <v>4000</v>
       </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC152" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X153">
         <v>3900</v>
       </c>
@@ -8422,8 +9044,12 @@
       <c r="AB153">
         <v>4000</v>
       </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC153" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98624999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X154">
         <v>3918</v>
       </c>
@@ -8436,8 +9062,12 @@
       <c r="AB154">
         <v>4000</v>
       </c>
-    </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC154" s="4">
+        <f t="shared" si="4"/>
+        <v>0.99050000000000005</v>
+      </c>
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X155">
         <v>3932</v>
       </c>
@@ -8450,8 +9080,12 @@
       <c r="AB155">
         <v>4000</v>
       </c>
-    </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC155" s="4">
+        <f t="shared" si="4"/>
+        <v>0.98950000000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X156" t="s">
         <v>21</v>
       </c>
@@ -8459,7 +9093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X157">
         <v>4000</v>
       </c>
@@ -8472,8 +9106,12 @@
       <c r="AB157">
         <v>4000</v>
       </c>
-    </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC157" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X158">
         <v>4000</v>
       </c>
@@ -8486,8 +9124,12 @@
       <c r="AB158">
         <v>4000</v>
       </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC158" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X159">
         <v>4000</v>
       </c>
@@ -8500,8 +9142,12 @@
       <c r="AB159">
         <v>4000</v>
       </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC159" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="X160">
         <v>4000</v>
       </c>
@@ -8514,8 +9160,12 @@
       <c r="AB160">
         <v>4000</v>
       </c>
-    </row>
-    <row r="161" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC160" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X161">
         <v>4000</v>
       </c>
@@ -8528,8 +9178,12 @@
       <c r="AB161">
         <v>4000</v>
       </c>
-    </row>
-    <row r="162" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC161" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X162">
         <v>4000</v>
       </c>
@@ -8542,8 +9196,12 @@
       <c r="AB162">
         <v>4000</v>
       </c>
-    </row>
-    <row r="163" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC162" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X163">
         <v>4000</v>
       </c>
@@ -8556,8 +9214,12 @@
       <c r="AB163">
         <v>4000</v>
       </c>
-    </row>
-    <row r="164" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC163" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X164">
         <v>4000</v>
       </c>
@@ -8570,8 +9232,12 @@
       <c r="AB164">
         <v>4000</v>
       </c>
-    </row>
-    <row r="165" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC164" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X165">
         <v>4000</v>
       </c>
@@ -8584,8 +9250,12 @@
       <c r="AB165">
         <v>4000</v>
       </c>
-    </row>
-    <row r="166" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC165" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X166">
         <v>4000</v>
       </c>
@@ -8598,8 +9268,12 @@
       <c r="AB166">
         <v>4000</v>
       </c>
-    </row>
-    <row r="167" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC166" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X167">
         <v>4000</v>
       </c>
@@ -8612,8 +9286,12 @@
       <c r="AB167">
         <v>4000</v>
       </c>
-    </row>
-    <row r="168" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC167" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X168">
         <v>4000</v>
       </c>
@@ -8626,8 +9304,12 @@
       <c r="AB168">
         <v>4000</v>
       </c>
-    </row>
-    <row r="169" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC168" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X169">
         <v>4000</v>
       </c>
@@ -8640,8 +9322,12 @@
       <c r="AB169">
         <v>4000</v>
       </c>
-    </row>
-    <row r="170" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC169" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X170">
         <v>4000</v>
       </c>
@@ -8654,8 +9340,12 @@
       <c r="AB170">
         <v>4000</v>
       </c>
-    </row>
-    <row r="171" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC170" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X171">
         <v>4000</v>
       </c>
@@ -8668,8 +9358,12 @@
       <c r="AB171">
         <v>4000</v>
       </c>
-    </row>
-    <row r="172" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC171" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X172">
         <v>4000</v>
       </c>
@@ -8682,8 +9376,12 @@
       <c r="AB172">
         <v>4000</v>
       </c>
-    </row>
-    <row r="173" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC172" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X173">
         <v>4000</v>
       </c>
@@ -8696,8 +9394,12 @@
       <c r="AB173">
         <v>4000</v>
       </c>
-    </row>
-    <row r="174" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC173" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X174">
         <v>4000</v>
       </c>
@@ -8710,8 +9412,12 @@
       <c r="AB174">
         <v>4000</v>
       </c>
-    </row>
-    <row r="175" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC174" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X175">
         <v>4000</v>
       </c>
@@ -8724,8 +9430,12 @@
       <c r="AB175">
         <v>4000</v>
       </c>
-    </row>
-    <row r="176" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC175" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X176">
         <v>4000</v>
       </c>
@@ -8738,8 +9448,12 @@
       <c r="AB176">
         <v>4000</v>
       </c>
-    </row>
-    <row r="177" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC176" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X177">
         <v>4000</v>
       </c>
@@ -8752,8 +9466,12 @@
       <c r="AB177">
         <v>4000</v>
       </c>
-    </row>
-    <row r="178" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC177" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X178">
         <v>4000</v>
       </c>
@@ -8766,8 +9484,12 @@
       <c r="AB178">
         <v>4000</v>
       </c>
-    </row>
-    <row r="179" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC178" s="4">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X179">
         <v>4000</v>
       </c>
@@ -8780,8 +9502,12 @@
       <c r="AB179">
         <v>4000</v>
       </c>
-    </row>
-    <row r="180" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC179" s="4">
+        <f t="shared" ref="AC179:AC242" si="5">AA179/AB179</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X180">
         <v>4000</v>
       </c>
@@ -8794,8 +9520,12 @@
       <c r="AB180">
         <v>4000</v>
       </c>
-    </row>
-    <row r="181" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC180" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X181">
         <v>4000</v>
       </c>
@@ -8808,8 +9538,12 @@
       <c r="AB181">
         <v>4000</v>
       </c>
-    </row>
-    <row r="182" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC181" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X182">
         <v>4000</v>
       </c>
@@ -8822,8 +9556,12 @@
       <c r="AB182">
         <v>4000</v>
       </c>
-    </row>
-    <row r="183" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC182" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X183">
         <v>4000</v>
       </c>
@@ -8836,8 +9574,12 @@
       <c r="AB183">
         <v>4000</v>
       </c>
-    </row>
-    <row r="184" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC183" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X184">
         <v>4000</v>
       </c>
@@ -8850,8 +9592,12 @@
       <c r="AB184">
         <v>4000</v>
       </c>
-    </row>
-    <row r="185" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC184" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X185">
         <v>4000</v>
       </c>
@@ -8864,8 +9610,12 @@
       <c r="AB185">
         <v>4000</v>
       </c>
-    </row>
-    <row r="186" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC185" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X186">
         <v>4000</v>
       </c>
@@ -8878,8 +9628,12 @@
       <c r="AB186">
         <v>4000</v>
       </c>
-    </row>
-    <row r="187" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC186" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X187" t="s">
         <v>18</v>
       </c>
@@ -8887,7 +9641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="188" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X188">
         <v>24472</v>
       </c>
@@ -8900,8 +9654,12 @@
       <c r="AB188">
         <v>32000</v>
       </c>
-    </row>
-    <row r="189" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC188" s="4">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="189" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X189">
         <v>25073</v>
       </c>
@@ -8914,8 +9672,12 @@
       <c r="AB189">
         <v>32000</v>
       </c>
-    </row>
-    <row r="190" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC189" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X190">
         <v>24823</v>
       </c>
@@ -8928,8 +9690,12 @@
       <c r="AB190">
         <v>32000</v>
       </c>
-    </row>
-    <row r="191" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC190" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88859374999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X191">
         <v>25178</v>
       </c>
@@ -8942,8 +9708,12 @@
       <c r="AB191">
         <v>32000</v>
       </c>
-    </row>
-    <row r="192" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC191" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87165625000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X192">
         <v>25039</v>
       </c>
@@ -8956,8 +9726,12 @@
       <c r="AB192">
         <v>32000</v>
       </c>
-    </row>
-    <row r="193" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC192" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88834374999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X193">
         <v>24806</v>
       </c>
@@ -8970,8 +9744,12 @@
       <c r="AB193">
         <v>32000</v>
       </c>
-    </row>
-    <row r="194" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC193" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88840624999999995</v>
+      </c>
+    </row>
+    <row r="194" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X194">
         <v>24991</v>
       </c>
@@ -8984,8 +9762,12 @@
       <c r="AB194">
         <v>32000</v>
       </c>
-    </row>
-    <row r="195" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC194" s="4">
+        <f t="shared" si="5"/>
+        <v>0.85150000000000003</v>
+      </c>
+    </row>
+    <row r="195" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X195">
         <v>23301</v>
       </c>
@@ -8998,8 +9780,12 @@
       <c r="AB195">
         <v>32000</v>
       </c>
-    </row>
-    <row r="196" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC195" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83740625000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X196">
         <v>24178</v>
       </c>
@@ -9012,8 +9798,12 @@
       <c r="AB196">
         <v>32000</v>
       </c>
-    </row>
-    <row r="197" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC196" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89109375000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X197">
         <v>24149</v>
       </c>
@@ -9026,8 +9816,12 @@
       <c r="AB197">
         <v>32000</v>
       </c>
-    </row>
-    <row r="198" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC197" s="4">
+        <f t="shared" si="5"/>
+        <v>0.76940624999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X198">
         <v>24157</v>
       </c>
@@ -9040,8 +9834,12 @@
       <c r="AB198">
         <v>32000</v>
       </c>
-    </row>
-    <row r="199" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC198" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88931249999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X199">
         <v>25230</v>
       </c>
@@ -9054,8 +9852,12 @@
       <c r="AB199">
         <v>32000</v>
       </c>
-    </row>
-    <row r="200" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC199" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82818749999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X200">
         <v>23203</v>
       </c>
@@ -9068,8 +9870,12 @@
       <c r="AB200">
         <v>32000</v>
       </c>
-    </row>
-    <row r="201" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC200" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89112499999999994</v>
+      </c>
+    </row>
+    <row r="201" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X201">
         <v>24503</v>
       </c>
@@ -9082,8 +9888,12 @@
       <c r="AB201">
         <v>32000</v>
       </c>
-    </row>
-    <row r="202" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC201" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82590624999999995</v>
+      </c>
+    </row>
+    <row r="202" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X202">
         <v>25024</v>
       </c>
@@ -9096,8 +9906,12 @@
       <c r="AB202">
         <v>32000</v>
       </c>
-    </row>
-    <row r="203" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC202" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88856250000000003</v>
+      </c>
+    </row>
+    <row r="203" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X203">
         <v>25096</v>
       </c>
@@ -9110,8 +9924,12 @@
       <c r="AB203">
         <v>32000</v>
       </c>
-    </row>
-    <row r="204" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC203" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88940624999999995</v>
+      </c>
+    </row>
+    <row r="204" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X204">
         <v>24748</v>
       </c>
@@ -9124,8 +9942,12 @@
       <c r="AB204">
         <v>32000</v>
       </c>
-    </row>
-    <row r="205" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC204" s="4">
+        <f t="shared" si="5"/>
+        <v>0.85784375000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X205">
         <v>23128</v>
       </c>
@@ -9138,8 +9960,12 @@
       <c r="AB205">
         <v>32000</v>
       </c>
-    </row>
-    <row r="206" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC205" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88087499999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X206">
         <v>24755</v>
       </c>
@@ -9152,8 +9978,12 @@
       <c r="AB206">
         <v>32000</v>
       </c>
-    </row>
-    <row r="207" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC206" s="4">
+        <f t="shared" si="5"/>
+        <v>0.76728125000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X207">
         <v>25061</v>
       </c>
@@ -9166,8 +9996,12 @@
       <c r="AB207">
         <v>32000</v>
       </c>
-    </row>
-    <row r="208" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC207" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87818750000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X208">
         <v>25219</v>
       </c>
@@ -9180,8 +10014,12 @@
       <c r="AB208">
         <v>32000</v>
       </c>
-    </row>
-    <row r="209" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC208" s="4">
+        <f t="shared" si="5"/>
+        <v>0.86375000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X209">
         <v>23667</v>
       </c>
@@ -9194,8 +10032,12 @@
       <c r="AB209">
         <v>32000</v>
       </c>
-    </row>
-    <row r="210" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC209" s="4">
+        <f t="shared" si="5"/>
+        <v>0.77981250000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X210">
         <v>24879</v>
       </c>
@@ -9208,8 +10050,12 @@
       <c r="AB210">
         <v>32000</v>
       </c>
-    </row>
-    <row r="211" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC210" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84859375000000004</v>
+      </c>
+    </row>
+    <row r="211" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X211">
         <v>21347</v>
       </c>
@@ -9222,8 +10068,12 @@
       <c r="AB211">
         <v>32000</v>
       </c>
-    </row>
-    <row r="212" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC211" s="4">
+        <f t="shared" si="5"/>
+        <v>0.89024999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X212">
         <v>24646</v>
       </c>
@@ -9236,8 +10086,12 @@
       <c r="AB212">
         <v>32000</v>
       </c>
-    </row>
-    <row r="213" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC212" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87215624999999997</v>
+      </c>
+    </row>
+    <row r="213" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X213">
         <v>25185</v>
       </c>
@@ -9250,8 +10104,12 @@
       <c r="AB213">
         <v>32000</v>
       </c>
-    </row>
-    <row r="214" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC213" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X214">
         <v>24766</v>
       </c>
@@ -9264,8 +10122,12 @@
       <c r="AB214">
         <v>32000</v>
       </c>
-    </row>
-    <row r="215" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC214" s="4">
+        <f t="shared" si="5"/>
+        <v>0.71762499999999996</v>
+      </c>
+    </row>
+    <row r="215" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X215">
         <v>24200</v>
       </c>
@@ -9278,8 +10140,12 @@
       <c r="AB215">
         <v>32000</v>
       </c>
-    </row>
-    <row r="216" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC215" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87540625000000005</v>
+      </c>
+    </row>
+    <row r="216" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X216">
         <v>24807</v>
       </c>
@@ -9292,8 +10158,12 @@
       <c r="AB216">
         <v>32000</v>
       </c>
-    </row>
-    <row r="217" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC216" s="4">
+        <f t="shared" si="5"/>
+        <v>0.83215625000000004</v>
+      </c>
+    </row>
+    <row r="217" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X217">
         <v>24368</v>
       </c>
@@ -9306,8 +10176,12 @@
       <c r="AB217">
         <v>32000</v>
       </c>
-    </row>
-    <row r="218" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC217" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88971875</v>
+      </c>
+    </row>
+    <row r="218" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X218" t="s">
         <v>22</v>
       </c>
@@ -9315,7 +10189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="219" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X219">
         <v>43990</v>
       </c>
@@ -9328,8 +10202,12 @@
       <c r="AB219">
         <v>64000</v>
       </c>
-    </row>
-    <row r="220" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC219" s="4">
+        <f t="shared" si="5"/>
+        <v>0.63257812499999999</v>
+      </c>
+    </row>
+    <row r="220" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X220">
         <v>42809</v>
       </c>
@@ -9342,8 +10220,12 @@
       <c r="AB220">
         <v>64000</v>
       </c>
-    </row>
-    <row r="221" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC220" s="4">
+        <f t="shared" si="5"/>
+        <v>0.63542187500000002</v>
+      </c>
+    </row>
+    <row r="221" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X221">
         <v>47567</v>
       </c>
@@ -9356,8 +10238,12 @@
       <c r="AB221">
         <v>64000</v>
       </c>
-    </row>
-    <row r="222" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC221" s="4">
+        <f t="shared" si="5"/>
+        <v>0.71164062500000003</v>
+      </c>
+    </row>
+    <row r="222" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X222">
         <v>47660</v>
       </c>
@@ -9370,8 +10256,12 @@
       <c r="AB222">
         <v>64000</v>
       </c>
-    </row>
-    <row r="223" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC222" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80693749999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X223">
         <v>31336</v>
       </c>
@@ -9384,8 +10274,12 @@
       <c r="AB223">
         <v>64000</v>
       </c>
-    </row>
-    <row r="224" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC223" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80009375000000005</v>
+      </c>
+    </row>
+    <row r="224" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X224">
         <v>49180</v>
       </c>
@@ -9398,8 +10292,12 @@
       <c r="AB224">
         <v>64000</v>
       </c>
-    </row>
-    <row r="225" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC224" s="4">
+        <f t="shared" si="5"/>
+        <v>0.62664062499999995</v>
+      </c>
+    </row>
+    <row r="225" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X225">
         <v>45717</v>
       </c>
@@ -9412,8 +10310,12 @@
       <c r="AB225">
         <v>64000</v>
       </c>
-    </row>
-    <row r="226" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC225" s="4">
+        <f t="shared" si="5"/>
+        <v>0.87459374999999995</v>
+      </c>
+    </row>
+    <row r="226" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X226">
         <v>47454</v>
       </c>
@@ -9426,8 +10328,12 @@
       <c r="AB226">
         <v>64000</v>
       </c>
-    </row>
-    <row r="227" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC226" s="4">
+        <f t="shared" si="5"/>
+        <v>0.63790625000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X227">
         <v>45464</v>
       </c>
@@ -9440,8 +10346,12 @@
       <c r="AB227">
         <v>64000</v>
       </c>
-    </row>
-    <row r="228" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC227" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74993750000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X228">
         <v>48140</v>
       </c>
@@ -9454,8 +10364,12 @@
       <c r="AB228">
         <v>64000</v>
       </c>
-    </row>
-    <row r="229" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC228" s="4">
+        <f t="shared" si="5"/>
+        <v>0.834078125</v>
+      </c>
+    </row>
+    <row r="229" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X229">
         <v>47382</v>
       </c>
@@ -9468,8 +10382,12 @@
       <c r="AB229">
         <v>64000</v>
       </c>
-    </row>
-    <row r="230" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC229" s="4">
+        <f t="shared" si="5"/>
+        <v>0.74971874999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X230">
         <v>39526</v>
       </c>
@@ -9482,8 +10400,12 @@
       <c r="AB230">
         <v>64000</v>
       </c>
-    </row>
-    <row r="231" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC230" s="4">
+        <f t="shared" si="5"/>
+        <v>0.82062500000000005</v>
+      </c>
+    </row>
+    <row r="231" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X231">
         <v>41183</v>
       </c>
@@ -9496,8 +10418,12 @@
       <c r="AB231">
         <v>64000</v>
       </c>
-    </row>
-    <row r="232" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC231" s="4">
+        <f t="shared" si="5"/>
+        <v>0.71060937499999999</v>
+      </c>
+    </row>
+    <row r="232" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X232">
         <v>47586</v>
       </c>
@@ -9510,8 +10436,12 @@
       <c r="AB232">
         <v>64000</v>
       </c>
-    </row>
-    <row r="233" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC232" s="4">
+        <f t="shared" si="5"/>
+        <v>0.85892187499999995</v>
+      </c>
+    </row>
+    <row r="233" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X233">
         <v>43176</v>
       </c>
@@ -9524,8 +10454,12 @@
       <c r="AB233">
         <v>64000</v>
       </c>
-    </row>
-    <row r="234" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC233" s="4">
+        <f t="shared" si="5"/>
+        <v>0.775390625</v>
+      </c>
+    </row>
+    <row r="234" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X234">
         <v>42289</v>
       </c>
@@ -9538,8 +10472,12 @@
       <c r="AB234">
         <v>64000</v>
       </c>
-    </row>
-    <row r="235" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC234" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84771874999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X235">
         <v>43109</v>
       </c>
@@ -9552,8 +10490,12 @@
       <c r="AB235">
         <v>64000</v>
       </c>
-    </row>
-    <row r="236" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC235" s="4">
+        <f t="shared" si="5"/>
+        <v>0.88265625000000003</v>
+      </c>
+    </row>
+    <row r="236" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X236">
         <v>44127</v>
       </c>
@@ -9566,8 +10508,12 @@
       <c r="AB236">
         <v>64000</v>
       </c>
-    </row>
-    <row r="237" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC236" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80362500000000003</v>
+      </c>
+    </row>
+    <row r="237" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X237">
         <v>42554</v>
       </c>
@@ -9580,8 +10526,12 @@
       <c r="AB237">
         <v>64000</v>
       </c>
-    </row>
-    <row r="238" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC237" s="4">
+        <f t="shared" si="5"/>
+        <v>0.80679687499999997</v>
+      </c>
+    </row>
+    <row r="238" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X238">
         <v>37331</v>
       </c>
@@ -9594,8 +10544,12 @@
       <c r="AB238">
         <v>64000</v>
       </c>
-    </row>
-    <row r="239" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC238" s="4">
+        <f t="shared" si="5"/>
+        <v>0.84418749999999998</v>
+      </c>
+    </row>
+    <row r="239" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X239">
         <v>46864</v>
       </c>
@@ -9608,8 +10562,12 @@
       <c r="AB239">
         <v>64000</v>
       </c>
-    </row>
-    <row r="240" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC239" s="4">
+        <f t="shared" si="5"/>
+        <v>0.75698437500000004</v>
+      </c>
+    </row>
+    <row r="240" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X240">
         <v>45160</v>
       </c>
@@ -9622,8 +10580,12 @@
       <c r="AB240">
         <v>64000</v>
       </c>
-    </row>
-    <row r="241" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC240" s="4">
+        <f t="shared" si="5"/>
+        <v>0.77687499999999998</v>
+      </c>
+    </row>
+    <row r="241" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X241">
         <v>47890</v>
       </c>
@@ -9636,8 +10598,12 @@
       <c r="AB241">
         <v>64000</v>
       </c>
-    </row>
-    <row r="242" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC241" s="4">
+        <f t="shared" si="5"/>
+        <v>0.832125</v>
+      </c>
+    </row>
+    <row r="242" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X242">
         <v>30210</v>
       </c>
@@ -9650,8 +10616,12 @@
       <c r="AB242">
         <v>64000</v>
       </c>
-    </row>
-    <row r="243" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC242" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79046875000000005</v>
+      </c>
+    </row>
+    <row r="243" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X243">
         <v>44633</v>
       </c>
@@ -9664,8 +10634,12 @@
       <c r="AB243">
         <v>64000</v>
       </c>
-    </row>
-    <row r="244" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC243" s="4">
+        <f t="shared" ref="AC243:AC306" si="6">AA243/AB243</f>
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X244">
         <v>41734</v>
       </c>
@@ -9678,8 +10652,12 @@
       <c r="AB244">
         <v>64000</v>
       </c>
-    </row>
-    <row r="245" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC244" s="4">
+        <f t="shared" si="6"/>
+        <v>0.57179687499999998</v>
+      </c>
+    </row>
+    <row r="245" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X245">
         <v>47769</v>
       </c>
@@ -9692,8 +10670,12 @@
       <c r="AB245">
         <v>64000</v>
       </c>
-    </row>
-    <row r="246" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC245" s="4">
+        <f t="shared" si="6"/>
+        <v>0.80839062500000003</v>
+      </c>
+    </row>
+    <row r="246" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X246">
         <v>45568</v>
       </c>
@@ -9706,8 +10688,12 @@
       <c r="AB246">
         <v>64000</v>
       </c>
-    </row>
-    <row r="247" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC246" s="4">
+        <f t="shared" si="6"/>
+        <v>0.79359374999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X247">
         <v>48805</v>
       </c>
@@ -9720,8 +10706,12 @@
       <c r="AB247">
         <v>64000</v>
       </c>
-    </row>
-    <row r="248" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC247" s="4">
+        <f t="shared" si="6"/>
+        <v>0.80043750000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X248">
         <v>43640</v>
       </c>
@@ -9734,8 +10724,12 @@
       <c r="AB248">
         <v>64000</v>
       </c>
-    </row>
-    <row r="249" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC248" s="4">
+        <f t="shared" si="6"/>
+        <v>0.66985937500000003</v>
+      </c>
+    </row>
+    <row r="249" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X249" t="s">
         <v>23</v>
       </c>
@@ -9743,7 +10737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="250" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X250">
         <v>4000</v>
       </c>
@@ -9756,8 +10750,12 @@
       <c r="AB250">
         <v>4000</v>
       </c>
-    </row>
-    <row r="251" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC250" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X251">
         <v>4000</v>
       </c>
@@ -9770,8 +10768,12 @@
       <c r="AB251">
         <v>4000</v>
       </c>
-    </row>
-    <row r="252" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC251" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X252">
         <v>4000</v>
       </c>
@@ -9784,8 +10786,12 @@
       <c r="AB252">
         <v>4000</v>
       </c>
-    </row>
-    <row r="253" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC252" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X253">
         <v>4000</v>
       </c>
@@ -9798,8 +10804,12 @@
       <c r="AB253">
         <v>4000</v>
       </c>
-    </row>
-    <row r="254" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC253" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X254">
         <v>4000</v>
       </c>
@@ -9812,8 +10822,12 @@
       <c r="AB254">
         <v>4000</v>
       </c>
-    </row>
-    <row r="255" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC254" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X255">
         <v>4000</v>
       </c>
@@ -9826,8 +10840,12 @@
       <c r="AB255">
         <v>4000</v>
       </c>
-    </row>
-    <row r="256" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC255" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X256">
         <v>4000</v>
       </c>
@@ -9840,8 +10858,12 @@
       <c r="AB256">
         <v>4000</v>
       </c>
-    </row>
-    <row r="257" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC256" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X257">
         <v>4000</v>
       </c>
@@ -9854,8 +10876,12 @@
       <c r="AB257">
         <v>4000</v>
       </c>
-    </row>
-    <row r="258" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC257" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X258">
         <v>4000</v>
       </c>
@@ -9868,8 +10894,12 @@
       <c r="AB258">
         <v>4000</v>
       </c>
-    </row>
-    <row r="259" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC258" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X259">
         <v>4000</v>
       </c>
@@ -9882,8 +10912,12 @@
       <c r="AB259">
         <v>4000</v>
       </c>
-    </row>
-    <row r="260" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC259" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X260">
         <v>4000</v>
       </c>
@@ -9896,8 +10930,12 @@
       <c r="AB260">
         <v>4000</v>
       </c>
-    </row>
-    <row r="261" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC260" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X261">
         <v>4000</v>
       </c>
@@ -9910,8 +10948,12 @@
       <c r="AB261">
         <v>4000</v>
       </c>
-    </row>
-    <row r="262" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC261" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X262">
         <v>4000</v>
       </c>
@@ -9924,8 +10966,12 @@
       <c r="AB262">
         <v>4000</v>
       </c>
-    </row>
-    <row r="263" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC262" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X263">
         <v>4000</v>
       </c>
@@ -9938,8 +10984,12 @@
       <c r="AB263">
         <v>4000</v>
       </c>
-    </row>
-    <row r="264" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC263" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X264">
         <v>4000</v>
       </c>
@@ -9952,8 +11002,12 @@
       <c r="AB264">
         <v>4000</v>
       </c>
-    </row>
-    <row r="265" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC264" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X265">
         <v>4000</v>
       </c>
@@ -9966,8 +11020,12 @@
       <c r="AB265">
         <v>4000</v>
       </c>
-    </row>
-    <row r="266" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC265" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X266">
         <v>4000</v>
       </c>
@@ -9980,8 +11038,12 @@
       <c r="AB266">
         <v>4000</v>
       </c>
-    </row>
-    <row r="267" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC266" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X267">
         <v>4000</v>
       </c>
@@ -9994,8 +11056,12 @@
       <c r="AB267">
         <v>4000</v>
       </c>
-    </row>
-    <row r="268" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC267" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X268">
         <v>4000</v>
       </c>
@@ -10008,8 +11074,12 @@
       <c r="AB268">
         <v>4000</v>
       </c>
-    </row>
-    <row r="269" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC268" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X269">
         <v>4000</v>
       </c>
@@ -10022,8 +11092,12 @@
       <c r="AB269">
         <v>4000</v>
       </c>
-    </row>
-    <row r="270" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC269" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X270">
         <v>4000</v>
       </c>
@@ -10036,8 +11110,12 @@
       <c r="AB270">
         <v>4000</v>
       </c>
-    </row>
-    <row r="271" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC270" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X271">
         <v>4000</v>
       </c>
@@ -10050,8 +11128,12 @@
       <c r="AB271">
         <v>4000</v>
       </c>
-    </row>
-    <row r="272" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC271" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X272">
         <v>4000</v>
       </c>
@@ -10064,8 +11146,12 @@
       <c r="AB272">
         <v>4000</v>
       </c>
-    </row>
-    <row r="273" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC272" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X273">
         <v>4000</v>
       </c>
@@ -10078,8 +11164,12 @@
       <c r="AB273">
         <v>4000</v>
       </c>
-    </row>
-    <row r="274" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC273" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X274">
         <v>4000</v>
       </c>
@@ -10092,8 +11182,12 @@
       <c r="AB274">
         <v>4000</v>
       </c>
-    </row>
-    <row r="275" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC274" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X275">
         <v>4000</v>
       </c>
@@ -10106,8 +11200,12 @@
       <c r="AB275">
         <v>4000</v>
       </c>
-    </row>
-    <row r="276" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC275" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X276">
         <v>4000</v>
       </c>
@@ -10120,8 +11218,12 @@
       <c r="AB276">
         <v>4000</v>
       </c>
-    </row>
-    <row r="277" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC276" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X277">
         <v>4000</v>
       </c>
@@ -10134,8 +11236,12 @@
       <c r="AB277">
         <v>4000</v>
       </c>
-    </row>
-    <row r="278" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC277" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X278">
         <v>4000</v>
       </c>
@@ -10148,8 +11254,12 @@
       <c r="AB278">
         <v>4000</v>
       </c>
-    </row>
-    <row r="279" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC278" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X279">
         <v>4000</v>
       </c>
@@ -10162,8 +11272,12 @@
       <c r="AB279">
         <v>4000</v>
       </c>
-    </row>
-    <row r="280" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC279" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X280" t="s">
         <v>24</v>
       </c>
@@ -10171,7 +11285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="281" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X281">
         <v>4400</v>
       </c>
@@ -10184,8 +11298,12 @@
       <c r="AB281">
         <v>4400</v>
       </c>
-    </row>
-    <row r="282" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC281" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X282">
         <v>4400</v>
       </c>
@@ -10198,8 +11316,12 @@
       <c r="AB282">
         <v>4400</v>
       </c>
-    </row>
-    <row r="283" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC282" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X283">
         <v>4400</v>
       </c>
@@ -10212,8 +11334,12 @@
       <c r="AB283">
         <v>4400</v>
       </c>
-    </row>
-    <row r="284" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC283" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X284">
         <v>4400</v>
       </c>
@@ -10226,8 +11352,12 @@
       <c r="AB284">
         <v>4400</v>
       </c>
-    </row>
-    <row r="285" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC284" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X285">
         <v>4400</v>
       </c>
@@ -10240,8 +11370,12 @@
       <c r="AB285">
         <v>4400</v>
       </c>
-    </row>
-    <row r="286" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC285" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X286">
         <v>4400</v>
       </c>
@@ -10254,8 +11388,12 @@
       <c r="AB286">
         <v>4400</v>
       </c>
-    </row>
-    <row r="287" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC286" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X287">
         <v>4400</v>
       </c>
@@ -10268,8 +11406,12 @@
       <c r="AB287">
         <v>4400</v>
       </c>
-    </row>
-    <row r="288" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC287" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X288">
         <v>4400</v>
       </c>
@@ -10282,8 +11424,12 @@
       <c r="AB288">
         <v>4400</v>
       </c>
-    </row>
-    <row r="289" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC288" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X289">
         <v>4400</v>
       </c>
@@ -10296,8 +11442,12 @@
       <c r="AB289">
         <v>4400</v>
       </c>
-    </row>
-    <row r="290" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC289" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X290">
         <v>4400</v>
       </c>
@@ -10310,8 +11460,12 @@
       <c r="AB290">
         <v>4400</v>
       </c>
-    </row>
-    <row r="291" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC290" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X291">
         <v>4400</v>
       </c>
@@ -10324,8 +11478,12 @@
       <c r="AB291">
         <v>4400</v>
       </c>
-    </row>
-    <row r="292" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC291" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X292">
         <v>4400</v>
       </c>
@@ -10338,8 +11496,12 @@
       <c r="AB292">
         <v>4400</v>
       </c>
-    </row>
-    <row r="293" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC292" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X293">
         <v>4400</v>
       </c>
@@ -10352,8 +11514,12 @@
       <c r="AB293">
         <v>4400</v>
       </c>
-    </row>
-    <row r="294" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC293" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X294">
         <v>4400</v>
       </c>
@@ -10366,8 +11532,12 @@
       <c r="AB294">
         <v>4400</v>
       </c>
-    </row>
-    <row r="295" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC294" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X295">
         <v>4400</v>
       </c>
@@ -10380,8 +11550,12 @@
       <c r="AB295">
         <v>4400</v>
       </c>
-    </row>
-    <row r="296" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC295" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X296">
         <v>4400</v>
       </c>
@@ -10394,8 +11568,12 @@
       <c r="AB296">
         <v>4400</v>
       </c>
-    </row>
-    <row r="297" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC296" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X297">
         <v>4400</v>
       </c>
@@ -10408,8 +11586,12 @@
       <c r="AB297">
         <v>4400</v>
       </c>
-    </row>
-    <row r="298" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC297" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X298">
         <v>4400</v>
       </c>
@@ -10422,8 +11604,12 @@
       <c r="AB298">
         <v>4400</v>
       </c>
-    </row>
-    <row r="299" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC298" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X299">
         <v>4400</v>
       </c>
@@ -10436,8 +11622,12 @@
       <c r="AB299">
         <v>4400</v>
       </c>
-    </row>
-    <row r="300" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC299" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X300">
         <v>4400</v>
       </c>
@@ -10450,8 +11640,12 @@
       <c r="AB300">
         <v>4400</v>
       </c>
-    </row>
-    <row r="301" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC300" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X301">
         <v>4400</v>
       </c>
@@ -10464,8 +11658,12 @@
       <c r="AB301">
         <v>4400</v>
       </c>
-    </row>
-    <row r="302" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC301" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X302">
         <v>4400</v>
       </c>
@@ -10478,8 +11676,12 @@
       <c r="AB302">
         <v>4400</v>
       </c>
-    </row>
-    <row r="303" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC302" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X303">
         <v>4400</v>
       </c>
@@ -10492,8 +11694,12 @@
       <c r="AB303">
         <v>4400</v>
       </c>
-    </row>
-    <row r="304" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC303" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X304">
         <v>4400</v>
       </c>
@@ -10506,8 +11712,12 @@
       <c r="AB304">
         <v>4400</v>
       </c>
-    </row>
-    <row r="305" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC304" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X305">
         <v>4400</v>
       </c>
@@ -10520,8 +11730,12 @@
       <c r="AB305">
         <v>4400</v>
       </c>
-    </row>
-    <row r="306" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC305" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X306">
         <v>4400</v>
       </c>
@@ -10534,8 +11748,12 @@
       <c r="AB306">
         <v>4400</v>
       </c>
-    </row>
-    <row r="307" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC306" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X307">
         <v>4400</v>
       </c>
@@ -10548,8 +11766,12 @@
       <c r="AB307">
         <v>4400</v>
       </c>
-    </row>
-    <row r="308" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC307" s="4">
+        <f t="shared" ref="AC307:AC370" si="7">AA307/AB307</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X308">
         <v>4400</v>
       </c>
@@ -10562,8 +11784,12 @@
       <c r="AB308">
         <v>4400</v>
       </c>
-    </row>
-    <row r="309" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC308" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X309">
         <v>4400</v>
       </c>
@@ -10576,8 +11802,12 @@
       <c r="AB309">
         <v>4400</v>
       </c>
-    </row>
-    <row r="310" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC309" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X310">
         <v>4400</v>
       </c>
@@ -10590,8 +11820,12 @@
       <c r="AB310">
         <v>4400</v>
       </c>
-    </row>
-    <row r="311" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC310" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X311" t="s">
         <v>25</v>
       </c>
@@ -10599,7 +11833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="312" spans="24:28" x14ac:dyDescent="0.2">
+    <row r="312" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X312">
         <v>8800</v>
       </c>
@@ -10612,8 +11846,12 @@
       <c r="AB312">
         <v>8800</v>
       </c>
-    </row>
-    <row r="313" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC312" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X313">
         <v>8800</v>
       </c>
@@ -10626,8 +11864,12 @@
       <c r="AB313">
         <v>8800</v>
       </c>
-    </row>
-    <row r="314" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC313" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X314">
         <v>8800</v>
       </c>
@@ -10640,8 +11882,12 @@
       <c r="AB314">
         <v>8800</v>
       </c>
-    </row>
-    <row r="315" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC314" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X315">
         <v>8800</v>
       </c>
@@ -10654,8 +11900,12 @@
       <c r="AB315">
         <v>8800</v>
       </c>
-    </row>
-    <row r="316" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC315" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X316">
         <v>8800</v>
       </c>
@@ -10668,8 +11918,12 @@
       <c r="AB316">
         <v>8800</v>
       </c>
-    </row>
-    <row r="317" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC316" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X317">
         <v>8800</v>
       </c>
@@ -10682,8 +11936,12 @@
       <c r="AB317">
         <v>8800</v>
       </c>
-    </row>
-    <row r="318" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC317" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X318">
         <v>8800</v>
       </c>
@@ -10696,8 +11954,12 @@
       <c r="AB318">
         <v>8800</v>
       </c>
-    </row>
-    <row r="319" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC318" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X319">
         <v>8800</v>
       </c>
@@ -10710,8 +11972,12 @@
       <c r="AB319">
         <v>8800</v>
       </c>
-    </row>
-    <row r="320" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC319" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X320">
         <v>8800</v>
       </c>
@@ -10724,8 +11990,12 @@
       <c r="AB320">
         <v>8800</v>
       </c>
-    </row>
-    <row r="321" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC320" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X321">
         <v>8800</v>
       </c>
@@ -10738,8 +12008,12 @@
       <c r="AB321">
         <v>8800</v>
       </c>
-    </row>
-    <row r="322" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC321" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X322">
         <v>8800</v>
       </c>
@@ -10752,8 +12026,12 @@
       <c r="AB322">
         <v>8800</v>
       </c>
-    </row>
-    <row r="323" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC322" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X323">
         <v>8800</v>
       </c>
@@ -10766,8 +12044,12 @@
       <c r="AB323">
         <v>8800</v>
       </c>
-    </row>
-    <row r="324" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC323" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X324">
         <v>8800</v>
       </c>
@@ -10780,8 +12062,12 @@
       <c r="AB324">
         <v>8800</v>
       </c>
-    </row>
-    <row r="325" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC324" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X325">
         <v>8800</v>
       </c>
@@ -10794,8 +12080,12 @@
       <c r="AB325">
         <v>8800</v>
       </c>
-    </row>
-    <row r="326" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC325" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X326">
         <v>8800</v>
       </c>
@@ -10808,8 +12098,12 @@
       <c r="AB326">
         <v>8800</v>
       </c>
-    </row>
-    <row r="327" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC326" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X327">
         <v>8800</v>
       </c>
@@ -10822,8 +12116,12 @@
       <c r="AB327">
         <v>8800</v>
       </c>
-    </row>
-    <row r="328" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC327" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X328">
         <v>8800</v>
       </c>
@@ -10836,8 +12134,12 @@
       <c r="AB328">
         <v>8800</v>
       </c>
-    </row>
-    <row r="329" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC328" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X329">
         <v>8800</v>
       </c>
@@ -10850,8 +12152,12 @@
       <c r="AB329">
         <v>8800</v>
       </c>
-    </row>
-    <row r="330" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC329" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X330">
         <v>8800</v>
       </c>
@@ -10864,8 +12170,12 @@
       <c r="AB330">
         <v>8800</v>
       </c>
-    </row>
-    <row r="331" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC330" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X331">
         <v>8800</v>
       </c>
@@ -10878,8 +12188,12 @@
       <c r="AB331">
         <v>8800</v>
       </c>
-    </row>
-    <row r="332" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC331" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X332">
         <v>8800</v>
       </c>
@@ -10892,8 +12206,12 @@
       <c r="AB332">
         <v>8800</v>
       </c>
-    </row>
-    <row r="333" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC332" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X333">
         <v>8800</v>
       </c>
@@ -10906,8 +12224,12 @@
       <c r="AB333">
         <v>8800</v>
       </c>
-    </row>
-    <row r="334" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC333" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X334">
         <v>8800</v>
       </c>
@@ -10920,8 +12242,12 @@
       <c r="AB334">
         <v>8800</v>
       </c>
-    </row>
-    <row r="335" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC334" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X335">
         <v>8800</v>
       </c>
@@ -10934,8 +12260,12 @@
       <c r="AB335">
         <v>8800</v>
       </c>
-    </row>
-    <row r="336" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC335" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X336">
         <v>8800</v>
       </c>
@@ -10948,8 +12278,12 @@
       <c r="AB336">
         <v>8800</v>
       </c>
-    </row>
-    <row r="337" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC336" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X337">
         <v>8800</v>
       </c>
@@ -10962,8 +12296,12 @@
       <c r="AB337">
         <v>8800</v>
       </c>
-    </row>
-    <row r="338" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC337" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X338">
         <v>8800</v>
       </c>
@@ -10976,8 +12314,12 @@
       <c r="AB338">
         <v>8800</v>
       </c>
-    </row>
-    <row r="339" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC338" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X339">
         <v>8800</v>
       </c>
@@ -10990,8 +12332,12 @@
       <c r="AB339">
         <v>8800</v>
       </c>
-    </row>
-    <row r="340" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC339" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X340">
         <v>8800</v>
       </c>
@@ -11004,8 +12350,12 @@
       <c r="AB340">
         <v>8800</v>
       </c>
-    </row>
-    <row r="341" spans="24:28" x14ac:dyDescent="0.2">
+      <c r="AC340" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="24:29" x14ac:dyDescent="0.2">
       <c r="X341">
         <v>8800</v>
       </c>
@@ -11017,6 +12367,375 @@
       </c>
       <c r="AB341">
         <v>8800</v>
+      </c>
+      <c r="AC341" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA342" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA343">
+        <v>82587</v>
+      </c>
+      <c r="AB343">
+        <v>128000</v>
+      </c>
+      <c r="AC343" s="4">
+        <f t="shared" si="7"/>
+        <v>0.64521093750000003</v>
+      </c>
+    </row>
+    <row r="344" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA344">
+        <v>71493</v>
+      </c>
+      <c r="AB344">
+        <v>128000</v>
+      </c>
+      <c r="AC344" s="4">
+        <f t="shared" si="7"/>
+        <v>0.55853906249999996</v>
+      </c>
+    </row>
+    <row r="345" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA345">
+        <v>51728</v>
+      </c>
+      <c r="AB345">
+        <v>128000</v>
+      </c>
+      <c r="AC345" s="4">
+        <f t="shared" si="7"/>
+        <v>0.40412500000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA346">
+        <v>58633</v>
+      </c>
+      <c r="AB346">
+        <v>128000</v>
+      </c>
+      <c r="AC346" s="4">
+        <f t="shared" si="7"/>
+        <v>0.45807031250000002</v>
+      </c>
+    </row>
+    <row r="347" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA347">
+        <v>51523</v>
+      </c>
+      <c r="AB347">
+        <v>128000</v>
+      </c>
+      <c r="AC347" s="4">
+        <f t="shared" si="7"/>
+        <v>0.40252343750000003</v>
+      </c>
+    </row>
+    <row r="348" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA348">
+        <v>65802</v>
+      </c>
+      <c r="AB348">
+        <v>128000</v>
+      </c>
+      <c r="AC348" s="4">
+        <f t="shared" si="7"/>
+        <v>0.51407812500000005</v>
+      </c>
+    </row>
+    <row r="349" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA349">
+        <v>75724</v>
+      </c>
+      <c r="AB349">
+        <v>128000</v>
+      </c>
+      <c r="AC349" s="4">
+        <f t="shared" si="7"/>
+        <v>0.59159375000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA350">
+        <v>74705</v>
+      </c>
+      <c r="AB350">
+        <v>128000</v>
+      </c>
+      <c r="AC350" s="4">
+        <f t="shared" si="7"/>
+        <v>0.58363281249999999</v>
+      </c>
+    </row>
+    <row r="351" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA351">
+        <v>63737</v>
+      </c>
+      <c r="AB351">
+        <v>128000</v>
+      </c>
+      <c r="AC351" s="4">
+        <f t="shared" si="7"/>
+        <v>0.49794531250000001</v>
+      </c>
+    </row>
+    <row r="352" spans="24:29" x14ac:dyDescent="0.2">
+      <c r="AA352">
+        <v>51068</v>
+      </c>
+      <c r="AB352">
+        <v>128000</v>
+      </c>
+      <c r="AC352" s="4">
+        <f t="shared" si="7"/>
+        <v>0.39896874999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA353">
+        <v>65298</v>
+      </c>
+      <c r="AB353">
+        <v>128000</v>
+      </c>
+      <c r="AC353" s="4">
+        <f t="shared" si="7"/>
+        <v>0.51014062500000001</v>
+      </c>
+    </row>
+    <row r="354" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA354">
+        <v>73307</v>
+      </c>
+      <c r="AB354">
+        <v>128000</v>
+      </c>
+      <c r="AC354" s="4">
+        <f t="shared" si="7"/>
+        <v>0.57271093750000002</v>
+      </c>
+    </row>
+    <row r="355" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA355">
+        <v>65063</v>
+      </c>
+      <c r="AB355">
+        <v>128000</v>
+      </c>
+      <c r="AC355" s="4">
+        <f t="shared" si="7"/>
+        <v>0.50830468750000002</v>
+      </c>
+    </row>
+    <row r="356" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA356">
+        <v>79635</v>
+      </c>
+      <c r="AB356">
+        <v>128000</v>
+      </c>
+      <c r="AC356" s="4">
+        <f t="shared" si="7"/>
+        <v>0.62214843750000004</v>
+      </c>
+    </row>
+    <row r="357" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA357">
+        <v>54057</v>
+      </c>
+      <c r="AB357">
+        <v>128000</v>
+      </c>
+      <c r="AC357" s="4">
+        <f t="shared" si="7"/>
+        <v>0.42232031250000002</v>
+      </c>
+    </row>
+    <row r="358" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA358">
+        <v>65202</v>
+      </c>
+      <c r="AB358">
+        <v>128000</v>
+      </c>
+      <c r="AC358" s="4">
+        <f t="shared" si="7"/>
+        <v>0.50939062499999999</v>
+      </c>
+    </row>
+    <row r="359" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA359">
+        <v>54777</v>
+      </c>
+      <c r="AB359">
+        <v>128000</v>
+      </c>
+      <c r="AC359" s="4">
+        <f t="shared" si="7"/>
+        <v>0.42794531250000001</v>
+      </c>
+    </row>
+    <row r="360" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA360">
+        <v>70656</v>
+      </c>
+      <c r="AB360">
+        <v>128000</v>
+      </c>
+      <c r="AC360" s="4">
+        <f t="shared" si="7"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="361" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA361">
+        <v>46160</v>
+      </c>
+      <c r="AB361">
+        <v>128000</v>
+      </c>
+      <c r="AC361" s="4">
+        <f t="shared" si="7"/>
+        <v>0.36062499999999997</v>
+      </c>
+    </row>
+    <row r="362" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA362">
+        <v>68706</v>
+      </c>
+      <c r="AB362">
+        <v>128000</v>
+      </c>
+      <c r="AC362" s="4">
+        <f t="shared" si="7"/>
+        <v>0.53676562500000002</v>
+      </c>
+    </row>
+    <row r="363" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA363">
+        <v>48488</v>
+      </c>
+      <c r="AB363">
+        <v>128000</v>
+      </c>
+      <c r="AC363" s="4">
+        <f t="shared" si="7"/>
+        <v>0.3788125</v>
+      </c>
+    </row>
+    <row r="364" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA364">
+        <v>62920</v>
+      </c>
+      <c r="AB364">
+        <v>128000</v>
+      </c>
+      <c r="AC364" s="4">
+        <f t="shared" si="7"/>
+        <v>0.49156250000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA365">
+        <v>66682</v>
+      </c>
+      <c r="AB365">
+        <v>128000</v>
+      </c>
+      <c r="AC365" s="4">
+        <f t="shared" si="7"/>
+        <v>0.52095312500000002</v>
+      </c>
+    </row>
+    <row r="366" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA366">
+        <v>59822</v>
+      </c>
+      <c r="AB366">
+        <v>128000</v>
+      </c>
+      <c r="AC366" s="4">
+        <f t="shared" si="7"/>
+        <v>0.46735937500000002</v>
+      </c>
+    </row>
+    <row r="367" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA367">
+        <v>63549</v>
+      </c>
+      <c r="AB367">
+        <v>128000</v>
+      </c>
+      <c r="AC367" s="4">
+        <f t="shared" si="7"/>
+        <v>0.4964765625</v>
+      </c>
+    </row>
+    <row r="368" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA368">
+        <v>74698</v>
+      </c>
+      <c r="AB368">
+        <v>128000</v>
+      </c>
+      <c r="AC368" s="4">
+        <f t="shared" si="7"/>
+        <v>0.58357812499999995</v>
+      </c>
+    </row>
+    <row r="369" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA369">
+        <v>60248</v>
+      </c>
+      <c r="AB369">
+        <v>128000</v>
+      </c>
+      <c r="AC369" s="4">
+        <f t="shared" si="7"/>
+        <v>0.47068749999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA370">
+        <v>73663</v>
+      </c>
+      <c r="AB370">
+        <v>128000</v>
+      </c>
+      <c r="AC370" s="4">
+        <f t="shared" si="7"/>
+        <v>0.57549218749999997</v>
+      </c>
+    </row>
+    <row r="371" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA371">
+        <v>64960</v>
+      </c>
+      <c r="AB371">
+        <v>128000</v>
+      </c>
+      <c r="AC371" s="4">
+        <f t="shared" ref="AC371:AC372" si="8">AA371/AB371</f>
+        <v>0.50749999999999995</v>
+      </c>
+    </row>
+    <row r="372" spans="27:29" x14ac:dyDescent="0.2">
+      <c r="AA372">
+        <v>83313</v>
+      </c>
+      <c r="AB372">
+        <v>128000</v>
+      </c>
+      <c r="AC372" s="4">
+        <f t="shared" si="8"/>
+        <v>0.65088281250000002</v>
       </c>
     </row>
   </sheetData>

--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Optimality" sheetId="2" r:id="rId2"/>
+    <sheet name="Time Table" sheetId="3" r:id="rId2"/>
+    <sheet name="Optimality" sheetId="2" r:id="rId3"/>
+    <sheet name="Optimality Averages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="8" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Time</t>
   </si>
@@ -126,12 +128,21 @@
   <si>
     <t>FINAL</t>
   </si>
+  <si>
+    <t>Percent of Preferences Fulfilled</t>
+  </si>
+  <si>
+    <t>Percentage of Preferences Fulfilled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -146,6 +157,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -155,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -163,12 +198,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -176,8 +303,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -288,7 +424,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$12:$I$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0644333333333333</c:v>
@@ -577,7 +713,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$12:$L$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0644333333333333</c:v>
@@ -891,7 +1027,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$12:$I$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0644333333333333</c:v>
@@ -966,7 +1102,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$12:$L$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.0644333333333333</c:v>
@@ -1184,6 +1320,1228 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Students vs. </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent of Preferences Fulfilled</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Optimality!$A$1:$A$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>16000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Optimality!$B$1:$B$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>0.92975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.93125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.93475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93525</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93325</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.93625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9295</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.935</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.9295</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.92975</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.92825</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.933</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9305</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93425</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.93225</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.915375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.914</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.91425</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.913125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.911875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.9155</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.91275</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91325</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91575</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.907625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.915</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91325</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.915125</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.9145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.912</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.903875</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.9115</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.912125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.915375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.916</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.912375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.913375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.915875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.91575</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.916125</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91475</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91475</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.915375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.914625</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.91425</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.8215</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.8821875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.8980625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.900375</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.89875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.90075</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8991875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.8993125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.90075</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8724375</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.813625</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.8979375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.8979375</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8975</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.903125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.89925</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.889375</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8969375</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.901375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.89825</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.898125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8901875</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.900125</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.896875</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.89925</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.900125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.898875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8946875</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8991875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.90125</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.826</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.88859375</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87165625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.88834375</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.88840625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8515</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.83740625</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.89109375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.76940625</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.8893125</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.8281875</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.891125</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.82590625</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.8885625</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.88940625</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.85784375</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.880875</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.76728125</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.8781875</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.86375</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.7798125</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.84859375</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.89025</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.87215625</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.882</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.717625</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.87540625</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83215625</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.88971875</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.632578125</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.635421875</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.711640625</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.8069375</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.80009375</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.626640625</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.87459375</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.63790625</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.7499375</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.834078125</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.74971875</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.820625</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.710609375</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.858921875</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.775390625</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.84771875</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.88265625</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.803625</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.806796875</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.8441875</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.756984375</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.776875</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.832125</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.79046875</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.851</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.571796875</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.808390625</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.79359375</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.8004375</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.669859375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1985445024"/>
+        <c:axId val="-2004404368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1985445024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2004404368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2004404368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1985445024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1265,6 +2623,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2852,6 +4250,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2916,15 +4830,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2939,6 +4853,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4332,24 +6281,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC372"/>
+  <dimension ref="A1:AF372"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="V336" workbookViewId="0">
-      <selection activeCell="AD346" sqref="AD346"/>
+    <sheetView showRuler="0" topLeftCell="S350" workbookViewId="0">
+      <selection activeCell="AC343" sqref="AC343:AC372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10.83203125" style="4"/>
+    <col min="32" max="32" width="26.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4392,8 +6342,14 @@
       <c r="AA1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8.6999999999999994E-2</v>
       </c>
@@ -4434,8 +6390,15 @@
         <f>AA2/AB2</f>
         <v>0.92974999999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE2">
+        <v>1000</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>AVERAGE(AC2:AC31)</f>
+        <v>0.93246666666666644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4476,8 +6439,15 @@
         <f t="shared" ref="AC3:AC66" si="0">AA3/AB3</f>
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE3">
+        <v>2000</v>
+      </c>
+      <c r="AF3" s="11">
+        <f>AVERAGE(AC33:AC62)</f>
+        <v>0.91365000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.3E-2</v>
       </c>
@@ -4518,8 +6488,15 @@
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE4">
+        <v>4000</v>
+      </c>
+      <c r="AF4" s="11">
+        <f>AVERAGE(AC64:AC93)</f>
+        <v>0.8915770833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.2E-2</v>
       </c>
@@ -4560,8 +6537,15 @@
         <f t="shared" si="0"/>
         <v>0.93625000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE5">
+        <v>8000</v>
+      </c>
+      <c r="AF5" s="11">
+        <f>AVERAGE(AC188:AC217)</f>
+        <v>0.85451874999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4602,8 +6586,15 @@
         <f t="shared" si="0"/>
         <v>0.93474999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE6">
+        <v>16000</v>
+      </c>
+      <c r="AF6" s="11">
+        <f>AVERAGE(AC219:AC248)</f>
+        <v>0.76872031250000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.3E-2</v>
       </c>
@@ -4632,8 +6623,15 @@
         <f t="shared" si="0"/>
         <v>0.93</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE7">
+        <v>32000</v>
+      </c>
+      <c r="AF7" s="11">
+        <f>AVERAGE(AC343:AC372)</f>
+        <v>0.50734479166666679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4663,7 +6661,7 @@
         <v>0.93125000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.3E-2</v>
       </c>
@@ -4693,7 +6691,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -4726,7 +6724,7 @@
         <v>0.93474999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.7000000000000004E-2</v>
       </c>
@@ -4739,16 +6737,16 @@
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="10" t="s">
         <v>29</v>
       </c>
       <c r="X11">
@@ -4768,7 +6766,7 @@
         <v>0.9325</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.3E-2</v>
       </c>
@@ -4781,17 +6779,17 @@
       <c r="E12">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>1000</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <f>AVERAGE(A2:A31)</f>
         <v>6.4433333333333329E-2</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>100</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <f>AVERAGE(D2:D31)</f>
         <v>6.4433333333333329E-2</v>
       </c>
@@ -4815,7 +6813,7 @@
         <v>0.9345</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5.8999999999999997E-2</v>
       </c>
@@ -4828,17 +6826,17 @@
       <c r="E13">
         <v>100</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="5">
         <v>2000</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <f>AVERAGE(A32:A61)</f>
         <v>7.8666666666666676E-2</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>200</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <f>AVERAGE(D32:D61)</f>
         <v>7.7600000000000016E-2</v>
       </c>
@@ -4862,7 +6860,7 @@
         <v>0.93525000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.3E-2</v>
       </c>
@@ -4875,17 +6873,17 @@
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="H14">
-        <v>4000</v>
-      </c>
-      <c r="I14">
+      <c r="H14" s="5">
+        <v>4000</v>
+      </c>
+      <c r="I14" s="6">
         <f>AVERAGE(A62:A91)</f>
         <v>0.11370000000000005</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>400</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <f>AVERAGE(D62:D91)</f>
         <v>0.17363333333333336</v>
       </c>
@@ -4909,7 +6907,7 @@
         <v>0.93325000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.4000000000000001E-2</v>
       </c>
@@ -4922,17 +6920,17 @@
       <c r="E15">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>8000</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <f>AVERAGE(A92:A121)</f>
         <v>0.17883333333333334</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>800</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <f>AVERAGE(D92:D121)</f>
         <v>0.4994333333333334</v>
       </c>
@@ -4956,7 +6954,7 @@
         <v>0.93625000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.06</v>
       </c>
@@ -4969,17 +6967,17 @@
       <c r="E16">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>1600</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <f>AVERAGE(A122:A151)</f>
         <v>0.30863333333333326</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>1600</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="8">
         <f>AVERAGE(D122:D151)</f>
         <v>1.9911999999999999</v>
       </c>
@@ -12746,14 +14744,1685 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>6.4433333333333301E-2</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>6.4433333333333329E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>7.8666666666666676E-2</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>7.7600000000000016E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4000</v>
+      </c>
+      <c r="B4">
+        <v>0.11370000000000005</v>
+      </c>
+      <c r="D4">
+        <v>400</v>
+      </c>
+      <c r="E4">
+        <v>0.17363333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8000</v>
+      </c>
+      <c r="B5">
+        <v>0.17883333333333334</v>
+      </c>
+      <c r="D5">
+        <v>800</v>
+      </c>
+      <c r="E5">
+        <v>0.4994333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16000</v>
+      </c>
+      <c r="B6">
+        <v>0.30863333333333326</v>
+      </c>
+      <c r="D6">
+        <v>1600</v>
+      </c>
+      <c r="E6">
+        <v>1.9911999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1000</v>
+      </c>
+      <c r="B1" s="11">
+        <v>0.92974999999999997</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="11">
+        <f>AVERAGE(B1:B30)</f>
+        <v>0.93246666666666644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="11">
+        <f>AVERAGE(B31:B60)</f>
+        <v>0.91365000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.93625000000000003</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4" s="11">
+        <f>AVERAGE(B61:B90)</f>
+        <v>0.8915770833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.93474999999999997</v>
+      </c>
+      <c r="D5">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="11">
+        <f>AVERAGE(B91:B120)</f>
+        <v>0.85451874999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D6">
+        <v>16000</v>
+      </c>
+      <c r="E6" s="11">
+        <f>AVERAGE(B121:B150)</f>
+        <v>0.76872031250000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.93125000000000002</v>
+      </c>
+      <c r="D7">
+        <v>32000</v>
+      </c>
+      <c r="E7" s="11">
+        <f>AVERAGE(B151:B180)</f>
+        <v>0.50734479166666679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.93474999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.93525000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.93325000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.93625000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.93425000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.93025000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.93225000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="11">
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.93274999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.92949999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>0.9325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25" s="11">
+        <v>0.92974999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1000</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0.92825000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1000</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0.93049999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1000</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.93425000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.93225000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2000</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.91425000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2000</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.91312499999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2000</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.91187499999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2000</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.91549999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2000</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.91274999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2000</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.91325000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2000</v>
+      </c>
+      <c r="B39" s="11">
+        <v>0.91574999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2000</v>
+      </c>
+      <c r="B40" s="11">
+        <v>0.90762500000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2000</v>
+      </c>
+      <c r="B41" s="11">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2000</v>
+      </c>
+      <c r="B42" s="11">
+        <v>0.91325000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.91512499999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.91449999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2000</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2000</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.90387499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.91149999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2000</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.91212499999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2000</v>
+      </c>
+      <c r="B49" s="11">
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2000</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>2000</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.91237500000000005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>2000</v>
+      </c>
+      <c r="B52" s="11">
+        <v>0.91337500000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2000</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0.91587499999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>2000</v>
+      </c>
+      <c r="B54" s="11">
+        <v>0.91574999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2000</v>
+      </c>
+      <c r="B55" s="11">
+        <v>0.91612499999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>2000</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.91474999999999995</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2000</v>
+      </c>
+      <c r="B57" s="11">
+        <v>0.91474999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>2000</v>
+      </c>
+      <c r="B58" s="11">
+        <v>0.91537500000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>2000</v>
+      </c>
+      <c r="B59" s="11">
+        <v>0.91462500000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>2000</v>
+      </c>
+      <c r="B60" s="11">
+        <v>0.91425000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4000</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0.82150000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4000</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0.88218750000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4000</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.89806249999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4000</v>
+      </c>
+      <c r="B64" s="11">
+        <v>0.90037500000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4000</v>
+      </c>
+      <c r="B65" s="11">
+        <v>0.89875000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>4000</v>
+      </c>
+      <c r="B66" s="11">
+        <v>0.90075000000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>4000</v>
+      </c>
+      <c r="B67" s="11">
+        <v>0.89918750000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>4000</v>
+      </c>
+      <c r="B68" s="11">
+        <v>0.89931249999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>4000</v>
+      </c>
+      <c r="B69" s="11">
+        <v>0.90075000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4000</v>
+      </c>
+      <c r="B70" s="11">
+        <v>0.87243749999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4000</v>
+      </c>
+      <c r="B71" s="11">
+        <v>0.81362500000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>4000</v>
+      </c>
+      <c r="B72" s="11">
+        <v>0.89793750000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>4000</v>
+      </c>
+      <c r="B73" s="11">
+        <v>0.89793750000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4000</v>
+      </c>
+      <c r="B74" s="11">
+        <v>0.89749999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>4000</v>
+      </c>
+      <c r="B75" s="11">
+        <v>0.90312499999999996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>4000</v>
+      </c>
+      <c r="B76" s="11">
+        <v>0.89924999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>4000</v>
+      </c>
+      <c r="B77" s="11">
+        <v>0.88937500000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>4000</v>
+      </c>
+      <c r="B78" s="11">
+        <v>0.89693750000000005</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>4000</v>
+      </c>
+      <c r="B79" s="11">
+        <v>0.90137500000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>4000</v>
+      </c>
+      <c r="B80" s="11">
+        <v>0.89824999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>4000</v>
+      </c>
+      <c r="B81" s="11">
+        <v>0.89812499999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>4000</v>
+      </c>
+      <c r="B82" s="11">
+        <v>0.89018750000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>4000</v>
+      </c>
+      <c r="B83" s="11">
+        <v>0.90012499999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>4000</v>
+      </c>
+      <c r="B84" s="11">
+        <v>0.89687499999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>4000</v>
+      </c>
+      <c r="B85" s="11">
+        <v>0.89924999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>4000</v>
+      </c>
+      <c r="B86" s="11">
+        <v>0.90012499999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>4000</v>
+      </c>
+      <c r="B87" s="11">
+        <v>0.89887499999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>4000</v>
+      </c>
+      <c r="B88" s="11">
+        <v>0.89468749999999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4000</v>
+      </c>
+      <c r="B89" s="11">
+        <v>0.89918750000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>4000</v>
+      </c>
+      <c r="B90" s="11">
+        <v>0.90125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8000</v>
+      </c>
+      <c r="B91" s="11">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>8000</v>
+      </c>
+      <c r="B92" s="11">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8000</v>
+      </c>
+      <c r="B93" s="11">
+        <v>0.88859374999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>8000</v>
+      </c>
+      <c r="B94" s="11">
+        <v>0.87165625000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>8000</v>
+      </c>
+      <c r="B95" s="11">
+        <v>0.88834374999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>8000</v>
+      </c>
+      <c r="B96" s="11">
+        <v>0.88840624999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>8000</v>
+      </c>
+      <c r="B97" s="11">
+        <v>0.85150000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>8000</v>
+      </c>
+      <c r="B98" s="11">
+        <v>0.83740625000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>8000</v>
+      </c>
+      <c r="B99" s="11">
+        <v>0.89109375000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>8000</v>
+      </c>
+      <c r="B100" s="11">
+        <v>0.76940624999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>8000</v>
+      </c>
+      <c r="B101" s="11">
+        <v>0.88931249999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>8000</v>
+      </c>
+      <c r="B102" s="11">
+        <v>0.82818749999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>8000</v>
+      </c>
+      <c r="B103" s="11">
+        <v>0.89112499999999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>8000</v>
+      </c>
+      <c r="B104" s="11">
+        <v>0.82590624999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>8000</v>
+      </c>
+      <c r="B105" s="11">
+        <v>0.88856250000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>8000</v>
+      </c>
+      <c r="B106" s="11">
+        <v>0.88940624999999995</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>8000</v>
+      </c>
+      <c r="B107" s="11">
+        <v>0.85784375000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8000</v>
+      </c>
+      <c r="B108" s="11">
+        <v>0.88087499999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>8000</v>
+      </c>
+      <c r="B109" s="11">
+        <v>0.76728125000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>8000</v>
+      </c>
+      <c r="B110" s="11">
+        <v>0.87818750000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>8000</v>
+      </c>
+      <c r="B111" s="11">
+        <v>0.86375000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>8000</v>
+      </c>
+      <c r="B112" s="11">
+        <v>0.77981250000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>8000</v>
+      </c>
+      <c r="B113" s="11">
+        <v>0.84859375000000004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>8000</v>
+      </c>
+      <c r="B114" s="11">
+        <v>0.89024999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>8000</v>
+      </c>
+      <c r="B115" s="11">
+        <v>0.87215624999999997</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>8000</v>
+      </c>
+      <c r="B116" s="11">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>8000</v>
+      </c>
+      <c r="B117" s="11">
+        <v>0.71762499999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8000</v>
+      </c>
+      <c r="B118" s="11">
+        <v>0.87540625000000005</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8000</v>
+      </c>
+      <c r="B119" s="11">
+        <v>0.83215625000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8000</v>
+      </c>
+      <c r="B120" s="11">
+        <v>0.88971875</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>16000</v>
+      </c>
+      <c r="B121" s="4">
+        <v>0.63257812499999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>16000</v>
+      </c>
+      <c r="B122" s="4">
+        <v>0.63542187500000002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>16000</v>
+      </c>
+      <c r="B123" s="4">
+        <v>0.71164062500000003</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>16000</v>
+      </c>
+      <c r="B124" s="4">
+        <v>0.80693749999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>16000</v>
+      </c>
+      <c r="B125" s="4">
+        <v>0.80009375000000005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>16000</v>
+      </c>
+      <c r="B126" s="4">
+        <v>0.62664062499999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>16000</v>
+      </c>
+      <c r="B127" s="4">
+        <v>0.87459374999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>16000</v>
+      </c>
+      <c r="B128" s="4">
+        <v>0.63790625000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>16000</v>
+      </c>
+      <c r="B129" s="4">
+        <v>0.74993750000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>16000</v>
+      </c>
+      <c r="B130" s="4">
+        <v>0.834078125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>16000</v>
+      </c>
+      <c r="B131" s="4">
+        <v>0.74971874999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>16000</v>
+      </c>
+      <c r="B132" s="4">
+        <v>0.82062500000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>16000</v>
+      </c>
+      <c r="B133" s="4">
+        <v>0.71060937499999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>16000</v>
+      </c>
+      <c r="B134" s="4">
+        <v>0.85892187499999995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>16000</v>
+      </c>
+      <c r="B135" s="4">
+        <v>0.775390625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>16000</v>
+      </c>
+      <c r="B136" s="4">
+        <v>0.84771874999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>16000</v>
+      </c>
+      <c r="B137" s="4">
+        <v>0.88265625000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>16000</v>
+      </c>
+      <c r="B138" s="4">
+        <v>0.80362500000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>16000</v>
+      </c>
+      <c r="B139" s="4">
+        <v>0.80679687499999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>16000</v>
+      </c>
+      <c r="B140" s="4">
+        <v>0.84418749999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>16000</v>
+      </c>
+      <c r="B141" s="4">
+        <v>0.75698437500000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>16000</v>
+      </c>
+      <c r="B142" s="4">
+        <v>0.77687499999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>16000</v>
+      </c>
+      <c r="B143" s="4">
+        <v>0.832125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>16000</v>
+      </c>
+      <c r="B144" s="4">
+        <v>0.79046875000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>16000</v>
+      </c>
+      <c r="B145" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>16000</v>
+      </c>
+      <c r="B146" s="4">
+        <v>0.57179687499999998</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>16000</v>
+      </c>
+      <c r="B147" s="4">
+        <v>0.80839062500000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>16000</v>
+      </c>
+      <c r="B148" s="4">
+        <v>0.79359374999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>16000</v>
+      </c>
+      <c r="B149" s="4">
+        <v>0.80043750000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>16000</v>
+      </c>
+      <c r="B150" s="4">
+        <v>0.66985937500000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>32000</v>
+      </c>
+      <c r="B151" s="11">
+        <v>0.64521093750000003</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>32000</v>
+      </c>
+      <c r="B152" s="11">
+        <v>0.55853906249999996</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>32000</v>
+      </c>
+      <c r="B153" s="11">
+        <v>0.40412500000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>32000</v>
+      </c>
+      <c r="B154" s="11">
+        <v>0.45807031250000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>32000</v>
+      </c>
+      <c r="B155" s="11">
+        <v>0.40252343750000003</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>32000</v>
+      </c>
+      <c r="B156" s="11">
+        <v>0.51407812500000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>32000</v>
+      </c>
+      <c r="B157" s="11">
+        <v>0.59159375000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>32000</v>
+      </c>
+      <c r="B158" s="11">
+        <v>0.58363281249999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>32000</v>
+      </c>
+      <c r="B159" s="11">
+        <v>0.49794531250000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>32000</v>
+      </c>
+      <c r="B160" s="11">
+        <v>0.39896874999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>32000</v>
+      </c>
+      <c r="B161" s="11">
+        <v>0.51014062500000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>32000</v>
+      </c>
+      <c r="B162" s="11">
+        <v>0.57271093750000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>32000</v>
+      </c>
+      <c r="B163" s="11">
+        <v>0.50830468750000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>32000</v>
+      </c>
+      <c r="B164" s="11">
+        <v>0.62214843750000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>32000</v>
+      </c>
+      <c r="B165" s="11">
+        <v>0.42232031250000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>32000</v>
+      </c>
+      <c r="B166" s="11">
+        <v>0.50939062499999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>32000</v>
+      </c>
+      <c r="B167" s="11">
+        <v>0.42794531250000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>32000</v>
+      </c>
+      <c r="B168" s="11">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>32000</v>
+      </c>
+      <c r="B169" s="11">
+        <v>0.36062499999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>32000</v>
+      </c>
+      <c r="B170" s="11">
+        <v>0.53676562500000002</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>32000</v>
+      </c>
+      <c r="B171" s="11">
+        <v>0.3788125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>32000</v>
+      </c>
+      <c r="B172" s="11">
+        <v>0.49156250000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>32000</v>
+      </c>
+      <c r="B173" s="11">
+        <v>0.52095312500000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>32000</v>
+      </c>
+      <c r="B174" s="11">
+        <v>0.46735937500000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>32000</v>
+      </c>
+      <c r="B175" s="11">
+        <v>0.4964765625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>32000</v>
+      </c>
+      <c r="B176" s="11">
+        <v>0.58357812499999995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>32000</v>
+      </c>
+      <c r="B177" s="11">
+        <v>0.47068749999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>32000</v>
+      </c>
+      <c r="B178" s="11">
+        <v>0.57549218749999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>32000</v>
+      </c>
+      <c r="B179" s="11">
+        <v>0.50749999999999995</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>32000</v>
+      </c>
+      <c r="B180" s="11">
+        <v>0.65088281250000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.93246666666666644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.91365000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.8915770833333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.85451874999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>16000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.76872031250000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.50734479166666679</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/experimentTimes.xlsx
+++ b/experimentTimes.xlsx
@@ -4871,10 +4871,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
